--- a/data/TT24_phenology_dates.xlsx
+++ b/data/TT24_phenology_dates.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{322AC4EC-2D03-C442-8ED5-41B64F40BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1B162-E671-B243-B98B-4C81C5ACF63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="42280" windowHeight="28040" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
+    <workbookView xWindow="1620" yWindow="500" windowWidth="45200" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
   </bookViews>
   <sheets>
-    <sheet name="TRILLIUM" sheetId="1" r:id="rId1"/>
-    <sheet name="MAIANTHEMUM" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRILLIUM!$A$1:$L$105</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">TRILLIUM!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$187</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +131,24 @@
   <si>
     <t>Tri</t>
   </si>
+  <si>
+    <t>untagged by between quad 2 and 4</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>4/10: some signs of chlorosis</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>orange flag</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
 </sst>
 </file>
 
@@ -153,15 +170,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,11 +220,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -216,49 +324,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -587,6 +688,44 @@
         </left>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -601,25 +740,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L105" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="14">
-  <autoFilter ref="A1:L105" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L187" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:L187" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L105">
     <sortCondition ref="C2:C105"/>
     <sortCondition ref="A2:A105"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4DD93A34-4A01-FE4A-90BA-5948ABB52889}" name="id" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{169BB96E-993D-E04D-BB8A-BE03C0BC36F9}" name="spp" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{25C0085E-768D-9347-86A9-5900797D647F}" name="plot" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4C884772-B309-334D-994A-5F1917A74325}" name="subplot" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C87C6C52-FF2D-D840-ABC0-4D421484761E}" name="quadrat" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{CB7C6F01-8734-E240-9C89-F48CD097947D}" name="alive_23" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F9DCBF60-B664-EE41-A9D8-ADD14E17AD5B}" name="abg_24" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4254AC75-612F-7B46-A112-8E9C0ED38C1E}" name="date_unwhorled" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{DF0B242E-8913-4E4E-9AD5-3E3884A31C0D}" name="date_flowering" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8A79CAFF-4477-AD42-BB22-C66A94CCDFEC}" name="date_senesce" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{9889C764-257E-C14C-94BE-415D9D7BAB52}" name="date_other" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{77FF84D2-ADA7-284F-ACD1-0DFFA49ADA16}" name="notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4DD93A34-4A01-FE4A-90BA-5948ABB52889}" name="id" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{169BB96E-993D-E04D-BB8A-BE03C0BC36F9}" name="spp" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{25C0085E-768D-9347-86A9-5900797D647F}" name="plot" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4C884772-B309-334D-994A-5F1917A74325}" name="subplot" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C87C6C52-FF2D-D840-ABC0-4D421484761E}" name="quadrat" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CB7C6F01-8734-E240-9C89-F48CD097947D}" name="alive_23" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F9DCBF60-B664-EE41-A9D8-ADD14E17AD5B}" name="abg_24" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4254AC75-612F-7B46-A112-8E9C0ED38C1E}" name="date_unwhorled" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DF0B242E-8913-4E4E-9AD5-3E3884A31C0D}" name="date_flowering" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8A79CAFF-4477-AD42-BB22-C66A94CCDFEC}" name="date_senesce" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{9889C764-257E-C14C-94BE-415D9D7BAB52}" name="date_other" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{77FF84D2-ADA7-284F-ACD1-0DFFA49ADA16}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,10 +1084,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A113" zoomScale="110" zoomScaleNormal="280" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,8 +1163,12 @@
       <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="7">
+        <v>45394</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1050,8 +1193,12 @@
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7">
+        <v>45392</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1196,8 +1343,12 @@
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45392</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1222,7 +1373,9 @@
       <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1248,12 +1401,18 @@
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7">
+        <v>45392</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -1274,7 +1433,9 @@
       <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1300,8 +1461,12 @@
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45392</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1326,8 +1491,12 @@
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45392</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1355,7 +1524,9 @@
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="7">
+        <v>45392</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1410,7 +1581,9 @@
       <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1496,8 +1669,12 @@
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7">
+        <v>45392</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1552,8 +1729,12 @@
       <c r="F21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7">
+        <v>45392</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1581,7 +1762,9 @@
       <c r="G22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="7">
+        <v>45392</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1606,8 +1789,12 @@
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="7">
+        <v>45392</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1635,7 +1822,9 @@
       <c r="G24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="7">
+        <v>45392</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1663,7 +1852,9 @@
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="7">
+        <v>45392</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1688,8 +1879,12 @@
       <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="7">
+        <v>45392</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1714,8 +1909,12 @@
       <c r="F27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="7">
+        <v>45392</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1740,8 +1939,12 @@
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="7">
+        <v>45392</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1769,7 +1972,9 @@
       <c r="G29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="7">
+        <v>45392</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1794,8 +1999,12 @@
       <c r="F30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="7">
+        <v>45392</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1823,7 +2032,9 @@
       <c r="G31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="7">
+        <v>45392</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1848,12 +2059,18 @@
       <c r="F32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="7">
+        <v>45392</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1904,8 +2121,12 @@
       <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="7">
+        <v>45392</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1933,7 +2154,9 @@
       <c r="G35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="7">
+        <v>45392</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1961,7 +2184,9 @@
       <c r="G36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="7">
+        <v>45392</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1983,9 +2208,15 @@
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
+      <c r="F37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="7">
+        <v>45392</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2013,7 +2244,9 @@
       <c r="G38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="7">
+        <v>45392</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2038,8 +2271,12 @@
       <c r="F39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="7">
+        <v>45392</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2067,7 +2304,9 @@
       <c r="G40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="7">
+        <v>45392</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2095,7 +2334,9 @@
       <c r="G41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="7">
+        <v>45392</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2125,7 +2366,9 @@
       <c r="G42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="7">
+        <v>45392</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2183,7 +2426,9 @@
       <c r="G44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="7">
+        <v>45392</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2208,7 +2453,9 @@
       <c r="F45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2234,7 +2481,9 @@
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2293,7 +2542,9 @@
       <c r="G48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="7">
+        <v>45392</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2320,7 +2571,9 @@
       <c r="F49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2349,7 +2602,9 @@
       <c r="G50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="7">
+        <v>45392</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -2377,7 +2632,9 @@
       <c r="G51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="7">
+        <v>45392</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -2405,7 +2662,9 @@
       <c r="G52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="7">
+        <v>45392</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2433,11 +2692,15 @@
       <c r="G53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="7">
+        <v>45392</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
@@ -2458,8 +2721,12 @@
       <c r="F54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="7">
+        <v>45392</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2487,7 +2754,9 @@
       <c r="G55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="7">
+        <v>45392</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2515,7 +2784,9 @@
       <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="7">
+        <v>45392</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2540,7 +2811,9 @@
       <c r="F57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H57" s="7">
         <v>45390</v>
       </c>
@@ -2571,7 +2844,9 @@
       <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="7">
+        <v>45392</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2596,8 +2871,12 @@
       <c r="F59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="7">
+        <v>45392</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2622,8 +2901,12 @@
       <c r="F60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="3"/>
+      <c r="G60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="7">
+        <v>45392</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -2648,12 +2931,18 @@
       <c r="F61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="7"/>
+      <c r="G61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="7">
+        <v>45392</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="5"/>
+      <c r="L61" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
@@ -2674,8 +2963,12 @@
       <c r="F62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="3"/>
+      <c r="G62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="7">
+        <v>45392</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2700,8 +2993,12 @@
       <c r="F63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="3"/>
+      <c r="G63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="7">
+        <v>45392</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -2789,7 +3086,9 @@
       <c r="G66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="7">
+        <v>45392</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -2814,8 +3113,12 @@
       <c r="F67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="3"/>
+      <c r="G67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="7">
+        <v>45392</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -2902,7 +3205,9 @@
       <c r="F70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -2930,8 +3235,12 @@
       <c r="F71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="3"/>
+      <c r="G71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="7">
+        <v>45392</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -2956,7 +3265,9 @@
       <c r="F72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -2984,7 +3295,9 @@
       <c r="F73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -3010,7 +3323,9 @@
       <c r="F74" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -3030,7 +3345,9 @@
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -3056,7 +3373,9 @@
       <c r="F76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -3082,8 +3401,12 @@
       <c r="F77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="3"/>
+      <c r="G77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="7">
+        <v>45392</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3111,7 +3434,9 @@
       <c r="G78" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="7">
+        <v>45392</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -3136,8 +3461,12 @@
       <c r="F79" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="3"/>
+      <c r="G79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="7">
+        <v>45392</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3162,7 +3491,9 @@
       <c r="F80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -3221,7 +3552,9 @@
       <c r="G82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="7">
+        <v>45392</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -3246,7 +3579,9 @@
       <c r="F83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -3272,8 +3607,12 @@
       <c r="F84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="3"/>
+      <c r="G84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="7">
+        <v>45392</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3298,7 +3637,9 @@
       <c r="F85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -3324,8 +3665,12 @@
       <c r="F86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="3"/>
+      <c r="G86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="7">
+        <v>45392</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -3350,7 +3695,9 @@
       <c r="F87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H87" s="7"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -3379,7 +3726,9 @@
       <c r="G88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="7">
+        <v>45392</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -3426,7 +3775,9 @@
       <c r="F90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3455,7 +3806,9 @@
       <c r="G91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="7">
+        <v>45392</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -3480,8 +3833,12 @@
       <c r="F92" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="3"/>
+      <c r="G92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="7">
+        <v>45392</v>
+      </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -3506,7 +3863,9 @@
       <c r="F93" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -3535,7 +3894,9 @@
       <c r="G94" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="7">
+        <v>45392</v>
+      </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -3560,7 +3921,9 @@
       <c r="F95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -3589,7 +3952,9 @@
       <c r="G96" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="7">
+        <v>45392</v>
+      </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -3617,7 +3982,9 @@
       <c r="G97" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="7">
+        <v>45392</v>
+      </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -3642,7 +4009,9 @@
       <c r="F98" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -3668,7 +4037,9 @@
       <c r="F99" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -3697,7 +4068,9 @@
       <c r="G100" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H100" s="3"/>
+      <c r="H100" s="7">
+        <v>45392</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -3722,7 +4095,9 @@
       <c r="F101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -3751,7 +4126,9 @@
       <c r="G102" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="H102" s="7">
+        <v>45392</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -3776,12 +4153,16 @@
       <c r="F103" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="5"/>
+      <c r="L103" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="104" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
@@ -3802,38 +4183,2172 @@
       <c r="F104" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="3">
-        <v>6</v>
-      </c>
-      <c r="D105" s="3">
+      <c r="L104" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="24">
+        <v>6</v>
+      </c>
+      <c r="D105" s="24">
         <v>5</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="25">
         <v>4</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="5"/>
+      <c r="F105" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="26"/>
+    </row>
+    <row r="106" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>4250</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="19">
+        <v>3</v>
+      </c>
+      <c r="D106" s="19">
+        <v>2</v>
+      </c>
+      <c r="E106" s="20">
+        <v>4</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="21"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>9412</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3</v>
+      </c>
+      <c r="D107" s="3">
+        <v>3</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
+        <v>2310</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="8">
+        <v>3</v>
+      </c>
+      <c r="D108" s="8">
+        <v>4</v>
+      </c>
+      <c r="E108" s="9">
+        <v>2</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>5105</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="3">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>8</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
+        <v>3643</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="8">
+        <v>3</v>
+      </c>
+      <c r="D110" s="8">
+        <v>12</v>
+      </c>
+      <c r="E110" s="9">
+        <v>2</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3">
+        <v>13</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A112" s="10">
+        <v>5184</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="8">
+        <v>3</v>
+      </c>
+      <c r="D112" s="8">
+        <v>13</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>54</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>16</v>
+      </c>
+      <c r="E113" s="4">
+        <v>4</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A114" s="10">
+        <v>129</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="8">
+        <v>3</v>
+      </c>
+      <c r="D114" s="8">
+        <v>18</v>
+      </c>
+      <c r="E114" s="9">
+        <v>2</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>2268</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>18</v>
+      </c>
+      <c r="E115" s="4">
+        <v>4</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A116" s="10">
+        <v>6876</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="8">
+        <v>3</v>
+      </c>
+      <c r="D116" s="8">
+        <v>18</v>
+      </c>
+      <c r="E116" s="9">
+        <v>2</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>6869</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3</v>
+      </c>
+      <c r="D117" s="3">
+        <v>21</v>
+      </c>
+      <c r="E117" s="4">
+        <v>4</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A118" s="10">
+        <v>2337</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="8">
+        <v>3</v>
+      </c>
+      <c r="D118" s="8">
+        <v>22</v>
+      </c>
+      <c r="E118" s="9">
+        <v>2</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3</v>
+      </c>
+      <c r="D119" s="3">
+        <v>24</v>
+      </c>
+      <c r="E119" s="4">
+        <v>2</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A120" s="10">
+        <v>5030</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="8">
+        <v>3</v>
+      </c>
+      <c r="D120" s="8">
+        <v>24</v>
+      </c>
+      <c r="E120" s="9">
+        <v>1</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>5069</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3</v>
+      </c>
+      <c r="D121" s="3">
+        <v>24</v>
+      </c>
+      <c r="E121" s="4">
+        <v>2</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A122" s="14">
+        <v>179</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="15">
+        <v>3</v>
+      </c>
+      <c r="D122" s="15">
+        <v>30</v>
+      </c>
+      <c r="E122" s="16">
+        <v>2</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>511</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
+        <v>30</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A124" s="10">
+        <v>543</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="8">
+        <v>3</v>
+      </c>
+      <c r="D124" s="8">
+        <v>30</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>1157</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+      <c r="D125" s="3">
+        <v>30</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A126" s="10">
+        <v>1663</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="8">
+        <v>3</v>
+      </c>
+      <c r="D126" s="8">
+        <v>30</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>2131</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="3">
+        <v>3</v>
+      </c>
+      <c r="D127" s="3">
+        <v>30</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A128" s="10">
+        <v>3665</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="8">
+        <v>3</v>
+      </c>
+      <c r="D128" s="8">
+        <v>30</v>
+      </c>
+      <c r="E128" s="9">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>6900</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2</v>
+      </c>
+      <c r="E129" s="4">
+        <v>4</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A130" s="10">
+        <v>631</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="8">
+        <v>5</v>
+      </c>
+      <c r="D130" s="8">
+        <v>3</v>
+      </c>
+      <c r="E130" s="9">
+        <v>3</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130" s="4"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>3960</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="3">
+        <v>5</v>
+      </c>
+      <c r="D131" s="3">
+        <v>3</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A132" s="10">
+        <v>3993</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="8">
+        <v>5</v>
+      </c>
+      <c r="D132" s="8">
+        <v>3</v>
+      </c>
+      <c r="E132" s="9">
+        <v>1</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="3">
+        <v>5</v>
+      </c>
+      <c r="D133" s="3">
+        <v>3</v>
+      </c>
+      <c r="E133" s="4">
+        <v>3</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="8">
+        <v>5</v>
+      </c>
+      <c r="D134" s="8">
+        <v>3</v>
+      </c>
+      <c r="E134" s="9">
+        <v>3</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>1432</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="3">
+        <v>5</v>
+      </c>
+      <c r="D135" s="3">
+        <v>17</v>
+      </c>
+      <c r="E135" s="4">
+        <v>2</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A136" s="10">
+        <v>1499</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="8">
+        <v>5</v>
+      </c>
+      <c r="D136" s="8">
+        <v>17</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>2803</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="3">
+        <v>5</v>
+      </c>
+      <c r="D137" s="3">
+        <v>18</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A138" s="10">
+        <v>1476</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="8">
+        <v>5</v>
+      </c>
+      <c r="D138" s="8">
+        <v>23</v>
+      </c>
+      <c r="E138" s="9">
+        <v>1</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>4781</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="3">
+        <v>5</v>
+      </c>
+      <c r="D139" s="3">
+        <v>23</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A140" s="10">
+        <v>5657</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="8">
+        <v>5</v>
+      </c>
+      <c r="D140" s="8">
+        <v>23</v>
+      </c>
+      <c r="E140" s="9">
+        <v>1</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>2616</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="3">
+        <v>5</v>
+      </c>
+      <c r="D141" s="3">
+        <v>36</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A142" s="14">
+        <v>2637</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="15">
+        <v>5</v>
+      </c>
+      <c r="D142" s="15">
+        <v>36</v>
+      </c>
+      <c r="E142" s="16">
+        <v>3</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="13"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>2662</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="3">
+        <v>5</v>
+      </c>
+      <c r="D143" s="3">
+        <v>36</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A144" s="10">
+        <v>5052</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="8">
+        <v>5</v>
+      </c>
+      <c r="D144" s="8">
+        <v>36</v>
+      </c>
+      <c r="E144" s="9">
+        <v>3</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>5122</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="3">
+        <v>6</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2</v>
+      </c>
+      <c r="E145" s="4">
+        <v>4</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A146" s="10">
+        <v>1144</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="8">
+        <v>6</v>
+      </c>
+      <c r="D146" s="8">
+        <v>8</v>
+      </c>
+      <c r="E146" s="9">
+        <v>4</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="4"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" s="3">
+        <v>6</v>
+      </c>
+      <c r="D147" s="3">
+        <v>8</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A148" s="10">
+        <v>1406</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="8">
+        <v>6</v>
+      </c>
+      <c r="D148" s="8">
+        <v>8</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>1495</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" s="3">
+        <v>6</v>
+      </c>
+      <c r="D149" s="3">
+        <v>8</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" s="4"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A150" s="10">
+        <v>3120</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="8">
+        <v>6</v>
+      </c>
+      <c r="D150" s="8">
+        <v>8</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="4"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>4249</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" s="3">
+        <v>6</v>
+      </c>
+      <c r="D151" s="3">
+        <v>8</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="4"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A152" s="10">
+        <v>4722</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="8">
+        <v>6</v>
+      </c>
+      <c r="D152" s="8">
+        <v>8</v>
+      </c>
+      <c r="E152" s="9">
+        <v>2</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="4"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>5009</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" s="3">
+        <v>6</v>
+      </c>
+      <c r="D153" s="3">
+        <v>8</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G153" s="4"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A154" s="10">
+        <v>5596</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="8">
+        <v>6</v>
+      </c>
+      <c r="D154" s="8">
+        <v>8</v>
+      </c>
+      <c r="E154" s="9">
+        <v>4</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G154" s="4"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>3468</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" s="3">
+        <v>6</v>
+      </c>
+      <c r="D155" s="3">
+        <v>9</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A156" s="10">
+        <v>5607</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="8">
+        <v>6</v>
+      </c>
+      <c r="D156" s="8">
+        <v>9</v>
+      </c>
+      <c r="E156" s="9">
+        <v>3</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>5664</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" s="4"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A158" s="10">
+        <v>3438</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" s="8">
+        <v>6</v>
+      </c>
+      <c r="D158" s="8">
+        <v>11</v>
+      </c>
+      <c r="E158" s="9">
+        <v>3</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G158" s="4"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>4216</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="3">
+        <v>6</v>
+      </c>
+      <c r="D159" s="3">
+        <v>11</v>
+      </c>
+      <c r="E159" s="4">
+        <v>3</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" s="4"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A160" s="10">
+        <v>5025</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" s="8">
+        <v>6</v>
+      </c>
+      <c r="D160" s="8">
+        <v>11</v>
+      </c>
+      <c r="E160" s="9">
+        <v>3</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G160" s="4"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>5569</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" s="3">
+        <v>6</v>
+      </c>
+      <c r="D161" s="3">
+        <v>11</v>
+      </c>
+      <c r="E161" s="4">
+        <v>3</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" s="4"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A162" s="10">
+        <v>2799</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" s="8">
+        <v>6</v>
+      </c>
+      <c r="D162" s="8">
+        <v>14</v>
+      </c>
+      <c r="E162" s="9">
+        <v>2</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G162" s="4"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C163" s="3">
+        <v>6</v>
+      </c>
+      <c r="D163" s="3">
+        <v>19</v>
+      </c>
+      <c r="E163" s="4">
+        <v>2</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="4"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A164" s="14">
+        <v>6483</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="15">
+        <v>6</v>
+      </c>
+      <c r="D164" s="15">
+        <v>19</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>6893</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="3">
+        <v>6</v>
+      </c>
+      <c r="D165" s="3">
+        <v>19</v>
+      </c>
+      <c r="E165" s="4">
+        <v>3</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="4"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A166" s="10">
+        <v>2801</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" s="8">
+        <v>6</v>
+      </c>
+      <c r="D166" s="8">
+        <v>20</v>
+      </c>
+      <c r="E166" s="9">
+        <v>4</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="4"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>2639</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" s="3">
+        <v>6</v>
+      </c>
+      <c r="D167" s="3">
+        <v>21</v>
+      </c>
+      <c r="E167" s="4">
+        <v>3</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" s="4"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A168" s="10">
+        <v>2692</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="8">
+        <v>6</v>
+      </c>
+      <c r="D168" s="8">
+        <v>21</v>
+      </c>
+      <c r="E168" s="9">
+        <v>3</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G168" s="4"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>5506</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" s="3">
+        <v>6</v>
+      </c>
+      <c r="D169" s="3">
+        <v>21</v>
+      </c>
+      <c r="E169" s="4">
+        <v>3</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A170" s="10">
+        <v>2688</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="8">
+        <v>6</v>
+      </c>
+      <c r="D170" s="8">
+        <v>22</v>
+      </c>
+      <c r="E170" s="9">
+        <v>2</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="4"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>3175</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="3">
+        <v>6</v>
+      </c>
+      <c r="D171" s="3">
+        <v>22</v>
+      </c>
+      <c r="E171" s="4">
+        <v>2</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G171" s="4"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A172" s="10">
+        <v>5567</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="8">
+        <v>6</v>
+      </c>
+      <c r="D172" s="8">
+        <v>22</v>
+      </c>
+      <c r="E172" s="9">
+        <v>2</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G172" s="4"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>6463</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" s="3">
+        <v>6</v>
+      </c>
+      <c r="D173" s="3">
+        <v>22</v>
+      </c>
+      <c r="E173" s="4">
+        <v>2</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" s="4"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A174" s="10">
+        <v>2608</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="8">
+        <v>6</v>
+      </c>
+      <c r="D174" s="8">
+        <v>25</v>
+      </c>
+      <c r="E174" s="9">
+        <v>4</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>5579</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="3">
+        <v>6</v>
+      </c>
+      <c r="D175" s="3">
+        <v>25</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G175" s="4"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="17"/>
+    </row>
+    <row r="176" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A176" s="10">
+        <v>6495</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="8">
+        <v>6</v>
+      </c>
+      <c r="D176" s="8">
+        <v>25</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G176" s="4"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="17"/>
+    </row>
+    <row r="177" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>5024</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" s="3">
+        <v>6</v>
+      </c>
+      <c r="D177" s="3">
+        <v>27</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="17"/>
+    </row>
+    <row r="178" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A178" s="10">
+        <v>2726</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="8">
+        <v>6</v>
+      </c>
+      <c r="D178" s="8">
+        <v>30</v>
+      </c>
+      <c r="E178" s="9">
+        <v>4</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G178" s="4"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="17"/>
+    </row>
+    <row r="179" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>3136</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" s="3">
+        <v>6</v>
+      </c>
+      <c r="D179" s="3">
+        <v>32</v>
+      </c>
+      <c r="E179" s="4">
+        <v>2</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="17"/>
+    </row>
+    <row r="180" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A180" s="10">
+        <v>4237</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="8">
+        <v>6</v>
+      </c>
+      <c r="D180" s="8">
+        <v>32</v>
+      </c>
+      <c r="E180" s="9">
+        <v>1</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G180" s="4"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="17"/>
+    </row>
+    <row r="181" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>5178</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" s="3">
+        <v>6</v>
+      </c>
+      <c r="D181" s="3">
+        <v>32</v>
+      </c>
+      <c r="E181" s="4">
+        <v>3</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="4"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="17"/>
+    </row>
+    <row r="182" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A182" s="10">
+        <v>5600</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" s="8">
+        <v>6</v>
+      </c>
+      <c r="D182" s="8">
+        <v>32</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="17"/>
+    </row>
+    <row r="183" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>1467</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="3">
+        <v>6</v>
+      </c>
+      <c r="D183" s="3">
+        <v>36</v>
+      </c>
+      <c r="E183" s="4">
+        <v>2</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G183" s="4"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A184" s="10">
+        <v>2743</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="8">
+        <v>6</v>
+      </c>
+      <c r="D184" s="8">
+        <v>36</v>
+      </c>
+      <c r="E184" s="9">
+        <v>2</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G184" s="4"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="17"/>
+    </row>
+    <row r="185" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>5504</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" s="3">
+        <v>6</v>
+      </c>
+      <c r="D185" s="3">
+        <v>36</v>
+      </c>
+      <c r="E185" s="4">
+        <v>2</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G185" s="4"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="17"/>
+    </row>
+    <row r="186" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A186" s="10">
+        <v>6448</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" s="8">
+        <v>6</v>
+      </c>
+      <c r="D186" s="8">
+        <v>36</v>
+      </c>
+      <c r="E186" s="9">
+        <v>4</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G186" s="4"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A187" s="11">
+        <v>6462</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="12">
+        <v>6</v>
+      </c>
+      <c r="D187" s="12">
+        <v>36</v>
+      </c>
+      <c r="E187" s="13">
+        <v>4</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="17"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L105">
@@ -3841,30 +6356,17 @@
     <sortCondition ref="D2:D105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" fitToHeight="3" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="46" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Aptos Narrow (Body),Bold"&amp;18 2024 TRILLIUM TRAIL PHENOLOGY
 DATASHEET (for carbon budgets)
 </oddHeader>
     <oddFooter>&amp;L&amp;"Aptos Narrow (Body),Regular"&amp;8unwhorled = first date of leaf unfolding w/ laminar surface exposed
 flowering = first date of open flower
-scenescence = leaves brown, chlorophyll content below detection, unstable photosynthesis (A &lt; 1)</oddFooter>
+senescence = leaves brown, chlorophyll content below detection, unstable photosynthesis (A&amp;Ynet&amp;Y &lt; 1)</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40147251-3CE2-4B45-B3BD-A88F06F7C0B4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/data/TT24_phenology_dates.xlsx
+++ b/data/TT24_phenology_dates.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1B162-E671-B243-B98B-4C81C5ACF63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A51854C-93F4-994A-B3E1-C93D842BE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="500" windowWidth="45200" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
+    <workbookView xWindow="1620" yWindow="500" windowWidth="39740" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$187</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$196</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -135,9 +135,6 @@
     <t>untagged by between quad 2 and 4</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>4/10: some signs of chlorosis</t>
   </si>
   <si>
@@ -149,12 +146,24 @@
   <si>
     <t>Mai</t>
   </si>
+  <si>
+    <t>tag, no flag</t>
+  </si>
+  <si>
+    <t>closest to fence</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>maybe 4766? tag, no flag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +178,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -179,12 +201,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,11 +327,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -324,25 +361,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +376,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,11 +778,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L187" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:L187" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L105">
-    <sortCondition ref="C2:C105"/>
-    <sortCondition ref="A2:A105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L196" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:L196" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L114">
+    <sortCondition ref="C2:C114"/>
+    <sortCondition ref="A2:A114"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4DD93A34-4A01-FE4A-90BA-5948ABB52889}" name="id" dataDxfId="11"/>
@@ -1084,10 +1122,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A113" zoomScale="110" zoomScaleNormal="280" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A81" zoomScale="109" zoomScaleNormal="280" zoomScalePageLayoutView="109" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1244,7 @@
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1215,28 +1253,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
@@ -1245,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
@@ -1257,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="7">
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1266,7 +1306,7 @@
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>774</v>
+        <v>583</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -1275,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -1296,7 +1336,7 @@
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>902</v>
+        <v>774</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -1305,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -1326,7 +1366,7 @@
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
@@ -1335,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>27</v>
@@ -1347,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="H8" s="7">
-        <v>45392</v>
+        <v>45388</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1356,7 +1396,7 @@
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>955</v>
+        <v>916</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -1365,18 +1405,20 @@
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H9" s="7">
+        <v>45392</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1384,7 +1426,7 @@
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1612</v>
+        <v>955</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -1393,30 +1435,26 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1666</v>
+        <v>1612</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -1425,26 +1463,30 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H11" s="7">
+        <v>45392</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1686</v>
+        <v>1666</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -1453,19 +1495,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1474,7 +1516,7 @@
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>1926</v>
+        <v>1686</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
@@ -1483,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
@@ -1504,7 +1546,7 @@
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2329</v>
+        <v>1926</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
@@ -1513,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>27</v>
@@ -1534,7 +1576,7 @@
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>2416</v>
+        <v>2329</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
@@ -1543,10 +1585,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -1555,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="7">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1564,7 +1606,7 @@
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2897</v>
+        <v>2416</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -1573,18 +1615,20 @@
         <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>45388</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1592,7 +1636,7 @@
     </row>
     <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>3563</v>
+        <v>2897</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
@@ -1601,20 +1645,18 @@
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45390</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1622,7 +1664,7 @@
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>4714</v>
+        <v>3563</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1631,10 +1673,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
@@ -1652,7 +1694,7 @@
     </row>
     <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>4934</v>
+        <v>4714</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
@@ -1661,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -1673,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1682,7 +1724,7 @@
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>4942</v>
+        <v>4934</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -1691,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>27</v>
@@ -1703,7 +1745,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1712,7 +1754,7 @@
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>5440</v>
+        <v>4942</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
@@ -1721,19 +1763,19 @@
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1742,7 +1784,7 @@
     </row>
     <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>5479</v>
+        <v>5436</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>29</v>
@@ -1751,28 +1793,30 @@
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>5488</v>
+        <v>5440</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
@@ -1781,13 +1825,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>27</v>
@@ -1802,7 +1846,7 @@
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>5495</v>
+        <v>5479</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
@@ -1811,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>27</v>
@@ -1832,7 +1876,7 @@
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>6558</v>
+        <v>5488</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -1841,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>27</v>
@@ -1862,7 +1906,7 @@
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>6578</v>
+        <v>5495</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
@@ -1871,16 +1915,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H26" s="7">
         <v>45392</v>
@@ -1892,7 +1936,7 @@
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>6885</v>
+        <v>6558</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
@@ -1901,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -1922,7 +1966,7 @@
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>6892</v>
+        <v>6578</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
@@ -1931,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
@@ -1952,19 +1996,19 @@
     </row>
     <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>43</v>
+        <v>6885</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
@@ -1982,19 +2026,19 @@
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>86</v>
+        <v>6892</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
@@ -2012,7 +2056,7 @@
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>482</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -2021,10 +2065,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>22</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -2042,7 +2086,7 @@
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>614</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -2051,10 +2095,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="3">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>27</v>
@@ -2068,13 +2112,11 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1374</v>
+        <v>482</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
@@ -2083,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2095,7 +2137,7 @@
         <v>27</v>
       </c>
       <c r="H33" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2104,7 +2146,7 @@
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1730</v>
+        <v>614</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
@@ -2113,13 +2155,13 @@
         <v>5</v>
       </c>
       <c r="D34" s="3">
-        <v>14</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>27</v>
@@ -2130,11 +2172,13 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1739</v>
+        <v>1374</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>29</v>
@@ -2143,10 +2187,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>27</v>
@@ -2155,7 +2199,7 @@
         <v>27</v>
       </c>
       <c r="H35" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2164,7 +2208,7 @@
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1795</v>
+        <v>1730</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>29</v>
@@ -2179,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>27</v>
@@ -2194,7 +2238,7 @@
     </row>
     <row r="37" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>2547</v>
+        <v>1739</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>29</v>
@@ -2203,13 +2247,13 @@
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>27</v>
@@ -2224,7 +2268,7 @@
     </row>
     <row r="38" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>2563</v>
+        <v>1795</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>29</v>
@@ -2233,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>27</v>
@@ -2254,7 +2298,7 @@
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>2573</v>
+        <v>2547</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>29</v>
@@ -2263,13 +2307,13 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E39" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>27</v>
@@ -2284,7 +2328,7 @@
     </row>
     <row r="40" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>2912</v>
+        <v>2563</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>29</v>
@@ -2293,10 +2337,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>11</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>27</v>
@@ -2314,7 +2358,7 @@
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>2988</v>
+        <v>2573</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>29</v>
@@ -2323,10 +2367,10 @@
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>33</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>27</v>
@@ -2340,13 +2384,11 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>3004</v>
+        <v>2912</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>29</v>
@@ -2355,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="3">
-        <v>21</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>27</v>
@@ -2376,7 +2418,7 @@
     </row>
     <row r="43" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>3077</v>
+        <v>2924</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>29</v>
@@ -2385,28 +2427,30 @@
         <v>5</v>
       </c>
       <c r="D43" s="3">
-        <v>21</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H43" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>3829</v>
+        <v>2988</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>29</v>
@@ -2417,8 +2461,8 @@
       <c r="D44" s="3">
         <v>33</v>
       </c>
-      <c r="E44" s="4">
-        <v>3</v>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>27</v>
@@ -2432,11 +2476,13 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>4000</v>
+        <v>3004</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>29</v>
@@ -2445,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="4">
         <v>4</v>
@@ -2456,7 +2502,9 @@
       <c r="G45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="7">
+        <v>45392</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2464,7 +2512,7 @@
     </row>
     <row r="46" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>4105</v>
+        <v>3077</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>29</v>
@@ -2473,10 +2521,10 @@
         <v>5</v>
       </c>
       <c r="D46" s="3">
-        <v>10</v>
-      </c>
-      <c r="E46" s="4">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>27</v>
@@ -2484,7 +2532,9 @@
       <c r="G46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>45390</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2492,7 +2542,7 @@
     </row>
     <row r="47" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>4109</v>
+        <v>3829</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>29</v>
@@ -2501,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="3">
-        <v>32</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>27</v>
@@ -2513,7 +2563,7 @@
         <v>27</v>
       </c>
       <c r="H47" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2522,7 +2572,7 @@
     </row>
     <row r="48" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>4177</v>
+        <v>4000</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>29</v>
@@ -2531,10 +2581,10 @@
         <v>5</v>
       </c>
       <c r="D48" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E48" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>27</v>
@@ -2543,18 +2593,16 @@
         <v>27</v>
       </c>
       <c r="H48" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>4414</v>
+        <v>4105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>29</v>
@@ -2563,18 +2611,20 @@
         <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E49" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H49" s="7">
+        <v>45394</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -2582,7 +2632,7 @@
     </row>
     <row r="50" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>4431</v>
+        <v>4109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>29</v>
@@ -2591,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="3">
-        <v>23</v>
-      </c>
-      <c r="E50" s="4">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>27</v>
@@ -2603,7 +2653,7 @@
         <v>27</v>
       </c>
       <c r="H50" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2612,7 +2662,7 @@
     </row>
     <row r="51" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>4547</v>
+        <v>4177</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
@@ -2621,10 +2671,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="3">
-        <v>10</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>27</v>
@@ -2638,11 +2688,13 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>4576</v>
+        <v>4414</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>29</v>
@@ -2651,10 +2703,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>27</v>
@@ -2663,7 +2715,7 @@
         <v>27</v>
       </c>
       <c r="H52" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2672,7 +2724,7 @@
     </row>
     <row r="53" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>4959</v>
+        <v>4431</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
@@ -2681,10 +2733,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E53" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>27</v>
@@ -2698,13 +2750,11 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>4990</v>
+        <v>4547</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
@@ -2713,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>27</v>
@@ -2734,7 +2784,7 @@
     </row>
     <row r="55" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>5115</v>
+        <v>4576</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -2743,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55" s="4">
         <v>3</v>
@@ -2764,7 +2814,7 @@
     </row>
     <row r="56" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>5228</v>
+        <v>4959</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -2773,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E56" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>27</v>
@@ -2790,11 +2840,13 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="5"/>
+      <c r="L56" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>5381</v>
+        <v>4990</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -2803,10 +2855,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="3">
-        <v>10</v>
-      </c>
-      <c r="E57" s="4">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>27</v>
@@ -2815,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="H57" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -2824,7 +2876,7 @@
     </row>
     <row r="58" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>5877</v>
+        <v>5115</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -2833,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E58" s="4">
         <v>3</v>
@@ -2854,7 +2906,7 @@
     </row>
     <row r="59" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>5904</v>
+        <v>5228</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
@@ -2863,10 +2915,10 @@
         <v>5</v>
       </c>
       <c r="D59" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>27</v>
@@ -2884,7 +2936,7 @@
     </row>
     <row r="60" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>6875</v>
+        <v>5229</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
@@ -2893,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="D60" s="3">
-        <v>29</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>27</v>
@@ -2910,11 +2962,13 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="5"/>
+      <c r="L60" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>6881</v>
+        <v>5381</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
@@ -2926,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>27</v>
@@ -2935,18 +2989,16 @@
         <v>27</v>
       </c>
       <c r="H61" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>7120</v>
+        <v>5877</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -2955,10 +3007,10 @@
         <v>5</v>
       </c>
       <c r="D62" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E62" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>27</v>
@@ -2976,7 +3028,7 @@
     </row>
     <row r="63" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>7147</v>
+        <v>5904</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
@@ -2988,7 +3040,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>27</v>
@@ -3005,8 +3057,8 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>10</v>
+      <c r="A64" s="2">
+        <v>6875</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
@@ -3015,10 +3067,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="3">
-        <v>14</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>27</v>
@@ -3027,7 +3079,7 @@
         <v>27</v>
       </c>
       <c r="H64" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -3035,8 +3087,8 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>11</v>
+      <c r="A65" s="2">
+        <v>6881</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -3045,10 +3097,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>27</v>
@@ -3057,16 +3109,18 @@
         <v>27</v>
       </c>
       <c r="H65" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>12</v>
+      <c r="A66" s="2">
+        <v>7120</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
@@ -3075,10 +3129,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E66" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>27</v>
@@ -3095,8 +3149,8 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>13</v>
+      <c r="A67" s="2">
+        <v>7147</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
@@ -3105,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E67" s="4">
         <v>3</v>
@@ -3122,25 +3176,23 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>684</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6</v>
-      </c>
-      <c r="D68" s="3">
-        <v>2</v>
-      </c>
       <c r="E68" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>27</v>
@@ -3157,20 +3209,20 @@
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>762</v>
+      <c r="A69" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>27</v>
@@ -3187,50 +3239,50 @@
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>925</v>
+      <c r="A70" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E70" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H70" s="7">
+        <v>45392</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>978</v>
+      <c r="A71" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C71" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E71" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>27</v>
@@ -3244,11 +3296,13 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="5"/>
+      <c r="L71" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>1184</v>
+        <v>684</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
@@ -3260,25 +3314,25 @@
         <v>2</v>
       </c>
       <c r="E72" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H72" s="7">
+        <v>45390</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>2074</v>
+        <v>762</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
@@ -3287,18 +3341,20 @@
         <v>6</v>
       </c>
       <c r="D73" s="3">
-        <v>16</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H73" s="7">
+        <v>45390</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -3306,7 +3362,7 @@
     </row>
     <row r="74" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>2276</v>
+        <v>925</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>29</v>
@@ -3315,13 +3371,13 @@
         <v>6</v>
       </c>
       <c r="D74" s="3">
-        <v>22</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>7</v>
@@ -3330,11 +3386,13 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="5"/>
+      <c r="L74" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>2663</v>
+        <v>978</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>29</v>
@@ -3342,13 +3400,21 @@
       <c r="C75" s="3">
         <v>6</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="D75" s="3">
+        <v>6</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H75" s="7">
+        <v>45392</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3356,7 +3422,7 @@
     </row>
     <row r="76" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>2950</v>
+        <v>1184</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>29</v>
@@ -3365,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E76" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>7</v>
@@ -3380,11 +3446,13 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="5"/>
+      <c r="L76" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>2980</v>
+        <v>2074</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>29</v>
@@ -3393,20 +3461,18 @@
         <v>6</v>
       </c>
       <c r="D77" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E77" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3414,7 +3480,7 @@
     </row>
     <row r="78" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>3305</v>
+        <v>2276</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>29</v>
@@ -3423,20 +3489,18 @@
         <v>6</v>
       </c>
       <c r="D78" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -3444,7 +3508,7 @@
     </row>
     <row r="79" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>3371</v>
+        <v>2663</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>29</v>
@@ -3452,21 +3516,15 @@
       <c r="C79" s="3">
         <v>6</v>
       </c>
-      <c r="D79" s="3">
-        <v>11</v>
-      </c>
-      <c r="E79" s="4">
-        <v>2</v>
-      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3474,7 +3532,7 @@
     </row>
     <row r="80" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>3379</v>
+        <v>2941</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>29</v>
@@ -3483,26 +3541,30 @@
         <v>6</v>
       </c>
       <c r="D80" s="3">
-        <v>11</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="7">
+        <v>45392</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="5"/>
+      <c r="L80" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>3770</v>
+        <v>2950</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>29</v>
@@ -3511,20 +3573,18 @@
         <v>6</v>
       </c>
       <c r="D81" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="7">
-        <v>45390</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -3532,7 +3592,7 @@
     </row>
     <row r="82" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>4505</v>
+        <v>2980</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>29</v>
@@ -3562,7 +3622,7 @@
     </row>
     <row r="83" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>4510</v>
+        <v>3305</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>29</v>
@@ -3571,18 +3631,20 @@
         <v>6</v>
       </c>
       <c r="D83" s="3">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H83" s="7">
+        <v>45392</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -3590,7 +3652,7 @@
     </row>
     <row r="84" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>4511</v>
+        <v>3371</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>29</v>
@@ -3599,10 +3661,10 @@
         <v>6</v>
       </c>
       <c r="D84" s="3">
-        <v>16</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>27</v>
@@ -3620,7 +3682,7 @@
     </row>
     <row r="85" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>4543</v>
+        <v>3379</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>29</v>
@@ -3629,18 +3691,20 @@
         <v>6</v>
       </c>
       <c r="D85" s="3">
+        <v>11</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="4">
-        <v>2</v>
-      </c>
       <c r="F85" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H85" s="7">
+        <v>45394</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -3648,7 +3712,7 @@
     </row>
     <row r="86" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>4582</v>
+        <v>3770</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>29</v>
@@ -3657,10 +3721,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="3">
-        <v>11</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="4">
+        <v>4</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>27</v>
@@ -3669,7 +3733,7 @@
         <v>27</v>
       </c>
       <c r="H86" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -3678,7 +3742,7 @@
     </row>
     <row r="87" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>4712</v>
+        <v>4373</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>29</v>
@@ -3689,24 +3753,28 @@
       <c r="D87" s="3">
         <v>2</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>20</v>
+      <c r="E87" s="4">
+        <v>2</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="H87" s="7">
+        <v>45392</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="5"/>
+      <c r="L87" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="88" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>4777</v>
+        <v>4505</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>29</v>
@@ -3715,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E88" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>27</v>
@@ -3736,7 +3804,7 @@
     </row>
     <row r="89" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>5031</v>
+        <v>4510</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>29</v>
@@ -3744,11 +3812,17 @@
       <c r="C89" s="3">
         <v>6</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="D89" s="3">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4">
+        <v>4</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G89" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -3758,7 +3832,7 @@
     </row>
     <row r="90" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>5060</v>
+        <v>4511</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>29</v>
@@ -3767,18 +3841,20 @@
         <v>6</v>
       </c>
       <c r="D90" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H90" s="7">
+        <v>45392</v>
+      </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -3786,7 +3862,7 @@
     </row>
     <row r="91" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>5229</v>
+        <v>4543</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>29</v>
@@ -3795,20 +3871,18 @@
         <v>6</v>
       </c>
       <c r="D91" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E91" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -3816,7 +3890,7 @@
     </row>
     <row r="92" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>5267</v>
+        <v>4582</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>29</v>
@@ -3825,10 +3899,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>27</v>
@@ -3846,7 +3920,7 @@
     </row>
     <row r="93" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>5365</v>
+        <v>4712</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>29</v>
@@ -3855,10 +3929,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="3">
-        <v>5</v>
-      </c>
-      <c r="E93" s="4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>27</v>
@@ -3866,7 +3940,7 @@
       <c r="G93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="7"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -3874,7 +3948,7 @@
     </row>
     <row r="94" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>5403</v>
+        <v>4760</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>29</v>
@@ -3883,13 +3957,13 @@
         <v>6</v>
       </c>
       <c r="D94" s="3">
-        <v>6</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="E94" s="4">
+        <v>2</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>27</v>
@@ -3900,11 +3974,13 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="5"/>
+      <c r="L94" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="95" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>5509</v>
+        <v>4777</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>29</v>
@@ -3913,18 +3989,20 @@
         <v>6</v>
       </c>
       <c r="D95" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H95" s="7">
+        <v>45392</v>
+      </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -3932,7 +4010,7 @@
     </row>
     <row r="96" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>5619</v>
+        <v>5031</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>29</v>
@@ -3941,19 +4019,19 @@
         <v>6</v>
       </c>
       <c r="D96" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H96" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -3962,7 +4040,7 @@
     </row>
     <row r="97" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>5626</v>
+        <v>5060</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>29</v>
@@ -3971,7 +4049,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="3">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>20</v>
@@ -3980,11 +4058,9 @@
         <v>27</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H97" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -3992,7 +4068,7 @@
     </row>
     <row r="98" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>5641</v>
+        <v>5229</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>29</v>
@@ -4001,18 +4077,20 @@
         <v>6</v>
       </c>
       <c r="D98" s="3">
-        <v>4</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>3</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H98" s="7">
+        <v>45392</v>
+      </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -4020,7 +4098,7 @@
     </row>
     <row r="99" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>5714</v>
+        <v>5267</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>29</v>
@@ -4029,18 +4107,20 @@
         <v>6</v>
       </c>
       <c r="D99" s="3">
-        <v>8</v>
-      </c>
-      <c r="E99" s="4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H99" s="7">
+        <v>45392</v>
+      </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -4048,7 +4128,7 @@
     </row>
     <row r="100" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>5783</v>
+        <v>5365</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>29</v>
@@ -4057,20 +4137,18 @@
         <v>6</v>
       </c>
       <c r="D100" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -4078,7 +4156,7 @@
     </row>
     <row r="101" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>5852</v>
+        <v>5403</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>29</v>
@@ -4087,18 +4165,20 @@
         <v>6</v>
       </c>
       <c r="D101" s="3">
-        <v>9</v>
-      </c>
-      <c r="E101" s="4">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H101" s="7">
+        <v>45392</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -4106,7 +4186,7 @@
     </row>
     <row r="102" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>5865</v>
+        <v>5509</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>29</v>
@@ -4115,20 +4195,18 @@
         <v>6</v>
       </c>
       <c r="D102" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E102" s="4">
         <v>2</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -4136,7 +4214,7 @@
     </row>
     <row r="103" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>6879</v>
+        <v>5619</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>29</v>
@@ -4145,10 +4223,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E103" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>27</v>
@@ -4156,17 +4234,17 @@
       <c r="G103" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="7">
+        <v>45392</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="L103" s="5"/>
     </row>
     <row r="104" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>6884</v>
+        <v>5626</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>29</v>
@@ -4175,330 +4253,368 @@
         <v>6</v>
       </c>
       <c r="D104" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H104" s="7">
+        <v>45392</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="24">
-        <v>6</v>
-      </c>
-      <c r="D105" s="24">
-        <v>5</v>
-      </c>
-      <c r="E105" s="25">
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>5641</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="3">
+        <v>6</v>
+      </c>
+      <c r="D105" s="3">
         <v>4</v>
       </c>
-      <c r="F105" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="26"/>
-    </row>
-    <row r="106" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A106" s="18">
-        <v>4250</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="19">
-        <v>3</v>
-      </c>
-      <c r="D106" s="19">
-        <v>2</v>
-      </c>
-      <c r="E106" s="20">
+      <c r="E105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>5714</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3">
+        <v>8</v>
+      </c>
+      <c r="E106" s="4">
         <v>4</v>
       </c>
-      <c r="F106" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" s="21"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>9412</v>
+        <v>5722</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C107" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D107" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E107" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="7">
+        <v>45392</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
-        <v>2310</v>
-      </c>
-      <c r="B108" s="10" t="s">
+      <c r="L107" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="8">
-        <v>3</v>
-      </c>
-      <c r="D108" s="8">
-        <v>4</v>
-      </c>
-      <c r="E108" s="9">
+    </row>
+    <row r="108" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>5742</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="3">
+        <v>6</v>
+      </c>
+      <c r="D108" s="3">
+        <v>3</v>
+      </c>
+      <c r="E108" s="4">
         <v>2</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="3"/>
+      <c r="F108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="7">
+        <v>45392</v>
+      </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="L108" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>5105</v>
+        <v>5783</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C109" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D109" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E109" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="3"/>
+      <c r="G109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="7">
+        <v>45392</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
-        <v>3643</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="8">
-        <v>3</v>
-      </c>
-      <c r="D110" s="8">
-        <v>12</v>
-      </c>
-      <c r="E110" s="9">
-        <v>2</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" s="4"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>5852</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="3">
+        <v>6</v>
+      </c>
+      <c r="D110" s="3">
+        <v>9</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>141</v>
+        <v>5865</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C111" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D111" s="3">
-        <v>13</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="3"/>
+      <c r="G111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="7">
+        <v>45392</v>
+      </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A112" s="10">
-        <v>5184</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="8">
-        <v>3</v>
-      </c>
-      <c r="D112" s="8">
-        <v>13</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="4"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>6879</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="3">
+        <v>6</v>
+      </c>
+      <c r="D112" s="3">
+        <v>36</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="L112" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>54</v>
+        <v>6884</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C113" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D113" s="3">
-        <v>16</v>
-      </c>
-      <c r="E113" s="4">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
-        <v>129</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="8">
-        <v>3</v>
-      </c>
-      <c r="D114" s="8">
-        <v>18</v>
-      </c>
-      <c r="E114" s="9">
+      <c r="L113" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="14">
+        <v>6</v>
+      </c>
+      <c r="D114" s="14">
+        <v>5</v>
+      </c>
+      <c r="E114" s="15">
+        <v>4</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="17">
+        <v>45394</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A115" s="24">
+        <v>4250</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="25">
+        <v>3</v>
+      </c>
+      <c r="D115" s="25">
         <v>2</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>2268</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="3">
-        <v>3</v>
-      </c>
-      <c r="D115" s="3">
-        <v>18</v>
-      </c>
-      <c r="E115" s="4">
+      <c r="E115" s="26">
         <v>4</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="17"/>
+      <c r="F115" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="5"/>
     </row>
     <row r="116" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A116" s="10">
-        <v>6876</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="8">
-        <v>3</v>
-      </c>
-      <c r="D116" s="8">
-        <v>18</v>
-      </c>
-      <c r="E116" s="9">
-        <v>2</v>
-      </c>
-      <c r="F116" s="9" t="s">
+      <c r="A116" s="2">
+        <v>9412</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G116" s="4"/>
@@ -4506,25 +4622,25 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="17"/>
+      <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>6869</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="3">
-        <v>3</v>
-      </c>
-      <c r="D117" s="3">
-        <v>21</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="A117" s="18">
+        <v>2310</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="19">
+        <v>3</v>
+      </c>
+      <c r="D117" s="19">
         <v>4</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="E117" s="20">
+        <v>2</v>
+      </c>
+      <c r="F117" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G117" s="4"/>
@@ -4532,25 +4648,25 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="17"/>
+      <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A118" s="10">
-        <v>2337</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="8">
-        <v>3</v>
-      </c>
-      <c r="D118" s="8">
-        <v>22</v>
-      </c>
-      <c r="E118" s="9">
-        <v>2</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="A118" s="2">
+        <v>5105</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <v>8</v>
+      </c>
+      <c r="E118" s="4">
+        <v>3</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G118" s="4"/>
@@ -4558,25 +4674,25 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="17"/>
+      <c r="L118" s="5"/>
     </row>
     <row r="119" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="3">
-        <v>3</v>
-      </c>
-      <c r="D119" s="3">
-        <v>24</v>
-      </c>
-      <c r="E119" s="4">
+      <c r="A119" s="18">
+        <v>3643</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="19">
+        <v>3</v>
+      </c>
+      <c r="D119" s="19">
+        <v>12</v>
+      </c>
+      <c r="E119" s="20">
         <v>2</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G119" s="4"/>
@@ -4584,25 +4700,25 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="17"/>
+      <c r="L119" s="5"/>
     </row>
     <row r="120" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A120" s="10">
-        <v>5030</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="8">
-        <v>3</v>
-      </c>
-      <c r="D120" s="8">
-        <v>24</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1</v>
-      </c>
-      <c r="F120" s="9" t="s">
+      <c r="A120" s="2">
+        <v>141</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3</v>
+      </c>
+      <c r="D120" s="3">
+        <v>13</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G120" s="4"/>
@@ -4610,25 +4726,25 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="L120" s="17"/>
+      <c r="L120" s="5"/>
     </row>
     <row r="121" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>5069</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="3">
-        <v>3</v>
-      </c>
-      <c r="D121" s="3">
-        <v>24</v>
-      </c>
-      <c r="E121" s="4">
-        <v>2</v>
-      </c>
-      <c r="F121" s="4" t="s">
+      <c r="A121" s="18">
+        <v>5184</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="19">
+        <v>3</v>
+      </c>
+      <c r="D121" s="19">
+        <v>13</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G121" s="4"/>
@@ -4636,77 +4752,77 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="17"/>
+      <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A122" s="14">
-        <v>179</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="15">
-        <v>3</v>
-      </c>
-      <c r="D122" s="15">
-        <v>30</v>
-      </c>
-      <c r="E122" s="16">
+      <c r="A122" s="2">
+        <v>54</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>16</v>
+      </c>
+      <c r="E122" s="4">
+        <v>4</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A123" s="18">
+        <v>129</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="19">
+        <v>3</v>
+      </c>
+      <c r="D123" s="19">
+        <v>18</v>
+      </c>
+      <c r="E123" s="20">
         <v>2</v>
       </c>
-      <c r="F122" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
-        <v>511</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="3">
-        <v>3</v>
-      </c>
-      <c r="D123" s="3">
-        <v>30</v>
-      </c>
-      <c r="E123" s="4">
-        <v>2</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>27</v>
+      <c r="F123" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
-      <c r="L123" s="17"/>
+      <c r="L123" s="5"/>
     </row>
     <row r="124" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A124" s="10">
-        <v>543</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="8">
-        <v>3</v>
-      </c>
-      <c r="D124" s="8">
-        <v>30</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="9" t="s">
+      <c r="A124" s="2">
+        <v>2268</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3">
+        <v>18</v>
+      </c>
+      <c r="E124" s="4">
+        <v>4</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G124" s="4"/>
@@ -4714,25 +4830,25 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
-      <c r="L124" s="17"/>
+      <c r="L124" s="5"/>
     </row>
     <row r="125" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>1157</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="3">
-        <v>3</v>
-      </c>
-      <c r="D125" s="3">
-        <v>30</v>
-      </c>
-      <c r="E125" s="4">
-        <v>1</v>
-      </c>
-      <c r="F125" s="4" t="s">
+      <c r="A125" s="18">
+        <v>6876</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="19">
+        <v>3</v>
+      </c>
+      <c r="D125" s="19">
+        <v>18</v>
+      </c>
+      <c r="E125" s="20">
+        <v>2</v>
+      </c>
+      <c r="F125" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G125" s="4"/>
@@ -4740,25 +4856,25 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="17"/>
+      <c r="L125" s="5"/>
     </row>
     <row r="126" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
-        <v>1663</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C126" s="8">
-        <v>3</v>
-      </c>
-      <c r="D126" s="8">
-        <v>30</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F126" s="9" t="s">
+      <c r="A126" s="2">
+        <v>6869</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3</v>
+      </c>
+      <c r="D126" s="3">
+        <v>21</v>
+      </c>
+      <c r="E126" s="4">
+        <v>4</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G126" s="4"/>
@@ -4766,25 +4882,25 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-      <c r="L126" s="17"/>
+      <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>2131</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="3">
-        <v>3</v>
-      </c>
-      <c r="D127" s="3">
-        <v>30</v>
-      </c>
-      <c r="E127" s="4">
+      <c r="A127" s="18">
+        <v>2337</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="19">
+        <v>3</v>
+      </c>
+      <c r="D127" s="19">
+        <v>22</v>
+      </c>
+      <c r="E127" s="20">
         <v>2</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G127" s="4"/>
@@ -4792,51 +4908,51 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-      <c r="L127" s="17"/>
+      <c r="L127" s="5"/>
     </row>
     <row r="128" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A128" s="10">
-        <v>3665</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" s="8">
-        <v>3</v>
-      </c>
-      <c r="D128" s="8">
-        <v>30</v>
-      </c>
-      <c r="E128" s="9">
-        <v>1</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>7</v>
+      <c r="A128" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3">
+        <v>24</v>
+      </c>
+      <c r="E128" s="4">
+        <v>2</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="17"/>
+      <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>6900</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="3">
-        <v>5</v>
-      </c>
-      <c r="D129" s="3">
-        <v>2</v>
-      </c>
-      <c r="E129" s="4">
-        <v>4</v>
-      </c>
-      <c r="F129" s="4" t="s">
+      <c r="A129" s="18">
+        <v>5030</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="19">
+        <v>3</v>
+      </c>
+      <c r="D129" s="19">
+        <v>24</v>
+      </c>
+      <c r="E129" s="20">
+        <v>1</v>
+      </c>
+      <c r="F129" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G129" s="4"/>
@@ -4844,25 +4960,25 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
-      <c r="L129" s="17"/>
+      <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A130" s="10">
-        <v>631</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C130" s="8">
-        <v>5</v>
-      </c>
-      <c r="D130" s="8">
-        <v>3</v>
-      </c>
-      <c r="E130" s="9">
-        <v>3</v>
-      </c>
-      <c r="F130" s="9" t="s">
+      <c r="A130" s="2">
+        <v>5069</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="3">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3">
+        <v>24</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G130" s="4"/>
@@ -4870,51 +4986,51 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="L130" s="17"/>
+      <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>3960</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C131" s="3">
-        <v>5</v>
-      </c>
-      <c r="D131" s="3">
-        <v>3</v>
-      </c>
-      <c r="E131" s="4">
-        <v>1</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="17"/>
+      <c r="A131" s="21">
+        <v>179</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="22">
+        <v>3</v>
+      </c>
+      <c r="D131" s="22">
+        <v>30</v>
+      </c>
+      <c r="E131" s="23">
+        <v>2</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="10"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A132" s="10">
-        <v>3993</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C132" s="8">
-        <v>5</v>
-      </c>
-      <c r="D132" s="8">
-        <v>3</v>
-      </c>
-      <c r="E132" s="9">
-        <v>1</v>
-      </c>
-      <c r="F132" s="9" t="s">
+      <c r="A132" s="2">
+        <v>511</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="3">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3">
+        <v>30</v>
+      </c>
+      <c r="E132" s="4">
+        <v>2</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G132" s="4"/>
@@ -4922,25 +5038,25 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="17"/>
+      <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" s="3">
-        <v>5</v>
-      </c>
-      <c r="D133" s="3">
-        <v>3</v>
-      </c>
-      <c r="E133" s="4">
-        <v>3</v>
-      </c>
-      <c r="F133" s="4" t="s">
+      <c r="A133" s="18">
+        <v>543</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="19">
+        <v>3</v>
+      </c>
+      <c r="D133" s="19">
+        <v>30</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G133" s="4"/>
@@ -4948,25 +5064,25 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
-      <c r="L133" s="17"/>
+      <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="8">
-        <v>5</v>
-      </c>
-      <c r="D134" s="8">
-        <v>3</v>
-      </c>
-      <c r="E134" s="9">
-        <v>3</v>
-      </c>
-      <c r="F134" s="9" t="s">
+      <c r="A134" s="2">
+        <v>1157</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3">
+        <v>30</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G134" s="4"/>
@@ -4974,25 +5090,25 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
-      <c r="L134" s="17"/>
+      <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
-        <v>1432</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="3">
-        <v>5</v>
-      </c>
-      <c r="D135" s="3">
+      <c r="A135" s="18">
+        <v>1663</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="19">
+        <v>3</v>
+      </c>
+      <c r="D135" s="19">
+        <v>30</v>
+      </c>
+      <c r="E135" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E135" s="4">
-        <v>2</v>
-      </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G135" s="4"/>
@@ -5000,25 +5116,25 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
-      <c r="L135" s="17"/>
+      <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A136" s="10">
-        <v>1499</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="8">
-        <v>5</v>
-      </c>
-      <c r="D136" s="8">
-        <v>17</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" s="9" t="s">
+      <c r="A136" s="2">
+        <v>2131</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
+        <v>30</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G136" s="4"/>
@@ -5026,51 +5142,51 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
-      <c r="L136" s="17"/>
+      <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
-        <v>2803</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="3">
-        <v>5</v>
-      </c>
-      <c r="D137" s="3">
-        <v>18</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>27</v>
+      <c r="A137" s="18">
+        <v>3665</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="19">
+        <v>3</v>
+      </c>
+      <c r="D137" s="19">
+        <v>30</v>
+      </c>
+      <c r="E137" s="20">
+        <v>1</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
-      <c r="L137" s="17"/>
+      <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A138" s="10">
-        <v>1476</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" s="8">
+      <c r="A138" s="2">
+        <v>6900</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="3">
         <v>5</v>
       </c>
-      <c r="D138" s="8">
-        <v>23</v>
-      </c>
-      <c r="E138" s="9">
-        <v>1</v>
-      </c>
-      <c r="F138" s="9" t="s">
+      <c r="D138" s="3">
+        <v>2</v>
+      </c>
+      <c r="E138" s="4">
+        <v>4</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G138" s="4"/>
@@ -5078,25 +5194,25 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
-      <c r="L138" s="17"/>
+      <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>4781</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="3">
+      <c r="A139" s="18">
+        <v>631</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="19">
         <v>5</v>
       </c>
-      <c r="D139" s="3">
-        <v>23</v>
-      </c>
-      <c r="E139" s="4">
-        <v>1</v>
-      </c>
-      <c r="F139" s="4" t="s">
+      <c r="D139" s="19">
+        <v>3</v>
+      </c>
+      <c r="E139" s="20">
+        <v>3</v>
+      </c>
+      <c r="F139" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G139" s="4"/>
@@ -5104,25 +5220,25 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-      <c r="L139" s="17"/>
+      <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A140" s="10">
-        <v>5657</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" s="8">
+      <c r="A140" s="2">
+        <v>3960</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" s="3">
         <v>5</v>
       </c>
-      <c r="D140" s="8">
-        <v>23</v>
-      </c>
-      <c r="E140" s="9">
+      <c r="D140" s="3">
+        <v>3</v>
+      </c>
+      <c r="E140" s="4">
         <v>1</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G140" s="4"/>
@@ -5130,23 +5246,25 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-      <c r="L140" s="17"/>
+      <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
-        <v>2616</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C141" s="3">
+      <c r="A141" s="18">
+        <v>3993</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="19">
         <v>5</v>
       </c>
-      <c r="D141" s="3">
-        <v>36</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4" t="s">
+      <c r="D141" s="19">
+        <v>3</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G141" s="4"/>
@@ -5154,51 +5272,51 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-      <c r="L141" s="17"/>
+      <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A142" s="14">
-        <v>2637</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C142" s="15">
+      <c r="A142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="3">
         <v>5</v>
       </c>
-      <c r="D142" s="15">
-        <v>36</v>
-      </c>
-      <c r="E142" s="16">
-        <v>3</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G142" s="13"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="17"/>
+      <c r="D142" s="3">
+        <v>3</v>
+      </c>
+      <c r="E142" s="4">
+        <v>3</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
-        <v>2662</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="3">
+      <c r="A143" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="19">
         <v>5</v>
       </c>
-      <c r="D143" s="3">
-        <v>36</v>
-      </c>
-      <c r="E143" s="4">
-        <v>3</v>
-      </c>
-      <c r="F143" s="4" t="s">
+      <c r="D143" s="19">
+        <v>3</v>
+      </c>
+      <c r="E143" s="20">
+        <v>3</v>
+      </c>
+      <c r="F143" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G143" s="4"/>
@@ -5206,51 +5324,51 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
-      <c r="L143" s="17"/>
+      <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A144" s="10">
-        <v>5052</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="8">
+      <c r="A144" s="2">
+        <v>1432</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="3">
         <v>5</v>
       </c>
-      <c r="D144" s="8">
-        <v>36</v>
-      </c>
-      <c r="E144" s="9">
-        <v>3</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>7</v>
+      <c r="D144" s="3">
+        <v>17</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
-      <c r="L144" s="17"/>
+      <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
-        <v>5122</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="3">
-        <v>6</v>
-      </c>
-      <c r="D145" s="3">
-        <v>2</v>
-      </c>
-      <c r="E145" s="4">
-        <v>4</v>
-      </c>
-      <c r="F145" s="4" t="s">
+      <c r="A145" s="18">
+        <v>1499</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="19">
+        <v>5</v>
+      </c>
+      <c r="D145" s="19">
+        <v>17</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G145" s="4"/>
@@ -5258,51 +5376,51 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
-      <c r="L145" s="17"/>
+      <c r="L145" s="5"/>
     </row>
     <row r="146" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A146" s="10">
-        <v>1144</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="8">
-        <v>6</v>
-      </c>
-      <c r="D146" s="8">
-        <v>8</v>
-      </c>
-      <c r="E146" s="9">
-        <v>4</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>7</v>
+      <c r="A146" s="2">
+        <v>2803</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="3">
+        <v>5</v>
+      </c>
+      <c r="D146" s="3">
+        <v>18</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
-      <c r="L146" s="17"/>
+      <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
-        <v>1146</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="3">
-        <v>6</v>
-      </c>
-      <c r="D147" s="3">
-        <v>8</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="4" t="s">
+      <c r="A147" s="18">
+        <v>1476</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="19">
+        <v>5</v>
+      </c>
+      <c r="D147" s="19">
+        <v>23</v>
+      </c>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G147" s="4"/>
@@ -5310,51 +5428,51 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
-      <c r="L147" s="17"/>
+      <c r="L147" s="5"/>
     </row>
     <row r="148" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A148" s="10">
-        <v>1406</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C148" s="8">
-        <v>6</v>
-      </c>
-      <c r="D148" s="8">
-        <v>8</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>7</v>
+      <c r="A148" s="2">
+        <v>4781</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="3">
+        <v>5</v>
+      </c>
+      <c r="D148" s="3">
+        <v>23</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
-      <c r="L148" s="17"/>
+      <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
-        <v>1495</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C149" s="3">
-        <v>6</v>
-      </c>
-      <c r="D149" s="3">
-        <v>8</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" s="4" t="s">
+      <c r="A149" s="18">
+        <v>5657</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="19">
+        <v>5</v>
+      </c>
+      <c r="D149" s="19">
+        <v>23</v>
+      </c>
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G149" s="4"/>
@@ -5362,77 +5480,75 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
-      <c r="L149" s="17"/>
+      <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A150" s="10">
-        <v>3120</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C150" s="8">
-        <v>6</v>
-      </c>
-      <c r="D150" s="8">
-        <v>8</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>7</v>
+      <c r="A150" s="2">
+        <v>2616</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="3">
+        <v>5</v>
+      </c>
+      <c r="D150" s="3">
+        <v>36</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
-      <c r="L150" s="17"/>
+      <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
-        <v>4249</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="3">
-        <v>6</v>
-      </c>
-      <c r="D151" s="3">
-        <v>8</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" s="4" t="s">
+      <c r="A151" s="21">
+        <v>2637</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="22">
+        <v>5</v>
+      </c>
+      <c r="D151" s="22">
+        <v>36</v>
+      </c>
+      <c r="E151" s="23">
+        <v>3</v>
+      </c>
+      <c r="F151" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="17"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A152" s="10">
-        <v>4722</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152" s="8">
-        <v>6</v>
-      </c>
-      <c r="D152" s="8">
-        <v>8</v>
-      </c>
-      <c r="E152" s="9">
-        <v>2</v>
-      </c>
-      <c r="F152" s="9" t="s">
+      <c r="A152" s="2">
+        <v>2662</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="3">
+        <v>5</v>
+      </c>
+      <c r="D152" s="3">
+        <v>36</v>
+      </c>
+      <c r="E152" s="4">
+        <v>3</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G152" s="4"/>
@@ -5440,49 +5556,51 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-      <c r="L152" s="17"/>
+      <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
-        <v>5009</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C153" s="3">
-        <v>6</v>
-      </c>
-      <c r="D153" s="3">
-        <v>8</v>
-      </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4" t="s">
-        <v>27</v>
+      <c r="A153" s="18">
+        <v>5052</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="19">
+        <v>5</v>
+      </c>
+      <c r="D153" s="19">
+        <v>36</v>
+      </c>
+      <c r="E153" s="20">
+        <v>3</v>
+      </c>
+      <c r="F153" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="L153" s="17"/>
+      <c r="L153" s="5"/>
     </row>
     <row r="154" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A154" s="10">
-        <v>5596</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C154" s="8">
-        <v>6</v>
-      </c>
-      <c r="D154" s="8">
-        <v>8</v>
-      </c>
-      <c r="E154" s="9">
+      <c r="A154" s="2">
+        <v>5122</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="3">
+        <v>6</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2</v>
+      </c>
+      <c r="E154" s="4">
         <v>4</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G154" s="4"/>
@@ -5490,25 +5608,25 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-      <c r="L154" s="17"/>
+      <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>3468</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C155" s="3">
-        <v>6</v>
-      </c>
-      <c r="D155" s="3">
-        <v>9</v>
-      </c>
-      <c r="E155" s="4">
-        <v>1</v>
-      </c>
-      <c r="F155" s="4" t="s">
+      <c r="A155" s="18">
+        <v>1144</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="19">
+        <v>6</v>
+      </c>
+      <c r="D155" s="19">
+        <v>8</v>
+      </c>
+      <c r="E155" s="20">
+        <v>4</v>
+      </c>
+      <c r="F155" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G155" s="4"/>
@@ -5516,25 +5634,25 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="17"/>
+      <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A156" s="10">
-        <v>5607</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" s="8">
-        <v>6</v>
-      </c>
-      <c r="D156" s="8">
-        <v>9</v>
-      </c>
-      <c r="E156" s="9">
-        <v>3</v>
-      </c>
-      <c r="F156" s="9" t="s">
+      <c r="A156" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="3">
+        <v>6</v>
+      </c>
+      <c r="D156" s="3">
+        <v>8</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G156" s="4"/>
@@ -5542,51 +5660,51 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
-      <c r="L156" s="17"/>
+      <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>5664</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="3">
-        <v>6</v>
-      </c>
-      <c r="D157" s="3">
-        <v>9</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>27</v>
+      <c r="A157" s="18">
+        <v>1406</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="19">
+        <v>6</v>
+      </c>
+      <c r="D157" s="19">
+        <v>8</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
-      <c r="L157" s="17"/>
+      <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A158" s="10">
-        <v>3438</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" s="8">
-        <v>6</v>
-      </c>
-      <c r="D158" s="8">
-        <v>11</v>
-      </c>
-      <c r="E158" s="9">
-        <v>3</v>
-      </c>
-      <c r="F158" s="9" t="s">
+      <c r="A158" s="2">
+        <v>1495</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="3">
+        <v>6</v>
+      </c>
+      <c r="D158" s="3">
+        <v>8</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G158" s="4"/>
@@ -5594,77 +5712,77 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
-      <c r="L158" s="17"/>
+      <c r="L158" s="5"/>
     </row>
     <row r="159" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
-        <v>4216</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C159" s="3">
-        <v>6</v>
-      </c>
-      <c r="D159" s="3">
-        <v>11</v>
-      </c>
-      <c r="E159" s="4">
-        <v>3</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>27</v>
+      <c r="A159" s="18">
+        <v>3120</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="19">
+        <v>6</v>
+      </c>
+      <c r="D159" s="19">
+        <v>8</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
-      <c r="L159" s="17"/>
+      <c r="L159" s="5"/>
     </row>
     <row r="160" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A160" s="10">
-        <v>5025</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C160" s="8">
-        <v>6</v>
-      </c>
-      <c r="D160" s="8">
-        <v>11</v>
-      </c>
-      <c r="E160" s="9">
-        <v>3</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>27</v>
+      <c r="A160" s="2">
+        <v>4249</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="3">
+        <v>6</v>
+      </c>
+      <c r="D160" s="3">
+        <v>8</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-      <c r="L160" s="17"/>
+      <c r="L160" s="5"/>
     </row>
     <row r="161" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
-        <v>5569</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C161" s="3">
-        <v>6</v>
-      </c>
-      <c r="D161" s="3">
-        <v>11</v>
-      </c>
-      <c r="E161" s="4">
-        <v>3</v>
-      </c>
-      <c r="F161" s="4" t="s">
+      <c r="A161" s="18">
+        <v>4722</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="19">
+        <v>6</v>
+      </c>
+      <c r="D161" s="19">
+        <v>8</v>
+      </c>
+      <c r="E161" s="20">
+        <v>2</v>
+      </c>
+      <c r="F161" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G161" s="4"/>
@@ -5672,25 +5790,23 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
-      <c r="L161" s="17"/>
+      <c r="L161" s="5"/>
     </row>
     <row r="162" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A162" s="10">
-        <v>2799</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C162" s="8">
-        <v>6</v>
-      </c>
-      <c r="D162" s="8">
-        <v>14</v>
-      </c>
-      <c r="E162" s="9">
-        <v>2</v>
-      </c>
-      <c r="F162" s="9" t="s">
+      <c r="A162" s="2">
+        <v>5009</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="3">
+        <v>6</v>
+      </c>
+      <c r="D162" s="3">
+        <v>8</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G162" s="4"/>
@@ -5698,25 +5814,25 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-      <c r="L162" s="17"/>
+      <c r="L162" s="5"/>
     </row>
     <row r="163" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
-        <v>1941</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C163" s="3">
-        <v>6</v>
-      </c>
-      <c r="D163" s="3">
-        <v>19</v>
-      </c>
-      <c r="E163" s="4">
-        <v>2</v>
-      </c>
-      <c r="F163" s="4" t="s">
+      <c r="A163" s="18">
+        <v>5596</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="19">
+        <v>6</v>
+      </c>
+      <c r="D163" s="19">
+        <v>8</v>
+      </c>
+      <c r="E163" s="20">
+        <v>4</v>
+      </c>
+      <c r="F163" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G163" s="4"/>
@@ -5724,51 +5840,51 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
-      <c r="L163" s="17"/>
+      <c r="L163" s="5"/>
     </row>
     <row r="164" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A164" s="14">
-        <v>6483</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" s="15">
-        <v>6</v>
-      </c>
-      <c r="D164" s="15">
-        <v>19</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" s="13"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="17"/>
+      <c r="A164" s="2">
+        <v>3468</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="3">
+        <v>6</v>
+      </c>
+      <c r="D164" s="3">
+        <v>9</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="5"/>
     </row>
     <row r="165" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
-        <v>6893</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C165" s="3">
-        <v>6</v>
-      </c>
-      <c r="D165" s="3">
-        <v>19</v>
-      </c>
-      <c r="E165" s="4">
-        <v>3</v>
-      </c>
-      <c r="F165" s="4" t="s">
+      <c r="A165" s="18">
+        <v>5607</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="19">
+        <v>6</v>
+      </c>
+      <c r="D165" s="19">
+        <v>9</v>
+      </c>
+      <c r="E165" s="20">
+        <v>3</v>
+      </c>
+      <c r="F165" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G165" s="4"/>
@@ -5776,51 +5892,51 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-      <c r="L165" s="17"/>
+      <c r="L165" s="5"/>
     </row>
     <row r="166" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A166" s="10">
-        <v>2801</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C166" s="8">
-        <v>6</v>
-      </c>
-      <c r="D166" s="8">
-        <v>20</v>
-      </c>
-      <c r="E166" s="9">
-        <v>4</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>7</v>
+      <c r="A166" s="2">
+        <v>5664</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="3">
+        <v>6</v>
+      </c>
+      <c r="D166" s="3">
+        <v>9</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-      <c r="L166" s="17"/>
+      <c r="L166" s="5"/>
     </row>
     <row r="167" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
-        <v>2639</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C167" s="3">
-        <v>6</v>
-      </c>
-      <c r="D167" s="3">
-        <v>21</v>
-      </c>
-      <c r="E167" s="4">
-        <v>3</v>
-      </c>
-      <c r="F167" s="4" t="s">
+      <c r="A167" s="18">
+        <v>3438</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="19">
+        <v>6</v>
+      </c>
+      <c r="D167" s="19">
+        <v>11</v>
+      </c>
+      <c r="E167" s="20">
+        <v>3</v>
+      </c>
+      <c r="F167" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G167" s="4"/>
@@ -5828,25 +5944,25 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-      <c r="L167" s="17"/>
+      <c r="L167" s="5"/>
     </row>
     <row r="168" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A168" s="10">
-        <v>2692</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C168" s="8">
-        <v>6</v>
-      </c>
-      <c r="D168" s="8">
-        <v>21</v>
-      </c>
-      <c r="E168" s="9">
-        <v>3</v>
-      </c>
-      <c r="F168" s="9" t="s">
+      <c r="A168" s="2">
+        <v>4216</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="3">
+        <v>6</v>
+      </c>
+      <c r="D168" s="3">
+        <v>11</v>
+      </c>
+      <c r="E168" s="4">
+        <v>3</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G168" s="4"/>
@@ -5854,25 +5970,25 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
-      <c r="L168" s="17"/>
+      <c r="L168" s="5"/>
     </row>
     <row r="169" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>5506</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C169" s="3">
-        <v>6</v>
-      </c>
-      <c r="D169" s="3">
-        <v>21</v>
-      </c>
-      <c r="E169" s="4">
-        <v>3</v>
-      </c>
-      <c r="F169" s="4" t="s">
+      <c r="A169" s="18">
+        <v>5025</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="19">
+        <v>6</v>
+      </c>
+      <c r="D169" s="19">
+        <v>11</v>
+      </c>
+      <c r="E169" s="20">
+        <v>3</v>
+      </c>
+      <c r="F169" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G169" s="4"/>
@@ -5880,51 +5996,51 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
-      <c r="L169" s="17"/>
+      <c r="L169" s="5"/>
     </row>
     <row r="170" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A170" s="10">
-        <v>2688</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C170" s="8">
-        <v>6</v>
-      </c>
-      <c r="D170" s="8">
-        <v>22</v>
-      </c>
-      <c r="E170" s="9">
-        <v>2</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>7</v>
+      <c r="A170" s="2">
+        <v>5569</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="3">
+        <v>6</v>
+      </c>
+      <c r="D170" s="3">
+        <v>11</v>
+      </c>
+      <c r="E170" s="4">
+        <v>3</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
-      <c r="L170" s="17"/>
+      <c r="L170" s="5"/>
     </row>
     <row r="171" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>3175</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C171" s="3">
-        <v>6</v>
-      </c>
-      <c r="D171" s="3">
-        <v>22</v>
-      </c>
-      <c r="E171" s="4">
+      <c r="A171" s="18">
+        <v>2799</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="19">
+        <v>6</v>
+      </c>
+      <c r="D171" s="19">
+        <v>14</v>
+      </c>
+      <c r="E171" s="20">
         <v>2</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G171" s="4"/>
@@ -5932,25 +6048,25 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
-      <c r="L171" s="17"/>
+      <c r="L171" s="5"/>
     </row>
     <row r="172" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A172" s="10">
-        <v>5567</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C172" s="8">
-        <v>6</v>
-      </c>
-      <c r="D172" s="8">
-        <v>22</v>
-      </c>
-      <c r="E172" s="9">
+      <c r="A172" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" s="3">
+        <v>6</v>
+      </c>
+      <c r="D172" s="3">
+        <v>19</v>
+      </c>
+      <c r="E172" s="4">
         <v>2</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="F172" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G172" s="4"/>
@@ -5958,51 +6074,51 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
-      <c r="L172" s="17"/>
+      <c r="L172" s="5"/>
     </row>
     <row r="173" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>6463</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C173" s="3">
-        <v>6</v>
-      </c>
-      <c r="D173" s="3">
-        <v>22</v>
-      </c>
-      <c r="E173" s="4">
-        <v>2</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" s="4"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="17"/>
+      <c r="A173" s="21">
+        <v>6483</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="22">
+        <v>6</v>
+      </c>
+      <c r="D173" s="22">
+        <v>19</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" s="10"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="5"/>
     </row>
     <row r="174" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A174" s="10">
-        <v>2608</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C174" s="8">
-        <v>6</v>
-      </c>
-      <c r="D174" s="8">
-        <v>25</v>
-      </c>
-      <c r="E174" s="9">
-        <v>4</v>
-      </c>
-      <c r="F174" s="9" t="s">
+      <c r="A174" s="2">
+        <v>6893</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="3">
+        <v>6</v>
+      </c>
+      <c r="D174" s="3">
+        <v>19</v>
+      </c>
+      <c r="E174" s="4">
+        <v>3</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G174" s="4"/>
@@ -6010,51 +6126,51 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
-      <c r="L174" s="17"/>
+      <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>5579</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C175" s="3">
-        <v>6</v>
-      </c>
-      <c r="D175" s="3">
-        <v>25</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>27</v>
+      <c r="A175" s="18">
+        <v>2801</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="19">
+        <v>6</v>
+      </c>
+      <c r="D175" s="19">
+        <v>20</v>
+      </c>
+      <c r="E175" s="20">
+        <v>4</v>
+      </c>
+      <c r="F175" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
-      <c r="L175" s="17"/>
+      <c r="L175" s="5"/>
     </row>
     <row r="176" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A176" s="10">
-        <v>6495</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C176" s="8">
-        <v>6</v>
-      </c>
-      <c r="D176" s="8">
-        <v>25</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" s="9" t="s">
+      <c r="A176" s="2">
+        <v>2639</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="3">
+        <v>6</v>
+      </c>
+      <c r="D176" s="3">
+        <v>21</v>
+      </c>
+      <c r="E176" s="4">
+        <v>3</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G176" s="4"/>
@@ -6062,25 +6178,25 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
-      <c r="L176" s="17"/>
+      <c r="L176" s="5"/>
     </row>
     <row r="177" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>5024</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C177" s="3">
-        <v>6</v>
-      </c>
-      <c r="D177" s="3">
-        <v>27</v>
-      </c>
-      <c r="E177" s="4">
-        <v>1</v>
-      </c>
-      <c r="F177" s="4" t="s">
+      <c r="A177" s="18">
+        <v>2692</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="19">
+        <v>6</v>
+      </c>
+      <c r="D177" s="19">
+        <v>21</v>
+      </c>
+      <c r="E177" s="20">
+        <v>3</v>
+      </c>
+      <c r="F177" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G177" s="4"/>
@@ -6088,25 +6204,25 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
-      <c r="L177" s="17"/>
+      <c r="L177" s="5"/>
     </row>
     <row r="178" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A178" s="10">
-        <v>2726</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C178" s="8">
-        <v>6</v>
-      </c>
-      <c r="D178" s="8">
-        <v>30</v>
-      </c>
-      <c r="E178" s="9">
-        <v>4</v>
-      </c>
-      <c r="F178" s="9" t="s">
+      <c r="A178" s="2">
+        <v>5506</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="3">
+        <v>6</v>
+      </c>
+      <c r="D178" s="3">
+        <v>21</v>
+      </c>
+      <c r="E178" s="4">
+        <v>3</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G178" s="4"/>
@@ -6114,51 +6230,51 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-      <c r="L178" s="17"/>
+      <c r="L178" s="5"/>
     </row>
     <row r="179" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
-        <v>3136</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C179" s="3">
-        <v>6</v>
-      </c>
-      <c r="D179" s="3">
-        <v>32</v>
-      </c>
-      <c r="E179" s="4">
+      <c r="A179" s="18">
+        <v>2688</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" s="19">
+        <v>6</v>
+      </c>
+      <c r="D179" s="19">
+        <v>22</v>
+      </c>
+      <c r="E179" s="20">
         <v>2</v>
       </c>
-      <c r="F179" s="4" t="s">
-        <v>27</v>
+      <c r="F179" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-      <c r="L179" s="17"/>
+      <c r="L179" s="5"/>
     </row>
     <row r="180" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A180" s="10">
-        <v>4237</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C180" s="8">
-        <v>6</v>
-      </c>
-      <c r="D180" s="8">
-        <v>32</v>
-      </c>
-      <c r="E180" s="9">
-        <v>1</v>
-      </c>
-      <c r="F180" s="9" t="s">
+      <c r="A180" s="2">
+        <v>3175</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="3">
+        <v>6</v>
+      </c>
+      <c r="D180" s="3">
+        <v>22</v>
+      </c>
+      <c r="E180" s="4">
+        <v>2</v>
+      </c>
+      <c r="F180" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G180" s="4"/>
@@ -6166,25 +6282,25 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-      <c r="L180" s="17"/>
+      <c r="L180" s="5"/>
     </row>
     <row r="181" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
-        <v>5178</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C181" s="3">
-        <v>6</v>
-      </c>
-      <c r="D181" s="3">
-        <v>32</v>
-      </c>
-      <c r="E181" s="4">
-        <v>3</v>
-      </c>
-      <c r="F181" s="4" t="s">
+      <c r="A181" s="18">
+        <v>5567</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="19">
+        <v>6</v>
+      </c>
+      <c r="D181" s="19">
+        <v>22</v>
+      </c>
+      <c r="E181" s="20">
+        <v>2</v>
+      </c>
+      <c r="F181" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G181" s="4"/>
@@ -6192,25 +6308,25 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
-      <c r="L181" s="17"/>
+      <c r="L181" s="5"/>
     </row>
     <row r="182" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A182" s="10">
-        <v>5600</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C182" s="8">
-        <v>6</v>
-      </c>
-      <c r="D182" s="8">
-        <v>32</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" s="9" t="s">
+      <c r="A182" s="2">
+        <v>6463</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" s="3">
+        <v>6</v>
+      </c>
+      <c r="D182" s="3">
+        <v>22</v>
+      </c>
+      <c r="E182" s="4">
+        <v>2</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G182" s="4"/>
@@ -6218,25 +6334,25 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
-      <c r="L182" s="17"/>
+      <c r="L182" s="5"/>
     </row>
     <row r="183" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
-        <v>1467</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C183" s="3">
-        <v>6</v>
-      </c>
-      <c r="D183" s="3">
-        <v>36</v>
-      </c>
-      <c r="E183" s="4">
-        <v>2</v>
-      </c>
-      <c r="F183" s="4" t="s">
+      <c r="A183" s="18">
+        <v>2608</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="19">
+        <v>6</v>
+      </c>
+      <c r="D183" s="19">
+        <v>25</v>
+      </c>
+      <c r="E183" s="20">
+        <v>4</v>
+      </c>
+      <c r="F183" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G183" s="4"/>
@@ -6244,25 +6360,25 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
-      <c r="L183" s="17"/>
+      <c r="L183" s="5"/>
     </row>
     <row r="184" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A184" s="10">
-        <v>2743</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C184" s="8">
-        <v>6</v>
-      </c>
-      <c r="D184" s="8">
-        <v>36</v>
-      </c>
-      <c r="E184" s="9">
-        <v>2</v>
-      </c>
-      <c r="F184" s="9" t="s">
+      <c r="A184" s="2">
+        <v>5579</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" s="3">
+        <v>6</v>
+      </c>
+      <c r="D184" s="3">
+        <v>25</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G184" s="4"/>
@@ -6270,25 +6386,25 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
-      <c r="L184" s="17"/>
+      <c r="L184" s="5"/>
     </row>
     <row r="185" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
-        <v>5504</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C185" s="3">
-        <v>6</v>
-      </c>
-      <c r="D185" s="3">
-        <v>36</v>
-      </c>
-      <c r="E185" s="4">
-        <v>2</v>
-      </c>
-      <c r="F185" s="4" t="s">
+      <c r="A185" s="18">
+        <v>6495</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="19">
+        <v>6</v>
+      </c>
+      <c r="D185" s="19">
+        <v>25</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G185" s="4"/>
@@ -6296,25 +6412,25 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
-      <c r="L185" s="17"/>
+      <c r="L185" s="5"/>
     </row>
     <row r="186" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A186" s="10">
-        <v>6448</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" s="8">
-        <v>6</v>
-      </c>
-      <c r="D186" s="8">
-        <v>36</v>
-      </c>
-      <c r="E186" s="9">
-        <v>4</v>
-      </c>
-      <c r="F186" s="9" t="s">
+      <c r="A186" s="2">
+        <v>5024</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="3">
+        <v>6</v>
+      </c>
+      <c r="D186" s="3">
+        <v>27</v>
+      </c>
+      <c r="E186" s="4">
+        <v>1</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G186" s="4"/>
@@ -6322,39 +6438,274 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
-      <c r="L186" s="17"/>
+      <c r="L186" s="5"/>
     </row>
     <row r="187" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A187" s="11">
+      <c r="A187" s="18">
+        <v>2726</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" s="19">
+        <v>6</v>
+      </c>
+      <c r="D187" s="19">
+        <v>30</v>
+      </c>
+      <c r="E187" s="20">
+        <v>4</v>
+      </c>
+      <c r="F187" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>3136</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="3">
+        <v>6</v>
+      </c>
+      <c r="D188" s="3">
+        <v>32</v>
+      </c>
+      <c r="E188" s="4">
+        <v>2</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G188" s="4"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A189" s="18">
+        <v>4237</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="19">
+        <v>6</v>
+      </c>
+      <c r="D189" s="19">
+        <v>32</v>
+      </c>
+      <c r="E189" s="20">
+        <v>1</v>
+      </c>
+      <c r="F189" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="5"/>
+    </row>
+    <row r="190" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>5178</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="3">
+        <v>6</v>
+      </c>
+      <c r="D190" s="3">
+        <v>32</v>
+      </c>
+      <c r="E190" s="4">
+        <v>3</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="4"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A191" s="18">
+        <v>5600</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="19">
+        <v>6</v>
+      </c>
+      <c r="D191" s="19">
+        <v>32</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="5"/>
+    </row>
+    <row r="192" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>1467</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="3">
+        <v>6</v>
+      </c>
+      <c r="D192" s="3">
+        <v>36</v>
+      </c>
+      <c r="E192" s="4">
+        <v>2</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G192" s="4"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="5"/>
+    </row>
+    <row r="193" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A193" s="18">
+        <v>2743</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="19">
+        <v>6</v>
+      </c>
+      <c r="D193" s="19">
+        <v>36</v>
+      </c>
+      <c r="E193" s="20">
+        <v>2</v>
+      </c>
+      <c r="F193" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" s="4"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>5504</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="3">
+        <v>6</v>
+      </c>
+      <c r="D194" s="3">
+        <v>36</v>
+      </c>
+      <c r="E194" s="4">
+        <v>2</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G194" s="4"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="5"/>
+    </row>
+    <row r="195" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A195" s="18">
+        <v>6448</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="19">
+        <v>6</v>
+      </c>
+      <c r="D195" s="19">
+        <v>36</v>
+      </c>
+      <c r="E195" s="20">
+        <v>4</v>
+      </c>
+      <c r="F195" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G195" s="4"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A196" s="8">
         <v>6462</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C187" s="12">
-        <v>6</v>
-      </c>
-      <c r="D187" s="12">
+      <c r="B196" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="9">
+        <v>6</v>
+      </c>
+      <c r="D196" s="9">
         <v>36</v>
       </c>
-      <c r="E187" s="13">
+      <c r="E196" s="10">
         <v>4</v>
       </c>
-      <c r="F187" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G187" s="13"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="17"/>
+      <c r="F196" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L105">
-    <sortCondition ref="C2:C105"/>
-    <sortCondition ref="D2:D105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L114">
+    <sortCondition ref="C2:C114"/>
+    <sortCondition ref="D2:D114"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>

--- a/data/TT24_phenology_dates.xlsx
+++ b/data/TT24_phenology_dates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A51854C-93F4-994A-B3E1-C93D842BE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DE3A9-8661-3941-BAA7-A0AE78AB2EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="500" windowWidth="39740" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="39740" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$196</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$202</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>maybe 4766? tag, no flag</t>
+  </si>
+  <si>
+    <t>TNP</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>perhaps mislabeled as 7052</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -382,17 +391,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,11 +782,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L196" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:L196" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L114">
-    <sortCondition ref="C2:C114"/>
-    <sortCondition ref="A2:A114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L202" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:L202" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L202">
+    <sortCondition ref="B2:B202"/>
+    <sortCondition ref="C2:C202"/>
+    <sortCondition ref="A2:A202"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4DD93A34-4A01-FE4A-90BA-5948ABB52889}" name="id" dataDxfId="11"/>
@@ -1122,10 +1127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A81" zoomScale="109" zoomScaleNormal="280" zoomScalePageLayoutView="109" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="109" zoomScaleNormal="280" zoomScalePageLayoutView="109" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,19 +1189,19 @@
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>392</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>27</v>
@@ -1204,39 +1209,35 @@
       <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="7">
-        <v>45394</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>425</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="7">
-        <v>45392</v>
-      </c>
+      <c r="A3" s="18">
+        <v>129</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19">
+        <v>18</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1244,61 +1245,55 @@
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>452</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="7">
-        <v>45392</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>552</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="A5" s="18">
+        <v>179</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>30</v>
+      </c>
+      <c r="E5" s="20">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1306,19 +1301,19 @@
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>583</v>
+        <v>511</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -1326,39 +1321,35 @@
       <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7">
-        <v>45388</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>774</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="18">
+        <v>543</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="19">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7">
-        <v>45388</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1366,29 +1357,27 @@
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>902</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="7">
-        <v>45388</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1396,19 +1385,19 @@
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>916</v>
+        <v>1157</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>27</v>
@@ -1416,35 +1405,33 @@
       <c r="G9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>955</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
+      <c r="A10" s="18">
+        <v>1663</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>30</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1454,207 +1441,193 @@
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1612</v>
+        <v>2131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="7">
-        <v>45392</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1666</v>
+        <v>2268</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="7">
-        <v>45394</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>1686</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="A13" s="18">
+        <v>2310</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>4</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>1926</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="A14" s="18">
+        <v>2337</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19">
+        <v>3</v>
+      </c>
+      <c r="D14" s="19">
+        <v>22</v>
+      </c>
+      <c r="E14" s="20">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>2329</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="A15" s="18">
+        <v>3643</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19">
+        <v>12</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>2416</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>27</v>
+      <c r="A16" s="18">
+        <v>3665</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>30</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="7">
-        <v>45388</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>2897</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
+      <c r="A17" s="18">
+        <v>4250</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>4</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1663,30 +1636,28 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>3563</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="A18" s="18">
+        <v>5030</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>24</v>
+      </c>
+      <c r="E18" s="20">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1694,19 +1665,19 @@
     </row>
     <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>4714</v>
+        <v>5069</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
@@ -1714,9 +1685,7 @@
       <c r="G19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1724,29 +1693,21 @@
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>4934</v>
+        <v>5104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1754,19 +1715,19 @@
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>4942</v>
+        <v>5105</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>27</v>
@@ -1774,191 +1735,157 @@
       <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>5436</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>32</v>
+      <c r="A22" s="18">
+        <v>5184</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="19">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7">
-        <v>45394</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>5440</v>
+        <v>6869</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>5479</v>
+        <v>6870</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
-        <v>21</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>5488</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="A25" s="18">
+        <v>6876</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="19">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19">
+        <v>18</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>5495</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="18">
+        <v>6872</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="19">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="7">
-        <v>45392</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>6558</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>22</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="18">
+        <v>6892</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="19">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="7">
-        <v>45392</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1966,59 +1893,55 @@
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>6578</v>
+        <v>9412</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
-        <v>4</v>
-      </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>6885</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
-        <v>20</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="A29" s="18">
+        <v>631</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="19">
+        <v>5</v>
+      </c>
+      <c r="D29" s="19">
+        <v>3</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2026,13 +1949,13 @@
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>6892</v>
+        <v>1432</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3">
         <v>17</v>
@@ -2046,69 +1969,63 @@
       <c r="G30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="A31" s="18">
+        <v>1476</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="19">
         <v>5</v>
       </c>
-      <c r="D31" s="3">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="D31" s="19">
+        <v>23</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>86</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="A32" s="18">
+        <v>1499</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="19">
         <v>5</v>
       </c>
-      <c r="D32" s="3">
-        <v>9</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="D32" s="19">
+        <v>17</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2116,81 +2033,73 @@
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>482</v>
+        <v>2616</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3">
-        <v>22</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>614</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="A34" s="18">
+        <v>2637</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="19">
         <v>5</v>
       </c>
-      <c r="D34" s="3">
-        <v>11</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>27</v>
+      <c r="D34" s="19">
+        <v>36</v>
+      </c>
+      <c r="E34" s="20">
+        <v>3</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1374</v>
+        <v>2662</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
       <c r="D35" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>27</v>
@@ -2198,9 +2107,7 @@
       <c r="G35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2208,29 +2115,27 @@
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1730</v>
+        <v>2803</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
       </c>
       <c r="D36" s="3">
-        <v>14</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2238,19 +2143,19 @@
     </row>
     <row r="37" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1739</v>
+        <v>3960</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>27</v>
@@ -2258,39 +2163,35 @@
       <c r="G37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1795</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="A38" s="18">
+        <v>3993</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="19">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
-        <v>14</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="D38" s="19">
+        <v>3</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2298,89 +2199,85 @@
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>2547</v>
+        <v>4781</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>2563</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="A40" s="18">
+        <v>5052</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="19">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
-        <v>16</v>
-      </c>
-      <c r="E40" s="4">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>27</v>
+      <c r="D40" s="19">
+        <v>36</v>
+      </c>
+      <c r="E40" s="20">
+        <v>3</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>2573</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="A41" s="18">
+        <v>5657</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="19">
         <v>5</v>
       </c>
-      <c r="D41" s="3">
-        <v>31</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="D41" s="19">
+        <v>23</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2388,19 +2285,19 @@
     </row>
     <row r="42" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>2912</v>
+        <v>6900</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
       </c>
       <c r="D42" s="3">
-        <v>11</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>27</v>
@@ -2408,103 +2305,91 @@
       <c r="G42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>2924</v>
+      <c r="A43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3">
         <v>5</v>
       </c>
       <c r="D43" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E43" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>2988</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="A44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="19">
         <v>5</v>
       </c>
-      <c r="D44" s="3">
-        <v>33</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="D44" s="19">
+        <v>3</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>3004</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="3">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
-        <v>21</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="A45" s="18">
+        <v>1144</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="19">
+        <v>6</v>
+      </c>
+      <c r="D45" s="19">
+        <v>8</v>
+      </c>
+      <c r="E45" s="20">
         <v>4</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>27</v>
+      <c r="F45" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2512,19 +2397,19 @@
     </row>
     <row r="46" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>3077</v>
+        <v>1146</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>27</v>
@@ -2532,39 +2417,35 @@
       <c r="G46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="3">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3">
-        <v>33</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>27</v>
+      <c r="A47" s="18">
+        <v>1406</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="19">
+        <v>6</v>
+      </c>
+      <c r="D47" s="19">
+        <v>8</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2572,19 +2453,19 @@
     </row>
     <row r="48" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>4000</v>
+        <v>1467</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E48" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>27</v>
@@ -2592,9 +2473,7 @@
       <c r="G48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="7">
-        <v>45394</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2602,19 +2481,19 @@
     </row>
     <row r="49" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>4105</v>
+        <v>1495</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="3">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>27</v>
@@ -2622,9 +2501,7 @@
       <c r="G49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="7">
-        <v>45394</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -2632,19 +2509,19 @@
     </row>
     <row r="50" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>4109</v>
+        <v>1941</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="3">
-        <v>32</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>27</v>
@@ -2652,61 +2529,55 @@
       <c r="G50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>4177</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="3">
-        <v>5</v>
-      </c>
-      <c r="D51" s="3">
-        <v>14</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="A51" s="18">
+        <v>2608</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="19">
+        <v>6</v>
+      </c>
+      <c r="D51" s="19">
+        <v>25</v>
+      </c>
+      <c r="E51" s="20">
+        <v>4</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>4414</v>
+        <v>2639</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>27</v>
@@ -2714,221 +2585,203 @@
       <c r="G52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="7">
-        <v>45394</v>
-      </c>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>4431</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="3">
-        <v>5</v>
-      </c>
-      <c r="D53" s="3">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4">
-        <v>3</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>27</v>
+      <c r="A53" s="18">
+        <v>2688</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="19">
+        <v>6</v>
+      </c>
+      <c r="D53" s="19">
+        <v>22</v>
+      </c>
+      <c r="E53" s="20">
+        <v>2</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>4547</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5</v>
-      </c>
-      <c r="D54" s="3">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="A54" s="18">
+        <v>2692</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="19">
+        <v>6</v>
+      </c>
+      <c r="D54" s="19">
+        <v>21</v>
+      </c>
+      <c r="E54" s="20">
+        <v>3</v>
+      </c>
+      <c r="F54" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>4576</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="3">
-        <v>5</v>
-      </c>
-      <c r="D55" s="3">
-        <v>21</v>
-      </c>
-      <c r="E55" s="4">
-        <v>3</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="A55" s="18">
+        <v>2726</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="19">
+        <v>6</v>
+      </c>
+      <c r="D55" s="19">
+        <v>30</v>
+      </c>
+      <c r="E55" s="20">
+        <v>4</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>4959</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3">
-        <v>22</v>
-      </c>
-      <c r="E56" s="4">
-        <v>4</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="A56" s="18">
+        <v>2743</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="19">
+        <v>6</v>
+      </c>
+      <c r="D56" s="19">
+        <v>36</v>
+      </c>
+      <c r="E56" s="20">
+        <v>2</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>4990</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="3">
-        <v>5</v>
-      </c>
-      <c r="D57" s="3">
-        <v>22</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="A57" s="18">
+        <v>2799</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="19">
+        <v>6</v>
+      </c>
+      <c r="D57" s="19">
+        <v>14</v>
+      </c>
+      <c r="E57" s="20">
+        <v>2</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>5115</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5</v>
-      </c>
-      <c r="D58" s="3">
-        <v>19</v>
-      </c>
-      <c r="E58" s="4">
-        <v>3</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>27</v>
+      <c r="A58" s="18">
+        <v>2801</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="19">
+        <v>6</v>
+      </c>
+      <c r="D58" s="19">
+        <v>20</v>
+      </c>
+      <c r="E58" s="20">
+        <v>4</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>5228</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="3">
-        <v>5</v>
-      </c>
-      <c r="D59" s="3">
-        <v>19</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>27</v>
+      <c r="A59" s="18">
+        <v>3120</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="19">
+        <v>6</v>
+      </c>
+      <c r="D59" s="19">
+        <v>8</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2936,51 +2789,47 @@
     </row>
     <row r="60" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>5229</v>
+        <v>3136</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C60" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>5381</v>
+        <v>3175</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C61" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E61" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>27</v>
@@ -2988,39 +2837,35 @@
       <c r="G61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>5877</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5</v>
-      </c>
-      <c r="D62" s="3">
-        <v>27</v>
-      </c>
-      <c r="E62" s="4">
-        <v>3</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="A62" s="18">
+        <v>3438</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="19">
+        <v>6</v>
+      </c>
+      <c r="D62" s="19">
+        <v>11</v>
+      </c>
+      <c r="E62" s="20">
+        <v>3</v>
+      </c>
+      <c r="F62" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -3028,29 +2873,27 @@
     </row>
     <row r="63" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>5904</v>
+        <v>3468</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="3">
         <v>9</v>
       </c>
       <c r="E63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3058,19 +2901,19 @@
     </row>
     <row r="64" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>6875</v>
+        <v>4216</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="3">
-        <v>29</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>27</v>
@@ -3078,148 +2921,134 @@
       <c r="G64" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="5"/>
+      <c r="L64" s="25"/>
     </row>
     <row r="65" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>6881</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="3">
-        <v>5</v>
-      </c>
-      <c r="D65" s="3">
-        <v>10</v>
-      </c>
-      <c r="E65" s="4">
-        <v>4</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="A65" s="18">
+        <v>4237</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="19">
+        <v>6</v>
+      </c>
+      <c r="D65" s="19">
+        <v>32</v>
+      </c>
+      <c r="E65" s="20">
+        <v>1</v>
+      </c>
+      <c r="F65" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>7120</v>
+        <v>4249</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C66" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" s="3">
-        <v>17</v>
-      </c>
-      <c r="E66" s="4">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>7147</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="3">
-        <v>5</v>
-      </c>
-      <c r="D67" s="3">
-        <v>9</v>
-      </c>
-      <c r="E67" s="4">
-        <v>3</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="A67" s="18">
+        <v>4722</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="19">
+        <v>6</v>
+      </c>
+      <c r="D67" s="19">
+        <v>8</v>
+      </c>
+      <c r="E67" s="20">
+        <v>2</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>10</v>
+      <c r="A68" s="2">
+        <v>5009</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="3">
-        <v>14</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>11</v>
+      <c r="A69" s="2">
+        <v>5024</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" s="3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -3230,59 +3059,55 @@
       <c r="G69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="3">
-        <v>5</v>
-      </c>
-      <c r="D70" s="3">
-        <v>14</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="A70" s="18">
+        <v>5025</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="19">
+        <v>6</v>
+      </c>
+      <c r="D70" s="19">
+        <v>11</v>
+      </c>
+      <c r="E70" s="20">
+        <v>3</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>13</v>
+      <c r="A71" s="2">
+        <v>5122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E71" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>27</v>
@@ -3290,31 +3115,27 @@
       <c r="G71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>684</v>
+        <v>5178</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C72" s="3">
         <v>6</v>
       </c>
       <c r="D72" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E72" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>27</v>
@@ -3322,9 +3143,7 @@
       <c r="G72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3332,29 +3151,27 @@
     </row>
     <row r="73" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>762</v>
+        <v>5504</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C73" s="3">
         <v>6</v>
       </c>
       <c r="D73" s="3">
+        <v>36</v>
+      </c>
+      <c r="E73" s="4">
         <v>2</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F73" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -3362,59 +3179,55 @@
     </row>
     <row r="74" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>925</v>
+        <v>5506</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C74" s="3">
         <v>6</v>
       </c>
       <c r="D74" s="3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E74" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>978</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="3">
-        <v>6</v>
-      </c>
-      <c r="D75" s="3">
-        <v>6</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="A75" s="18">
+        <v>5567</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="19">
+        <v>6</v>
+      </c>
+      <c r="D75" s="19">
+        <v>22</v>
+      </c>
+      <c r="E75" s="20">
+        <v>2</v>
+      </c>
+      <c r="F75" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3422,55 +3235,53 @@
     </row>
     <row r="76" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>1184</v>
+        <v>5569</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="3">
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E76" s="4">
         <v>3</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>2074</v>
+        <v>5579</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
       </c>
       <c r="D77" s="3">
-        <v>16</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -3480,25 +3291,19 @@
     </row>
     <row r="78" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>2276</v>
+        <v>5590</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C78" s="3">
         <v>6</v>
       </c>
-      <c r="D78" s="3">
-        <v>22</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -3507,22 +3312,26 @@
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>2663</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="3">
-        <v>6</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4" t="s">
-        <v>32</v>
+      <c r="A79" s="18">
+        <v>5596</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="19">
+        <v>6</v>
+      </c>
+      <c r="D79" s="19">
+        <v>8</v>
+      </c>
+      <c r="E79" s="20">
+        <v>4</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -3531,58 +3340,54 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>2941</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="3">
-        <v>6</v>
-      </c>
-      <c r="D80" s="3">
-        <v>6</v>
-      </c>
-      <c r="E80" s="4">
-        <v>4</v>
-      </c>
-      <c r="F80" s="4" t="s">
+      <c r="A80" s="18">
+        <v>5600</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="19">
+        <v>6</v>
+      </c>
+      <c r="D80" s="19">
         <v>32</v>
       </c>
+      <c r="E80" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="G80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>2950</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="3">
-        <v>6</v>
-      </c>
-      <c r="D81" s="3">
-        <v>8</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>7</v>
+      <c r="A81" s="18">
+        <v>5607</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="19">
+        <v>6</v>
+      </c>
+      <c r="D81" s="19">
+        <v>9</v>
+      </c>
+      <c r="E81" s="20">
+        <v>3</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -3592,19 +3397,19 @@
     </row>
     <row r="82" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>2980</v>
+        <v>5664</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C82" s="3">
         <v>6</v>
       </c>
       <c r="D82" s="3">
-        <v>11</v>
-      </c>
-      <c r="E82" s="4">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>27</v>
@@ -3612,9 +3417,7 @@
       <c r="G82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -3622,59 +3425,49 @@
     </row>
     <row r="83" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>3305</v>
+        <v>6438</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
       </c>
-      <c r="D83" s="3">
-        <v>5</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>3371</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="3">
-        <v>6</v>
-      </c>
-      <c r="D84" s="3">
-        <v>11</v>
-      </c>
-      <c r="E84" s="4">
-        <v>2</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="A84" s="18">
+        <v>6448</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="19">
+        <v>6</v>
+      </c>
+      <c r="D84" s="19">
+        <v>36</v>
+      </c>
+      <c r="E84" s="20">
+        <v>4</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3682,19 +3475,19 @@
     </row>
     <row r="85" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>3379</v>
+        <v>6462</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C85" s="3">
         <v>6</v>
       </c>
       <c r="D85" s="3">
-        <v>11</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="E85" s="4">
+        <v>4</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>27</v>
@@ -3702,9 +3495,7 @@
       <c r="G85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="7">
-        <v>45394</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -3712,19 +3503,19 @@
     </row>
     <row r="86" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>3770</v>
+        <v>6463</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="3">
         <v>6</v>
       </c>
       <c r="D86" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E86" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>27</v>
@@ -3732,71 +3523,63 @@
       <c r="G86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="7">
-        <v>45390</v>
-      </c>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="5"/>
+      <c r="L86" s="25"/>
     </row>
     <row r="87" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>4373</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="3">
-        <v>6</v>
-      </c>
-      <c r="D87" s="3">
-        <v>2</v>
-      </c>
-      <c r="E87" s="4">
-        <v>2</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>7</v>
+      <c r="A87" s="18">
+        <v>6483</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="19">
+        <v>6</v>
+      </c>
+      <c r="D87" s="19">
+        <v>19</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" s="7">
-        <v>45392</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>4505</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="3">
-        <v>6</v>
-      </c>
-      <c r="D88" s="3">
-        <v>11</v>
-      </c>
-      <c r="E88" s="4">
-        <v>4</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="A88" s="18">
+        <v>6495</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="19">
+        <v>6</v>
+      </c>
+      <c r="D88" s="19">
+        <v>25</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H88" s="7">
-        <v>45392</v>
-      </c>
+      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -3804,25 +3587,25 @@
     </row>
     <row r="89" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>4510</v>
+        <v>6893</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C89" s="3">
         <v>6</v>
       </c>
       <c r="D89" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E89" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -3832,19 +3615,19 @@
     </row>
     <row r="90" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>4511</v>
+        <v>392</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C90" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" s="3">
-        <v>16</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>27</v>
@@ -3853,7 +3636,7 @@
         <v>27</v>
       </c>
       <c r="H90" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3862,27 +3645,29 @@
     </row>
     <row r="91" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>4543</v>
+        <v>425</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" s="3">
+        <v>6</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="4">
-        <v>2</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="3"/>
+      <c r="F91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="7">
+        <v>45392</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -3890,24 +3675,24 @@
     </row>
     <row r="92" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>4582</v>
+        <v>452</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C92" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" s="3">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H92" s="7">
@@ -3916,31 +3701,35 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="5"/>
+      <c r="L92" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="93" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>4712</v>
+        <v>552</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C93" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93" s="3">
+        <v>14</v>
+      </c>
+      <c r="E93" s="4">
         <v>2</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F93" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H93" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="H93" s="7">
+        <v>45390</v>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -3948,51 +3737,49 @@
     </row>
     <row r="94" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>4760</v>
+        <v>583</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D94" s="3">
-        <v>2</v>
-      </c>
-      <c r="E94" s="4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H94" s="7">
-        <v>45392</v>
+        <v>45388</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>4777</v>
+        <v>774</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E95" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>27</v>
@@ -4001,7 +3788,7 @@
         <v>27</v>
       </c>
       <c r="H95" s="7">
-        <v>45392</v>
+        <v>45388</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -4010,28 +3797,28 @@
     </row>
     <row r="96" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>5031</v>
+        <v>902</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C96" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D96" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E96" s="4">
         <v>4</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H96" s="7">
-        <v>45394</v>
+        <v>45388</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -4040,27 +3827,29 @@
     </row>
     <row r="97" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>5060</v>
+        <v>916</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C97" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H97" s="7">
+        <v>45392</v>
+      </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -4068,29 +3857,27 @@
     </row>
     <row r="98" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>5229</v>
+        <v>955</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C98" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D98" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" s="7">
-        <v>45392</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -4098,22 +3885,22 @@
     </row>
     <row r="99" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>5267</v>
+        <v>1612</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C99" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" s="3">
-        <v>2</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E99" s="4">
+        <v>4</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>27</v>
@@ -4124,31 +3911,35 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="5"/>
+      <c r="L99" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="100" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>5365</v>
+        <v>1666</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C100" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" s="3">
-        <v>5</v>
-      </c>
-      <c r="E100" s="4">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H100" s="7">
+        <v>45394</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -4156,19 +3947,19 @@
     </row>
     <row r="101" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>5403</v>
+        <v>1686</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C101" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" s="3">
         <v>6</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>20</v>
+      <c r="E101" s="4">
+        <v>3</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>27</v>
@@ -4186,27 +3977,29 @@
     </row>
     <row r="102" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>5509</v>
+        <v>1926</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D102" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4">
         <v>2</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H102" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H102" s="7">
+        <v>45392</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -4214,19 +4007,19 @@
     </row>
     <row r="103" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>5619</v>
+        <v>2329</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C103" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D103" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E103" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>27</v>
@@ -4244,19 +4037,19 @@
     </row>
     <row r="104" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>5626</v>
+        <v>2416</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D104" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>27</v>
@@ -4265,7 +4058,7 @@
         <v>27</v>
       </c>
       <c r="H104" s="7">
-        <v>45392</v>
+        <v>45388</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -4274,22 +4067,22 @@
     </row>
     <row r="105" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>5641</v>
+        <v>2897</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>7</v>
@@ -4302,27 +4095,29 @@
     </row>
     <row r="106" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>5714</v>
+        <v>3563</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E106" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H106" s="7">
+        <v>45390</v>
+      </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -4330,54 +4125,52 @@
     </row>
     <row r="107" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>5722</v>
+        <v>4714</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D107" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" s="4">
         <v>4</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H107" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>5742</v>
+        <v>4934</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C108" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D108" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E108" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>27</v>
@@ -4388,25 +4181,23 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>5783</v>
+        <v>4942</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C109" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D109" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E109" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>27</v>
@@ -4415,7 +4206,7 @@
         <v>27</v>
       </c>
       <c r="H109" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -4424,50 +4215,54 @@
     </row>
     <row r="110" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>5852</v>
+        <v>5436</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D110" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E110" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H110" s="7">
+        <v>45394</v>
+      </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="5"/>
+      <c r="L110" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>5865</v>
+        <v>5440</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C111" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D111" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E111" s="4">
         <v>2</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>27</v>
@@ -4482,19 +4277,19 @@
     </row>
     <row r="112" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>6879</v>
+        <v>5479</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C112" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D112" s="3">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E112" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>27</v>
@@ -4502,305 +4297,341 @@
       <c r="G112" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="3"/>
+      <c r="H112" s="7">
+        <v>45392</v>
+      </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L112" s="5"/>
     </row>
     <row r="113" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>6884</v>
+        <v>5488</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C113" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113" s="3">
-        <v>19</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H113" s="7">
+        <v>45392</v>
+      </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="14">
-        <v>6</v>
-      </c>
-      <c r="D114" s="14">
-        <v>5</v>
-      </c>
-      <c r="E114" s="15">
+      <c r="L113" s="25"/>
+    </row>
+    <row r="114" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>5495</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3">
+        <v>3</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="25"/>
+    </row>
+    <row r="115" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>6558</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>22</v>
+      </c>
+      <c r="E115" s="4">
         <v>4</v>
       </c>
-      <c r="F114" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H114" s="17">
-        <v>45394</v>
-      </c>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A115" s="24">
-        <v>4250</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="25">
-        <v>3</v>
-      </c>
-      <c r="D115" s="25">
-        <v>2</v>
-      </c>
-      <c r="E115" s="26">
+      <c r="F115" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>6578</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
         <v>4</v>
       </c>
-      <c r="F115" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>9412</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C116" s="3">
-        <v>3</v>
-      </c>
-      <c r="D116" s="3">
-        <v>3</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1</v>
-      </c>
       <c r="F116" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="3"/>
+      <c r="G116" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="7">
+        <v>45392</v>
+      </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A117" s="18">
-        <v>2310</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="19">
-        <v>3</v>
-      </c>
-      <c r="D117" s="19">
+    <row r="117" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>6885</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3</v>
+      </c>
+      <c r="D117" s="3">
+        <v>20</v>
+      </c>
+      <c r="E117" s="4">
         <v>4</v>
       </c>
-      <c r="E117" s="20">
-        <v>2</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="3"/>
+      <c r="F117" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="7">
+        <v>45392</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>5105</v>
+        <v>6892</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C118" s="3">
         <v>3</v>
       </c>
       <c r="D118" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E118" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="3"/>
+      <c r="G118" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" s="7">
+        <v>45392</v>
+      </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A119" s="18">
-        <v>3643</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="19">
-        <v>3</v>
-      </c>
-      <c r="D119" s="19">
-        <v>12</v>
-      </c>
-      <c r="E119" s="20">
-        <v>2</v>
-      </c>
-      <c r="F119" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="3"/>
+    <row r="119" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>43</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="3">
+        <v>5</v>
+      </c>
+      <c r="D119" s="3">
+        <v>9</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" s="7">
+        <v>45392</v>
+      </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>141</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="3">
-        <v>3</v>
-      </c>
-      <c r="D120" s="3">
-        <v>13</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="5"/>
+    <row r="120" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="13">
+        <v>86</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="14">
+        <v>5</v>
+      </c>
+      <c r="D120" s="14">
+        <v>9</v>
+      </c>
+      <c r="E120" s="15">
+        <v>3</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" s="17">
+        <v>45392</v>
+      </c>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="16"/>
     </row>
     <row r="121" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A121" s="18">
-        <v>5184</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="19">
-        <v>3</v>
-      </c>
-      <c r="D121" s="19">
-        <v>13</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
+      <c r="A121" s="21">
+        <v>482</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="12">
+        <v>5</v>
+      </c>
+      <c r="D121" s="12">
+        <v>22</v>
+      </c>
+      <c r="E121" s="11">
+        <v>1</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="22">
+        <v>45392</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
       <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>54</v>
+        <v>614</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C122" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" s="3">
-        <v>16</v>
-      </c>
-      <c r="E122" s="4">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="3"/>
+      <c r="G122" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" s="7">
+        <v>45392</v>
+      </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="L122" s="5"/>
+      <c r="L122" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="123" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A123" s="18">
-        <v>129</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="19">
-        <v>3</v>
-      </c>
-      <c r="D123" s="19">
-        <v>18</v>
-      </c>
-      <c r="E123" s="20">
-        <v>2</v>
-      </c>
-      <c r="F123" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="3"/>
+      <c r="A123" s="2">
+        <v>1374</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="3">
+        <v>5</v>
+      </c>
+      <c r="D123" s="3">
+        <v>10</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="7">
+        <v>45390</v>
+      </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -4808,51 +4639,59 @@
     </row>
     <row r="124" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>2268</v>
+        <v>1730</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C124" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D124" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E124" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" s="7">
+        <v>45392</v>
+      </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="5"/>
     </row>
     <row r="125" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A125" s="18">
-        <v>6876</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="19">
-        <v>3</v>
-      </c>
-      <c r="D125" s="19">
-        <v>18</v>
-      </c>
-      <c r="E125" s="20">
+      <c r="A125" s="2">
+        <v>1739</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="3">
+        <v>5</v>
+      </c>
+      <c r="D125" s="3">
+        <v>14</v>
+      </c>
+      <c r="E125" s="4">
         <v>2</v>
       </c>
-      <c r="F125" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" s="4"/>
-      <c r="H125" s="3"/>
+      <c r="F125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="7">
+        <v>45392</v>
+      </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -4860,51 +4699,59 @@
     </row>
     <row r="126" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>6869</v>
+        <v>1795</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C126" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D126" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E126" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="3"/>
+      <c r="G126" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="7">
+        <v>45392</v>
+      </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A127" s="18">
-        <v>2337</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="19">
-        <v>3</v>
-      </c>
-      <c r="D127" s="19">
-        <v>22</v>
-      </c>
-      <c r="E127" s="20">
-        <v>2</v>
-      </c>
-      <c r="F127" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="3"/>
+      <c r="A127" s="2">
+        <v>2547</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="3">
+        <v>5</v>
+      </c>
+      <c r="D127" s="3">
+        <v>19</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="7">
+        <v>45392</v>
+      </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -4912,51 +4759,59 @@
     </row>
     <row r="128" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>1021</v>
+        <v>2563</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C128" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E128" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="3"/>
+      <c r="G128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" s="7">
+        <v>45392</v>
+      </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A129" s="18">
-        <v>5030</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" s="19">
-        <v>3</v>
-      </c>
-      <c r="D129" s="19">
-        <v>24</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1</v>
-      </c>
-      <c r="F129" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="3"/>
+      <c r="A129" s="2">
+        <v>2573</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5</v>
+      </c>
+      <c r="D129" s="3">
+        <v>31</v>
+      </c>
+      <c r="E129" s="4">
+        <v>4</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="7">
+        <v>45392</v>
+      </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -4964,103 +4819,123 @@
     </row>
     <row r="130" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>5069</v>
+        <v>2912</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C130" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D130" s="3">
-        <v>24</v>
-      </c>
-      <c r="E130" s="4">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G130" s="4"/>
-      <c r="H130" s="3"/>
+      <c r="G130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" s="7">
+        <v>45392</v>
+      </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A131" s="21">
-        <v>179</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" s="22">
-        <v>3</v>
-      </c>
-      <c r="D131" s="22">
-        <v>30</v>
-      </c>
-      <c r="E131" s="23">
-        <v>2</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G131" s="10"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="5"/>
+      <c r="A131" s="2">
+        <v>2924</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="3">
+        <v>5</v>
+      </c>
+      <c r="D131" s="3">
+        <v>35</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="132" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>511</v>
+        <v>2988</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C132" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D132" s="3">
-        <v>30</v>
-      </c>
-      <c r="E132" s="4">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="3"/>
+      <c r="G132" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="7">
+        <v>45392</v>
+      </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="5"/>
+      <c r="L132" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="133" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A133" s="18">
-        <v>543</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="19">
-        <v>3</v>
-      </c>
-      <c r="D133" s="19">
-        <v>30</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="3"/>
+      <c r="A133" s="2">
+        <v>3004</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="3">
+        <v>5</v>
+      </c>
+      <c r="D133" s="3">
+        <v>21</v>
+      </c>
+      <c r="E133" s="4">
+        <v>4</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="7">
+        <v>45392</v>
+      </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -5068,51 +4943,59 @@
     </row>
     <row r="134" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>1157</v>
+        <v>3077</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C134" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" s="3">
-        <v>30</v>
-      </c>
-      <c r="E134" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="3"/>
+      <c r="G134" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" s="7">
+        <v>45390</v>
+      </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A135" s="18">
-        <v>1663</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" s="19">
-        <v>3</v>
-      </c>
-      <c r="D135" s="19">
-        <v>30</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F135" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="3"/>
+      <c r="A135" s="2">
+        <v>3829</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" s="3">
+        <v>5</v>
+      </c>
+      <c r="D135" s="3">
+        <v>33</v>
+      </c>
+      <c r="E135" s="4">
+        <v>3</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" s="7">
+        <v>45392</v>
+      </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -5120,207 +5003,241 @@
     </row>
     <row r="136" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>2131</v>
+        <v>4000</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C136" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E136" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="3"/>
+      <c r="G136" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" s="7">
+        <v>45394</v>
+      </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A137" s="18">
-        <v>3665</v>
-      </c>
-      <c r="B137" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" s="19">
-        <v>3</v>
-      </c>
-      <c r="D137" s="19">
-        <v>30</v>
-      </c>
-      <c r="E137" s="20">
-        <v>1</v>
-      </c>
-      <c r="F137" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
+      <c r="A137" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="9">
+        <v>5</v>
+      </c>
+      <c r="D137" s="9">
+        <v>10</v>
+      </c>
+      <c r="E137" s="10">
+        <v>4</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" s="23">
+        <v>45394</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
       <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>6900</v>
+        <v>4109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3">
         <v>5</v>
       </c>
       <c r="D138" s="3">
-        <v>2</v>
-      </c>
-      <c r="E138" s="4">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G138" s="4"/>
-      <c r="H138" s="3"/>
+      <c r="G138" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" s="7">
+        <v>45390</v>
+      </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A139" s="18">
-        <v>631</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139" s="19">
+      <c r="A139" s="2">
+        <v>4177</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="3">
         <v>5</v>
       </c>
-      <c r="D139" s="19">
-        <v>3</v>
-      </c>
-      <c r="E139" s="20">
-        <v>3</v>
-      </c>
-      <c r="F139" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G139" s="4"/>
-      <c r="H139" s="3"/>
+      <c r="D139" s="3">
+        <v>14</v>
+      </c>
+      <c r="E139" s="4">
+        <v>2</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="7">
+        <v>45392</v>
+      </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-      <c r="L139" s="5"/>
+      <c r="L139" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="140" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>3960</v>
+        <v>4414</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C140" s="3">
         <v>5</v>
       </c>
       <c r="D140" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E140" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="3"/>
+      <c r="G140" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" s="7">
+        <v>45394</v>
+      </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A141" s="18">
-        <v>3993</v>
-      </c>
-      <c r="B141" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C141" s="19">
+      <c r="A141" s="2">
+        <v>4431</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="3">
         <v>5</v>
       </c>
-      <c r="D141" s="19">
-        <v>3</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="3"/>
+      <c r="D141" s="3">
+        <v>23</v>
+      </c>
+      <c r="E141" s="4">
+        <v>3</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="7">
+        <v>45392</v>
+      </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>11</v>
+      <c r="A142" s="2">
+        <v>4547</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C142" s="3">
         <v>5</v>
       </c>
       <c r="D142" s="3">
-        <v>3</v>
-      </c>
-      <c r="E142" s="4">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G142" s="4"/>
-      <c r="H142" s="3"/>
+      <c r="G142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" s="7">
+        <v>45392</v>
+      </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="19">
+      <c r="A143" s="2">
+        <v>4576</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" s="3">
         <v>5</v>
       </c>
-      <c r="D143" s="19">
-        <v>3</v>
-      </c>
-      <c r="E143" s="20">
-        <v>3</v>
-      </c>
-      <c r="F143" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="3"/>
+      <c r="D143" s="3">
+        <v>21</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="7">
+        <v>45392</v>
+      </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -5328,51 +5245,61 @@
     </row>
     <row r="144" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>1432</v>
+        <v>4959</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C144" s="3">
         <v>5</v>
       </c>
       <c r="D144" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E144" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="3"/>
+      <c r="G144" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" s="7">
+        <v>45392</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
-      <c r="L144" s="5"/>
+      <c r="L144" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="145" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A145" s="18">
-        <v>1499</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" s="19">
+      <c r="A145" s="2">
+        <v>4990</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="3">
         <v>5</v>
       </c>
-      <c r="D145" s="19">
-        <v>17</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="3"/>
+      <c r="D145" s="3">
+        <v>22</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" s="7">
+        <v>45392</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -5380,51 +5307,59 @@
     </row>
     <row r="146" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>2803</v>
+        <v>5115</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C146" s="3">
         <v>5</v>
       </c>
       <c r="D146" s="3">
-        <v>18</v>
-      </c>
-      <c r="E146" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E146" s="4">
+        <v>3</v>
+      </c>
       <c r="F146" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G146" s="4"/>
-      <c r="H146" s="3"/>
+      <c r="G146" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" s="7">
+        <v>45392</v>
+      </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A147" s="18">
-        <v>1476</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147" s="19">
+      <c r="A147" s="2">
+        <v>5228</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="3">
         <v>5</v>
       </c>
-      <c r="D147" s="19">
-        <v>23</v>
-      </c>
-      <c r="E147" s="20">
+      <c r="D147" s="3">
+        <v>19</v>
+      </c>
+      <c r="E147" s="4">
         <v>1</v>
       </c>
-      <c r="F147" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" s="4"/>
-      <c r="H147" s="3"/>
+      <c r="F147" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" s="7">
+        <v>45392</v>
+      </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -5432,51 +5367,61 @@
     </row>
     <row r="148" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>4781</v>
+        <v>5229</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C148" s="3">
         <v>5</v>
       </c>
       <c r="D148" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E148" s="4">
         <v>1</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" s="7">
+        <v>45392</v>
+      </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
-      <c r="L148" s="5"/>
+      <c r="L148" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="149" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A149" s="18">
-        <v>5657</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C149" s="19">
+      <c r="A149" s="2">
+        <v>5381</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="3">
         <v>5</v>
       </c>
-      <c r="D149" s="19">
-        <v>23</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G149" s="4"/>
-      <c r="H149" s="3"/>
+      <c r="D149" s="3">
+        <v>10</v>
+      </c>
+      <c r="E149" s="4">
+        <v>3</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" s="7">
+        <v>45390</v>
+      </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -5484,118 +5429,138 @@
     </row>
     <row r="150" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>2616</v>
+        <v>5877</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C150" s="3">
         <v>5</v>
       </c>
       <c r="D150" s="3">
-        <v>36</v>
-      </c>
-      <c r="E150" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E150" s="4">
+        <v>3</v>
+      </c>
       <c r="F150" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="3"/>
+      <c r="G150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" s="7">
+        <v>45392</v>
+      </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A151" s="21">
-        <v>2637</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="22">
+      <c r="A151" s="2">
+        <v>5904</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" s="3">
         <v>5</v>
       </c>
-      <c r="D151" s="22">
-        <v>36</v>
-      </c>
-      <c r="E151" s="23">
-        <v>3</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
+      <c r="D151" s="3">
+        <v>9</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>2662</v>
+        <v>6875</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C152" s="3">
         <v>5</v>
       </c>
       <c r="D152" s="3">
-        <v>36</v>
-      </c>
-      <c r="E152" s="4">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G152" s="4"/>
-      <c r="H152" s="3"/>
+      <c r="G152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="7">
+        <v>45392</v>
+      </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A153" s="18">
-        <v>5052</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="19">
+      <c r="A153" s="2">
+        <v>6881</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="3">
         <v>5</v>
       </c>
-      <c r="D153" s="19">
-        <v>36</v>
-      </c>
-      <c r="E153" s="20">
-        <v>3</v>
-      </c>
-      <c r="F153" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="4"/>
-      <c r="H153" s="3"/>
+      <c r="D153" s="3">
+        <v>10</v>
+      </c>
+      <c r="E153" s="4">
+        <v>4</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" s="7">
+        <v>45392</v>
+      </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="L153" s="5"/>
+      <c r="L153" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>5122</v>
+        <v>7120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C154" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E154" s="4">
         <v>4</v>
@@ -5603,190 +5568,224 @@
       <c r="F154" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="3"/>
+      <c r="G154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" s="7">
+        <v>45392</v>
+      </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A155" s="18">
-        <v>1144</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="19">
-        <v>6</v>
-      </c>
-      <c r="D155" s="19">
-        <v>8</v>
-      </c>
-      <c r="E155" s="20">
-        <v>4</v>
-      </c>
-      <c r="F155" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="3"/>
+      <c r="A155" s="2">
+        <v>7147</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="3">
+        <v>5</v>
+      </c>
+      <c r="D155" s="3">
+        <v>9</v>
+      </c>
+      <c r="E155" s="4">
+        <v>3</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="7">
+        <v>45392</v>
+      </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>1146</v>
+      <c r="A156" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C156" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D156" s="3">
-        <v>8</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G156" s="4"/>
-      <c r="H156" s="3"/>
+      <c r="G156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" s="7">
+        <v>45390</v>
+      </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A157" s="18">
-        <v>1406</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" s="19">
-        <v>6</v>
-      </c>
-      <c r="D157" s="19">
-        <v>8</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G157" s="4"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="A157" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="9">
+        <v>5</v>
+      </c>
+      <c r="D157" s="9">
+        <v>14</v>
+      </c>
+      <c r="E157" s="10">
+        <v>1</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" s="23">
+        <v>45390</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
       <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
-        <v>1495</v>
+      <c r="A158" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C158" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158" s="3">
-        <v>8</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G158" s="4"/>
-      <c r="H158" s="3"/>
+      <c r="G158" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" s="7">
+        <v>45392</v>
+      </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="5"/>
     </row>
     <row r="159" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A159" s="18">
-        <v>3120</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="19">
-        <v>6</v>
-      </c>
-      <c r="D159" s="19">
-        <v>8</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G159" s="4"/>
-      <c r="H159" s="3"/>
+      <c r="A159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" s="3">
+        <v>5</v>
+      </c>
+      <c r="D159" s="3">
+        <v>16</v>
+      </c>
+      <c r="E159" s="4">
+        <v>3</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" s="7">
+        <v>45392</v>
+      </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
-      <c r="L159" s="5"/>
+      <c r="L159" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="160" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>4249</v>
+        <v>684</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C160" s="3">
         <v>6</v>
       </c>
       <c r="D160" s="3">
-        <v>8</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="E160" s="4">
+        <v>2</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" s="4"/>
-      <c r="H160" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" s="7">
+        <v>45390</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="5"/>
     </row>
     <row r="161" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A161" s="18">
-        <v>4722</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="19">
-        <v>6</v>
-      </c>
-      <c r="D161" s="19">
-        <v>8</v>
-      </c>
-      <c r="E161" s="20">
+      <c r="A161" s="2">
+        <v>762</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" s="3">
+        <v>6</v>
+      </c>
+      <c r="D161" s="3">
         <v>2</v>
       </c>
-      <c r="F161" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G161" s="4"/>
-      <c r="H161" s="3"/>
+      <c r="E161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H161" s="7">
+        <v>45390</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -5794,49 +5793,59 @@
     </row>
     <row r="162" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>5009</v>
+        <v>925</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C162" s="3">
         <v>6</v>
       </c>
       <c r="D162" s="3">
-        <v>8</v>
-      </c>
-      <c r="E162" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E162" s="4">
+        <v>2</v>
+      </c>
       <c r="F162" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-      <c r="L162" s="5"/>
+      <c r="L162" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="163" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A163" s="18">
-        <v>5596</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C163" s="19">
-        <v>6</v>
-      </c>
-      <c r="D163" s="19">
-        <v>8</v>
-      </c>
-      <c r="E163" s="20">
-        <v>4</v>
-      </c>
-      <c r="F163" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G163" s="4"/>
-      <c r="H163" s="3"/>
+      <c r="A163" s="2">
+        <v>978</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="3">
+        <v>6</v>
+      </c>
+      <c r="D163" s="3">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H163" s="7">
+        <v>45392</v>
+      </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -5844,50 +5853,56 @@
     </row>
     <row r="164" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>3468</v>
+        <v>1184</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C164" s="3">
         <v>6</v>
       </c>
       <c r="D164" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E164" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G164" s="4"/>
+      <c r="G164" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
-      <c r="L164" s="5"/>
+      <c r="L164" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="165" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A165" s="18">
-        <v>5607</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C165" s="19">
-        <v>6</v>
-      </c>
-      <c r="D165" s="19">
-        <v>9</v>
-      </c>
-      <c r="E165" s="20">
-        <v>3</v>
-      </c>
-      <c r="F165" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G165" s="4"/>
+      <c r="A165" s="2">
+        <v>2074</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="3">
+        <v>6</v>
+      </c>
+      <c r="D165" s="3">
+        <v>16</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -5896,24 +5911,26 @@
     </row>
     <row r="166" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>5664</v>
+        <v>2276</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C166" s="3">
         <v>6</v>
       </c>
       <c r="D166" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G166" s="4"/>
+      <c r="G166" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -5921,25 +5938,23 @@
       <c r="L166" s="5"/>
     </row>
     <row r="167" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A167" s="18">
-        <v>3438</v>
-      </c>
-      <c r="B167" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C167" s="19">
-        <v>6</v>
-      </c>
-      <c r="D167" s="19">
-        <v>11</v>
-      </c>
-      <c r="E167" s="20">
-        <v>3</v>
-      </c>
-      <c r="F167" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G167" s="4"/>
+      <c r="A167" s="2">
+        <v>2663</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" s="3">
+        <v>6</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -5948,50 +5963,58 @@
     </row>
     <row r="168" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>4216</v>
+        <v>2941</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C168" s="3">
         <v>6</v>
       </c>
       <c r="D168" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E168" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G168" s="4"/>
-      <c r="H168" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" s="7">
+        <v>45392</v>
+      </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
-      <c r="L168" s="5"/>
+      <c r="L168" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="169" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A169" s="18">
-        <v>5025</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="19">
-        <v>6</v>
-      </c>
-      <c r="D169" s="19">
-        <v>11</v>
-      </c>
-      <c r="E169" s="20">
-        <v>3</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" s="4"/>
+      <c r="A169" s="2">
+        <v>2950</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="3">
+        <v>6</v>
+      </c>
+      <c r="D169" s="3">
+        <v>8</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -6000,10 +6023,10 @@
     </row>
     <row r="170" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>5569</v>
+        <v>2980</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C170" s="3">
         <v>6</v>
@@ -6012,39 +6035,47 @@
         <v>11</v>
       </c>
       <c r="E170" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="3"/>
+      <c r="G170" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H170" s="7">
+        <v>45392</v>
+      </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="5"/>
     </row>
     <row r="171" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A171" s="18">
-        <v>2799</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C171" s="19">
-        <v>6</v>
-      </c>
-      <c r="D171" s="19">
-        <v>14</v>
-      </c>
-      <c r="E171" s="20">
-        <v>2</v>
-      </c>
-      <c r="F171" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" s="4"/>
-      <c r="H171" s="3"/>
+      <c r="A171" s="2">
+        <v>3305</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="3">
+        <v>6</v>
+      </c>
+      <c r="D171" s="3">
+        <v>5</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" s="7">
+        <v>45392</v>
+      </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -6052,16 +6083,16 @@
     </row>
     <row r="172" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>1941</v>
+        <v>3371</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C172" s="3">
         <v>6</v>
       </c>
       <c r="D172" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E172" s="4">
         <v>2</v>
@@ -6069,137 +6100,161 @@
       <c r="F172" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G172" s="4"/>
-      <c r="H172" s="3"/>
+      <c r="G172" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" s="7">
+        <v>45392</v>
+      </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="5"/>
     </row>
     <row r="173" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A173" s="21">
-        <v>6483</v>
-      </c>
-      <c r="B173" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" s="22">
-        <v>6</v>
-      </c>
-      <c r="D173" s="22">
-        <v>19</v>
-      </c>
-      <c r="E173" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" s="10"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
-      <c r="K173" s="9"/>
+      <c r="A173" s="2">
+        <v>3379</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="3">
+        <v>6</v>
+      </c>
+      <c r="D173" s="3">
+        <v>11</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H173" s="7">
+        <v>45394</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
       <c r="L173" s="5"/>
     </row>
     <row r="174" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>6893</v>
+        <v>3770</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C174" s="3">
         <v>6</v>
       </c>
       <c r="D174" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E174" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="3"/>
+      <c r="G174" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" s="7">
+        <v>45390</v>
+      </c>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A175" s="18">
-        <v>2801</v>
-      </c>
-      <c r="B175" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" s="19">
-        <v>6</v>
-      </c>
-      <c r="D175" s="19">
-        <v>20</v>
-      </c>
-      <c r="E175" s="20">
-        <v>4</v>
-      </c>
-      <c r="F175" s="20" t="s">
+      <c r="A175" s="2">
+        <v>4373</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" s="3">
+        <v>6</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2</v>
+      </c>
+      <c r="E175" s="4">
+        <v>2</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G175" s="4"/>
-      <c r="H175" s="3"/>
+      <c r="G175" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H175" s="7">
+        <v>45392</v>
+      </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
-      <c r="L175" s="5"/>
+      <c r="L175" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="176" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>2639</v>
+        <v>4505</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C176" s="3">
         <v>6</v>
       </c>
       <c r="D176" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E176" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G176" s="4"/>
-      <c r="H176" s="3"/>
+      <c r="G176" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" s="7">
+        <v>45392</v>
+      </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="5"/>
     </row>
     <row r="177" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A177" s="18">
-        <v>2692</v>
-      </c>
-      <c r="B177" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C177" s="19">
-        <v>6</v>
-      </c>
-      <c r="D177" s="19">
-        <v>21</v>
-      </c>
-      <c r="E177" s="20">
-        <v>3</v>
-      </c>
-      <c r="F177" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G177" s="4"/>
+      <c r="A177" s="2">
+        <v>4510</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177" s="3">
+        <v>6</v>
+      </c>
+      <c r="D177" s="3">
+        <v>11</v>
+      </c>
+      <c r="E177" s="4">
+        <v>4</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -6208,103 +6263,115 @@
     </row>
     <row r="178" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>5506</v>
+        <v>4511</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C178" s="3">
         <v>6</v>
       </c>
       <c r="D178" s="3">
-        <v>21</v>
-      </c>
-      <c r="E178" s="4">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G178" s="4"/>
-      <c r="H178" s="3"/>
+      <c r="G178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H178" s="7">
+        <v>45392</v>
+      </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="5"/>
     </row>
     <row r="179" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A179" s="18">
-        <v>2688</v>
-      </c>
-      <c r="B179" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C179" s="19">
-        <v>6</v>
-      </c>
-      <c r="D179" s="19">
-        <v>22</v>
-      </c>
-      <c r="E179" s="20">
+      <c r="A179" s="8">
+        <v>4543</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="9">
+        <v>6</v>
+      </c>
+      <c r="D179" s="9">
+        <v>16</v>
+      </c>
+      <c r="E179" s="10">
         <v>2</v>
       </c>
-      <c r="F179" s="20" t="s">
+      <c r="F179" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G179" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G179" s="4"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
       <c r="L179" s="5"/>
     </row>
     <row r="180" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>3175</v>
+        <v>4582</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C180" s="3">
         <v>6</v>
       </c>
       <c r="D180" s="3">
-        <v>22</v>
-      </c>
-      <c r="E180" s="4">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G180" s="4"/>
-      <c r="H180" s="3"/>
+      <c r="G180" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" s="7">
+        <v>45392</v>
+      </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="5"/>
     </row>
     <row r="181" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A181" s="18">
-        <v>5567</v>
-      </c>
-      <c r="B181" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C181" s="19">
-        <v>6</v>
-      </c>
-      <c r="D181" s="19">
-        <v>22</v>
-      </c>
-      <c r="E181" s="20">
+      <c r="A181" s="2">
+        <v>4712</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="3">
+        <v>6</v>
+      </c>
+      <c r="D181" s="3">
         <v>2</v>
       </c>
-      <c r="F181" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G181" s="4"/>
-      <c r="H181" s="3"/>
+      <c r="E181" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H181" s="7"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -6312,51 +6379,61 @@
     </row>
     <row r="182" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>6463</v>
+        <v>4760</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C182" s="3">
         <v>6</v>
       </c>
       <c r="D182" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E182" s="4">
         <v>2</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" s="4"/>
-      <c r="H182" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" s="7">
+        <v>45392</v>
+      </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
-      <c r="L182" s="5"/>
+      <c r="L182" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="183" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A183" s="18">
-        <v>2608</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C183" s="19">
-        <v>6</v>
-      </c>
-      <c r="D183" s="19">
-        <v>25</v>
-      </c>
-      <c r="E183" s="20">
-        <v>4</v>
-      </c>
-      <c r="F183" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" s="4"/>
-      <c r="H183" s="3"/>
+      <c r="A183" s="2">
+        <v>4777</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" s="3">
+        <v>6</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" s="7">
+        <v>45392</v>
+      </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -6364,50 +6441,56 @@
     </row>
     <row r="184" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>5579</v>
+        <v>5031</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C184" s="3">
         <v>6</v>
       </c>
       <c r="D184" s="3">
-        <v>25</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="E184" s="4">
+        <v>4</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" s="4"/>
-      <c r="H184" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H184" s="7">
+        <v>45394</v>
+      </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="5"/>
     </row>
     <row r="185" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A185" s="18">
-        <v>6495</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C185" s="19">
-        <v>6</v>
-      </c>
-      <c r="D185" s="19">
-        <v>25</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G185" s="4"/>
+      <c r="A185" s="2">
+        <v>5060</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" s="3">
+        <v>6</v>
+      </c>
+      <c r="D185" s="3">
+        <v>27</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -6416,51 +6499,59 @@
     </row>
     <row r="186" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>5024</v>
+        <v>5229</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C186" s="3">
         <v>6</v>
       </c>
       <c r="D186" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E186" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G186" s="4"/>
-      <c r="H186" s="3"/>
+      <c r="G186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H186" s="7">
+        <v>45392</v>
+      </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="5"/>
     </row>
     <row r="187" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A187" s="18">
-        <v>2726</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C187" s="19">
-        <v>6</v>
-      </c>
-      <c r="D187" s="19">
-        <v>30</v>
-      </c>
-      <c r="E187" s="20">
-        <v>4</v>
-      </c>
-      <c r="F187" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G187" s="4"/>
-      <c r="H187" s="3"/>
+      <c r="A187" s="2">
+        <v>5267</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="3">
+        <v>6</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H187" s="7">
+        <v>45392</v>
+      </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -6468,24 +6559,26 @@
     </row>
     <row r="188" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>3136</v>
+        <v>5365</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C188" s="3">
         <v>6</v>
       </c>
       <c r="D188" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E188" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G188" s="4"/>
+      <c r="G188" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -6493,26 +6586,30 @@
       <c r="L188" s="5"/>
     </row>
     <row r="189" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A189" s="18">
-        <v>4237</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" s="19">
-        <v>6</v>
-      </c>
-      <c r="D189" s="19">
-        <v>32</v>
-      </c>
-      <c r="E189" s="20">
-        <v>1</v>
-      </c>
-      <c r="F189" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G189" s="4"/>
-      <c r="H189" s="3"/>
+      <c r="A189" s="2">
+        <v>5403</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" s="3">
+        <v>6</v>
+      </c>
+      <c r="D189" s="3">
+        <v>6</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" s="7">
+        <v>45392</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -6520,24 +6617,26 @@
     </row>
     <row r="190" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>5178</v>
+        <v>5509</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C190" s="3">
         <v>6</v>
       </c>
       <c r="D190" s="3">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E190" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G190" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -6545,26 +6644,30 @@
       <c r="L190" s="5"/>
     </row>
     <row r="191" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A191" s="18">
-        <v>5600</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="19">
-        <v>6</v>
-      </c>
-      <c r="D191" s="19">
-        <v>32</v>
-      </c>
-      <c r="E191" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F191" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" s="4"/>
-      <c r="H191" s="3"/>
+      <c r="A191" s="2">
+        <v>5619</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" s="3">
+        <v>6</v>
+      </c>
+      <c r="D191" s="3">
+        <v>5</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" s="7">
+        <v>45392</v>
+      </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -6572,50 +6675,56 @@
     </row>
     <row r="192" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>1467</v>
+        <v>5626</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C192" s="3">
         <v>6</v>
       </c>
       <c r="D192" s="3">
-        <v>36</v>
-      </c>
-      <c r="E192" s="4">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G192" s="4"/>
-      <c r="H192" s="3"/>
+      <c r="G192" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H192" s="7">
+        <v>45392</v>
+      </c>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="5"/>
     </row>
     <row r="193" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A193" s="18">
-        <v>2743</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C193" s="19">
-        <v>6</v>
-      </c>
-      <c r="D193" s="19">
-        <v>36</v>
-      </c>
-      <c r="E193" s="20">
-        <v>2</v>
-      </c>
-      <c r="F193" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G193" s="4"/>
+      <c r="A193" s="2">
+        <v>5641</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" s="3">
+        <v>6</v>
+      </c>
+      <c r="D193" s="3">
+        <v>4</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -6624,24 +6733,26 @@
     </row>
     <row r="194" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>5504</v>
+        <v>5714</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C194" s="3">
         <v>6</v>
       </c>
       <c r="D194" s="3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E194" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G194" s="4"/>
+      <c r="G194" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -6649,65 +6760,257 @@
       <c r="L194" s="5"/>
     </row>
     <row r="195" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A195" s="18">
-        <v>6448</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C195" s="19">
-        <v>6</v>
-      </c>
-      <c r="D195" s="19">
-        <v>36</v>
-      </c>
-      <c r="E195" s="20">
+      <c r="A195" s="2">
+        <v>5722</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" s="3">
+        <v>6</v>
+      </c>
+      <c r="D195" s="3">
+        <v>6</v>
+      </c>
+      <c r="E195" s="4">
         <v>4</v>
       </c>
-      <c r="F195" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G195" s="4"/>
-      <c r="H195" s="3"/>
+      <c r="F195" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H195" s="7">
+        <v>45392</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
-      <c r="L195" s="5"/>
+      <c r="L195" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="196" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A196" s="8">
-        <v>6462</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C196" s="9">
-        <v>6</v>
-      </c>
-      <c r="D196" s="9">
+      <c r="A196" s="2">
+        <v>5742</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" s="3">
+        <v>6</v>
+      </c>
+      <c r="D196" s="3">
+        <v>3</v>
+      </c>
+      <c r="E196" s="4">
+        <v>2</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H196" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>5783</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" s="3">
+        <v>6</v>
+      </c>
+      <c r="D197" s="3">
+        <v>20</v>
+      </c>
+      <c r="E197" s="4">
+        <v>2</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>5852</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="3">
+        <v>6</v>
+      </c>
+      <c r="D198" s="3">
+        <v>9</v>
+      </c>
+      <c r="E198" s="4">
+        <v>3</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="5"/>
+    </row>
+    <row r="199" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>5865</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="3">
+        <v>6</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2</v>
+      </c>
+      <c r="E199" s="4">
+        <v>2</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H199" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>6879</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" s="3">
+        <v>6</v>
+      </c>
+      <c r="D200" s="3">
         <v>36</v>
       </c>
-      <c r="E196" s="10">
+      <c r="E200" s="4">
+        <v>2</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>6884</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="3">
+        <v>6</v>
+      </c>
+      <c r="D201" s="3">
+        <v>19</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" s="9">
+        <v>6</v>
+      </c>
+      <c r="D202" s="9">
+        <v>5</v>
+      </c>
+      <c r="E202" s="10">
         <v>4</v>
       </c>
-      <c r="F196" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G196" s="10"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="9"/>
-      <c r="J196" s="9"/>
-      <c r="K196" s="9"/>
-      <c r="L196" s="5"/>
+      <c r="F202" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H202" s="23">
+        <v>45394</v>
+      </c>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
+      <c r="L202" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L114">
-    <sortCondition ref="C2:C114"/>
-    <sortCondition ref="D2:D114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L120">
+    <sortCondition ref="C2:C120"/>
+    <sortCondition ref="D2:D120"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="45" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Aptos Narrow (Body),Bold"&amp;18 2024 TRILLIUM TRAIL PHENOLOGY
 DATASHEET (for carbon budgets)

--- a/data/TT24_phenology_dates.xlsx
+++ b/data/TT24_phenology_dates.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DE3A9-8661-3941-BAA7-A0AE78AB2EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A5B95-B027-904C-9E5B-67AB9AA583B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="39740" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
+    <workbookView xWindow="2120" yWindow="8960" windowWidth="42020" windowHeight="28300" xr2:uid="{4D8A3C15-14A0-044E-A149-F0D334F6D09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$200</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>plot</t>
-  </si>
-  <si>
-    <t>polka_dot_6</t>
   </si>
   <si>
     <t>N</t>
@@ -117,22 +114,10 @@
     <t>might also be 3925</t>
   </si>
   <si>
-    <t>alive_23</t>
-  </si>
-  <si>
-    <t>abg_24</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>spp</t>
   </si>
   <si>
     <t>Tri</t>
-  </si>
-  <si>
-    <t>untagged by between quad 2 and 4</t>
   </si>
   <si>
     <t>4/10: some signs of chlorosis</t>
@@ -150,9 +135,6 @@
     <t>tag, no flag</t>
   </si>
   <si>
-    <t>closest to fence</t>
-  </si>
-  <si>
     <t>1_4</t>
   </si>
   <si>
@@ -166,6 +148,54 @@
   </si>
   <si>
     <t>perhaps mislabeled as 7052</t>
+  </si>
+  <si>
+    <t>striped1</t>
+  </si>
+  <si>
+    <t>striped2</t>
+  </si>
+  <si>
+    <t>left-most flag (looking down @ road)</t>
+  </si>
+  <si>
+    <t>right-most flag (looking down @ road)</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>DNU</t>
+  </si>
+  <si>
+    <t>also noted as 3120</t>
+  </si>
+  <si>
+    <t>not in 2023 focal dataset</t>
+  </si>
+  <si>
+    <t>untagged between quad 2 and 4</t>
+  </si>
+  <si>
+    <t>2023 focal dataset doesn't list status</t>
+  </si>
+  <si>
+    <t>not listed in 2023 focal dataset</t>
+  </si>
+  <si>
+    <t>tag, no flag; not listed in 2023 dataset</t>
+  </si>
+  <si>
+    <t>need to verify 2024 status</t>
+  </si>
+  <si>
+    <t>DNU (?)</t>
+  </si>
+  <si>
+    <t>status_23</t>
+  </si>
+  <si>
+    <t>status_24</t>
   </si>
 </sst>
 </file>
@@ -201,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +242,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -394,9 +436,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,12 +835,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L202" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:L202" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L202">
-    <sortCondition ref="B2:B202"/>
-    <sortCondition ref="C2:C202"/>
-    <sortCondition ref="A2:A202"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}" name="Table1" displayName="Table1" ref="A1:L200" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:L200" xr:uid="{D9865AAD-8F86-F54E-9FA0-1EE4DD1A7D38}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L200">
+    <sortCondition ref="B2:B200"/>
+    <sortCondition ref="C2:C200"/>
+    <sortCondition ref="D2:D200"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4DD93A34-4A01-FE4A-90BA-5948ABB52889}" name="id" dataDxfId="11"/>
@@ -795,8 +848,8 @@
     <tableColumn id="2" xr3:uid="{25C0085E-768D-9347-86A9-5900797D647F}" name="plot" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{4C884772-B309-334D-994A-5F1917A74325}" name="subplot" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{C87C6C52-FF2D-D840-ABC0-4D421484761E}" name="quadrat" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CB7C6F01-8734-E240-9C89-F48CD097947D}" name="alive_23" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F9DCBF60-B664-EE41-A9D8-ADD14E17AD5B}" name="abg_24" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{CB7C6F01-8734-E240-9C89-F48CD097947D}" name="status_23" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F9DCBF60-B664-EE41-A9D8-ADD14E17AD5B}" name="status_24" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{4254AC75-612F-7B46-A112-8E9C0ED38C1E}" name="date_unwhorled" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{DF0B242E-8913-4E4E-9AD5-3E3884A31C0D}" name="date_flowering" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{8A79CAFF-4477-AD42-BB22-C66A94CCDFEC}" name="date_senesce" dataDxfId="2"/>
@@ -1127,21 +1180,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="109" zoomScaleNormal="280" zoomScalePageLayoutView="109" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J17"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
@@ -1154,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -1178,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -1188,26 +1240,26 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="A2" s="27">
+        <v>4250</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
+      <c r="F2" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1216,26 +1268,26 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
-        <v>129</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19">
-        <v>3</v>
-      </c>
-      <c r="D3" s="19">
-        <v>18</v>
-      </c>
-      <c r="E3" s="20">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>9412</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1244,26 +1296,26 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>141</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="27">
+        <v>2310</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28">
+        <v>4</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1272,26 +1324,26 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
-        <v>179</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="19">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19">
-        <v>30</v>
-      </c>
-      <c r="E5" s="20">
-        <v>2</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>27</v>
+      <c r="A5" s="2">
+        <v>5105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1300,26 +1352,26 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>511</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="A6" s="27">
+        <v>3643</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3</v>
+      </c>
+      <c r="D6" s="28">
+        <v>12</v>
+      </c>
+      <c r="E6" s="29">
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1328,26 +1380,26 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>543</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="19">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>30</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>27</v>
+      <c r="A7" s="2">
+        <v>141</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1356,26 +1408,26 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="27">
+        <v>5184</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3</v>
+      </c>
+      <c r="D8" s="28">
+        <v>13</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1385,25 +1437,25 @@
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1157</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1412,26 +1464,26 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>1663</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="27">
+        <v>129</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="28">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28">
+        <v>18</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="19">
-        <v>3</v>
-      </c>
-      <c r="D10" s="19">
-        <v>30</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1441,25 +1493,25 @@
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>2131</v>
+        <v>2268</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1468,26 +1520,26 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>2268</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="A12" s="27">
+        <v>6876</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="28">
+        <v>3</v>
+      </c>
+      <c r="D12" s="28">
         <v>18</v>
       </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
+      <c r="E12" s="29">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1496,54 +1548,54 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>2310</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="2">
+        <v>6869</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="19">
-        <v>3</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4</v>
-      </c>
-      <c r="E13" s="20">
-        <v>2</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="27">
         <v>2337</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19">
-        <v>3</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="B14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="28">
+        <v>3</v>
+      </c>
+      <c r="D14" s="28">
         <v>22</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>27</v>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1552,26 +1604,26 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>3643</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="19">
-        <v>3</v>
-      </c>
-      <c r="D15" s="19">
-        <v>12</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="A15" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>27</v>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1580,26 +1632,26 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>3665</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="19">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19">
-        <v>30</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="A16" s="27">
+        <v>5030</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="28">
+        <v>3</v>
+      </c>
+      <c r="D16" s="28">
+        <v>24</v>
+      </c>
+      <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
+      <c r="F16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1608,26 +1660,26 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>4250</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="19">
-        <v>3</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="A17" s="2">
+        <v>5069</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
-        <v>4</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>27</v>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1636,26 +1688,26 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>5030</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="19">
-        <v>3</v>
-      </c>
-      <c r="D18" s="19">
-        <v>24</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>27</v>
+      <c r="A18" s="27">
+        <v>179</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <v>3</v>
+      </c>
+      <c r="D18" s="28">
+        <v>30</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1665,25 +1717,25 @@
     </row>
     <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>5069</v>
+        <v>511</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1692,20 +1744,26 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>5104</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="27">
+        <v>543</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="28">
+        <v>3</v>
+      </c>
+      <c r="D20" s="28">
+        <v>30</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1715,25 +1773,25 @@
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>5105</v>
+        <v>1157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1742,23 +1800,23 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>5184</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="19">
-        <v>3</v>
-      </c>
-      <c r="D22" s="19">
-        <v>13</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="A22" s="27">
+        <v>1663</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="28">
+        <v>3</v>
+      </c>
+      <c r="D22" s="28">
+        <v>30</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>27</v>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>40</v>
@@ -1771,25 +1829,25 @@
     </row>
     <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>6869</v>
+        <v>2131</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1798,48 +1856,50 @@
       <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>6870</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="27">
+        <v>3665</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="28">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28">
+        <v>30</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="26"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>6876</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="19">
-        <v>3</v>
-      </c>
-      <c r="D25" s="19">
-        <v>18</v>
-      </c>
-      <c r="E25" s="20">
-        <v>2</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="A25" s="2">
+        <v>5104</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1848,20 +1908,26 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>6872</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="19">
-        <v>3</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="A26" s="2">
+        <v>6900</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1871,19 +1937,25 @@
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
-        <v>6892</v>
+        <v>631</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C27" s="19">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="19">
+        <v>3</v>
+      </c>
+      <c r="E27" s="20">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1893,13 +1965,13 @@
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>9412</v>
+        <v>3960</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
@@ -1908,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1921,10 +1993,10 @@
     </row>
     <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
-        <v>631</v>
+        <v>3993</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29" s="19">
         <v>5</v>
@@ -1933,13 +2005,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="20">
-        <v>3</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1948,26 +2020,26 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>1432</v>
+      <c r="A30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
       </c>
       <c r="D30" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1976,26 +2048,26 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>1476</v>
+      <c r="A31" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" s="19">
         <v>5</v>
       </c>
       <c r="D31" s="19">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E31" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2004,26 +2076,26 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>1499</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="A32" s="2">
+        <v>1432</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3">
         <v>5</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="3">
         <v>17</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>27</v>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2032,24 +2104,26 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>2616</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="A33" s="18">
+        <v>1499</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="19">
         <v>5</v>
       </c>
-      <c r="D33" s="3">
-        <v>36</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>27</v>
+      <c r="D33" s="19">
+        <v>17</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2058,26 +2132,26 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>2637</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="A34" s="2">
+        <v>2803</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="19">
-        <v>36</v>
-      </c>
-      <c r="E34" s="20">
-        <v>3</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>7</v>
+      <c r="D34" s="3">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2086,26 +2160,26 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>2662</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="A35" s="18">
+        <v>1476</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="19">
         <v>5</v>
       </c>
-      <c r="D35" s="3">
-        <v>36</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3</v>
+      <c r="D35" s="19">
+        <v>23</v>
+      </c>
+      <c r="E35" s="20">
+        <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2115,25 +2189,25 @@
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>2803</v>
+        <v>4781</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2142,26 +2216,26 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>3960</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="A37" s="18">
+        <v>5657</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="19">
         <v>5</v>
       </c>
-      <c r="D37" s="3">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="19">
+        <v>23</v>
+      </c>
+      <c r="E37" s="20">
         <v>1</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>27</v>
+      <c r="F37" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2170,26 +2244,24 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
-        <v>3993</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="19">
+      <c r="A38" s="2">
+        <v>2616</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3">
         <v>5</v>
       </c>
-      <c r="D38" s="19">
-        <v>3</v>
-      </c>
-      <c r="E38" s="20">
-        <v>1</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>27</v>
+      <c r="D38" s="3">
+        <v>36</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2198,26 +2270,26 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>4781</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="A39" s="18">
+        <v>2637</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="19">
         <v>5</v>
       </c>
-      <c r="D39" s="3">
-        <v>23</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>27</v>
+      <c r="D39" s="19">
+        <v>36</v>
+      </c>
+      <c r="E39" s="20">
+        <v>3</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2226,72 +2298,72 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
-        <v>5052</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="A40" s="2">
+        <v>2662</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3">
         <v>5</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="3">
         <v>36</v>
       </c>
-      <c r="E40" s="20">
-        <v>3</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>7</v>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
-        <v>5657</v>
+        <v>5052</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C41" s="19">
         <v>5</v>
       </c>
       <c r="D41" s="19">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E41" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>6900</v>
+        <v>5122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="3">
         <v>2</v>
@@ -2300,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2312,26 +2384,26 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="18">
+        <v>1144</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="19">
+        <v>6</v>
+      </c>
+      <c r="D43" s="19">
+        <v>8</v>
+      </c>
+      <c r="E43" s="20">
+        <v>4</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="3">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G43" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2340,26 +2412,26 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="19">
-        <v>5</v>
-      </c>
-      <c r="D44" s="19">
-        <v>3</v>
-      </c>
-      <c r="E44" s="20">
-        <v>3</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>27</v>
+      <c r="A44" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2369,10 +2441,10 @@
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
-        <v>1144</v>
+        <v>1406</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C45" s="19">
         <v>6</v>
@@ -2380,14 +2452,14 @@
       <c r="D45" s="19">
         <v>8</v>
       </c>
-      <c r="E45" s="20">
-        <v>4</v>
+      <c r="E45" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2397,10 +2469,10 @@
     </row>
     <row r="46" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1146</v>
+        <v>1495</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -2409,41 +2481,43 @@
         <v>8</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
-        <v>1406</v>
-      </c>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="2">
+        <v>4249</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="19">
-        <v>6</v>
-      </c>
-      <c r="D47" s="19">
-        <v>8</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>7</v>
-      </c>
       <c r="G47" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2452,26 +2526,26 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>1467</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6</v>
-      </c>
-      <c r="D48" s="3">
-        <v>36</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="A48" s="27">
+        <v>4722</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="28">
+        <v>6</v>
+      </c>
+      <c r="D48" s="28">
+        <v>8</v>
+      </c>
+      <c r="E48" s="29">
         <v>2</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>27</v>
+      <c r="F48" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2481,10 +2555,10 @@
     </row>
     <row r="49" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1495</v>
+        <v>5009</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C49" s="3">
         <v>6</v>
@@ -2493,13 +2567,13 @@
         <v>8</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2508,26 +2582,26 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>1941</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="27">
+        <v>5596</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="28">
+        <v>6</v>
+      </c>
+      <c r="D50" s="28">
+        <v>8</v>
+      </c>
+      <c r="E50" s="29">
+        <v>4</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C50" s="3">
-        <v>6</v>
-      </c>
-      <c r="D50" s="3">
-        <v>19</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2536,26 +2610,26 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
-        <v>2608</v>
-      </c>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="2">
+        <v>3468</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="19">
-        <v>6</v>
-      </c>
-      <c r="D51" s="19">
-        <v>25</v>
-      </c>
-      <c r="E51" s="20">
-        <v>4</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2564,26 +2638,26 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>2639</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6</v>
-      </c>
-      <c r="D52" s="3">
-        <v>21</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>27</v>
+      <c r="A52" s="27">
+        <v>5607</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="28">
+        <v>6</v>
+      </c>
+      <c r="D52" s="28">
+        <v>9</v>
+      </c>
+      <c r="E52" s="29">
+        <v>3</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2592,23 +2666,23 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>2688</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="19">
-        <v>6</v>
-      </c>
-      <c r="D53" s="19">
-        <v>22</v>
-      </c>
-      <c r="E53" s="20">
-        <v>2</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>7</v>
+      <c r="A53" s="2">
+        <v>5664</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>40</v>
@@ -2620,26 +2694,26 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
-        <v>2692</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="19">
-        <v>6</v>
-      </c>
-      <c r="D54" s="19">
-        <v>21</v>
-      </c>
-      <c r="E54" s="20">
-        <v>3</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>27</v>
+      <c r="A54" s="27">
+        <v>3438</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="28">
+        <v>6</v>
+      </c>
+      <c r="D54" s="28">
+        <v>11</v>
+      </c>
+      <c r="E54" s="29">
+        <v>3</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -2648,54 +2722,54 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
-        <v>2726</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="19">
-        <v>6</v>
-      </c>
-      <c r="D55" s="19">
-        <v>30</v>
-      </c>
-      <c r="E55" s="20">
-        <v>4</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>27</v>
+      <c r="A55" s="2">
+        <v>4216</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="5"/>
+      <c r="L55" s="26"/>
     </row>
     <row r="56" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
-        <v>2743</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="19">
-        <v>6</v>
-      </c>
-      <c r="D56" s="19">
-        <v>36</v>
-      </c>
-      <c r="E56" s="20">
-        <v>2</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>27</v>
+      <c r="A56" s="27">
+        <v>5025</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="28">
+        <v>6</v>
+      </c>
+      <c r="D56" s="28">
+        <v>11</v>
+      </c>
+      <c r="E56" s="29">
+        <v>3</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2704,26 +2778,26 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
-        <v>2799</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="19">
-        <v>6</v>
-      </c>
-      <c r="D57" s="19">
-        <v>14</v>
-      </c>
-      <c r="E57" s="20">
-        <v>2</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>27</v>
+      <c r="A57" s="2">
+        <v>5569</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2732,26 +2806,26 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
-        <v>2801</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="19">
-        <v>6</v>
-      </c>
-      <c r="D58" s="19">
-        <v>20</v>
-      </c>
-      <c r="E58" s="20">
-        <v>4</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>7</v>
+      <c r="A58" s="27">
+        <v>2799</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="28">
+        <v>6</v>
+      </c>
+      <c r="D58" s="28">
+        <v>14</v>
+      </c>
+      <c r="E58" s="29">
+        <v>2</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -2760,23 +2834,23 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
-        <v>3120</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="19">
-        <v>6</v>
-      </c>
-      <c r="D59" s="19">
-        <v>8</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>7</v>
+      <c r="A59" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3">
+        <v>19</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>40</v>
@@ -2788,26 +2862,26 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>3136</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="27">
+        <v>6483</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="28">
+        <v>6</v>
+      </c>
+      <c r="D60" s="28">
+        <v>19</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6</v>
-      </c>
-      <c r="D60" s="3">
-        <v>32</v>
-      </c>
-      <c r="E60" s="4">
-        <v>2</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -2817,53 +2891,53 @@
     </row>
     <row r="61" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>3175</v>
+        <v>6893</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C61" s="3">
         <v>6</v>
       </c>
       <c r="D61" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E61" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="5"/>
+      <c r="L61" s="25"/>
     </row>
     <row r="62" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
-        <v>3438</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="19">
-        <v>6</v>
-      </c>
-      <c r="D62" s="19">
-        <v>11</v>
-      </c>
-      <c r="E62" s="20">
-        <v>3</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>27</v>
+      <c r="A62" s="27">
+        <v>2801</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="28">
+        <v>6</v>
+      </c>
+      <c r="D62" s="28">
+        <v>20</v>
+      </c>
+      <c r="E62" s="29">
+        <v>4</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -2873,22 +2947,22 @@
     </row>
     <row r="63" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>3468</v>
+        <v>2639</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C63" s="3">
         <v>6</v>
       </c>
       <c r="D63" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E63" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>40</v>
@@ -2900,54 +2974,54 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>4216</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6</v>
-      </c>
-      <c r="D64" s="3">
-        <v>11</v>
-      </c>
-      <c r="E64" s="4">
-        <v>3</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>27</v>
+      <c r="A64" s="27">
+        <v>2692</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="28">
+        <v>6</v>
+      </c>
+      <c r="D64" s="28">
+        <v>21</v>
+      </c>
+      <c r="E64" s="29">
+        <v>3</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="25"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
-        <v>4237</v>
-      </c>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="2">
+        <v>5506</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3">
+        <v>21</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C65" s="19">
-        <v>6</v>
-      </c>
-      <c r="D65" s="19">
-        <v>32</v>
-      </c>
-      <c r="E65" s="20">
-        <v>1</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -2956,26 +3030,26 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>4249</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="27">
+        <v>2688</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="28">
+        <v>6</v>
+      </c>
+      <c r="D66" s="28">
+        <v>22</v>
+      </c>
+      <c r="E66" s="29">
+        <v>2</v>
+      </c>
+      <c r="F66" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="3">
-        <v>6</v>
-      </c>
-      <c r="D66" s="3">
-        <v>8</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -2984,26 +3058,26 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="18">
-        <v>4722</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="19">
-        <v>6</v>
-      </c>
-      <c r="D67" s="19">
-        <v>8</v>
-      </c>
-      <c r="E67" s="20">
+      <c r="A67" s="2">
+        <v>3175</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3">
+        <v>22</v>
+      </c>
+      <c r="E67" s="4">
         <v>2</v>
       </c>
-      <c r="F67" s="20" t="s">
-        <v>27</v>
+      <c r="F67" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -3012,24 +3086,26 @@
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>5009</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6</v>
-      </c>
-      <c r="D68" s="3">
-        <v>8</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>27</v>
+      <c r="A68" s="27">
+        <v>5567</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="28">
+        <v>6</v>
+      </c>
+      <c r="D68" s="28">
+        <v>22</v>
+      </c>
+      <c r="E68" s="29">
+        <v>2</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -3039,53 +3115,53 @@
     </row>
     <row r="69" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>5024</v>
+        <v>6463</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3">
         <v>6</v>
       </c>
       <c r="D69" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="5"/>
+      <c r="L69" s="26"/>
     </row>
     <row r="70" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18">
-        <v>5025</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="19">
-        <v>6</v>
-      </c>
-      <c r="D70" s="19">
-        <v>11</v>
-      </c>
-      <c r="E70" s="20">
-        <v>3</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>27</v>
+      <c r="A70" s="27">
+        <v>2608</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="28">
+        <v>6</v>
+      </c>
+      <c r="D70" s="28">
+        <v>25</v>
+      </c>
+      <c r="E70" s="29">
+        <v>4</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -3095,25 +3171,25 @@
     </row>
     <row r="71" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>5122</v>
+        <v>5579</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C71" s="3">
         <v>6</v>
       </c>
       <c r="D71" s="3">
-        <v>2</v>
-      </c>
-      <c r="E71" s="4">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -3122,26 +3198,26 @@
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>5178</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="3">
-        <v>6</v>
-      </c>
-      <c r="D72" s="3">
-        <v>32</v>
-      </c>
-      <c r="E72" s="4">
-        <v>3</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>27</v>
+      <c r="A72" s="27">
+        <v>6495</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="28">
+        <v>6</v>
+      </c>
+      <c r="D72" s="28">
+        <v>25</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -3151,25 +3227,25 @@
     </row>
     <row r="73" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>5504</v>
+        <v>5024</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C73" s="3">
         <v>6</v>
       </c>
       <c r="D73" s="3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -3178,23 +3254,23 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>5506</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="3">
-        <v>6</v>
-      </c>
-      <c r="D74" s="3">
-        <v>21</v>
-      </c>
-      <c r="E74" s="4">
-        <v>3</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>27</v>
+      <c r="A74" s="27">
+        <v>2726</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="28">
+        <v>6</v>
+      </c>
+      <c r="D74" s="28">
+        <v>30</v>
+      </c>
+      <c r="E74" s="29">
+        <v>4</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>40</v>
@@ -3206,26 +3282,26 @@
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
-        <v>5567</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="19">
-        <v>6</v>
-      </c>
-      <c r="D75" s="19">
-        <v>22</v>
-      </c>
-      <c r="E75" s="20">
+      <c r="A75" s="2">
+        <v>3136</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="3">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3">
+        <v>32</v>
+      </c>
+      <c r="E75" s="4">
         <v>2</v>
       </c>
-      <c r="F75" s="20" t="s">
-        <v>27</v>
+      <c r="F75" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -3234,26 +3310,26 @@
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>5569</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="3">
-        <v>6</v>
-      </c>
-      <c r="D76" s="3">
-        <v>11</v>
-      </c>
-      <c r="E76" s="4">
-        <v>3</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>27</v>
+      <c r="A76" s="27">
+        <v>4237</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="28">
+        <v>6</v>
+      </c>
+      <c r="D76" s="28">
+        <v>32</v>
+      </c>
+      <c r="E76" s="29">
+        <v>1</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -3263,25 +3339,25 @@
     </row>
     <row r="77" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>5579</v>
+        <v>5178</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
       </c>
       <c r="D77" s="3">
-        <v>25</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -3290,20 +3366,26 @@
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>5590</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="3">
-        <v>6</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="A78" s="27">
+        <v>5600</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="28">
+        <v>6</v>
+      </c>
+      <c r="D78" s="28">
+        <v>32</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="G78" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -3312,23 +3394,23 @@
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18">
-        <v>5596</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="19">
-        <v>6</v>
-      </c>
-      <c r="D79" s="19">
-        <v>8</v>
-      </c>
-      <c r="E79" s="20">
-        <v>4</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>27</v>
+      <c r="A79" s="2">
+        <v>1467</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="3">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3">
+        <v>36</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>40</v>
@@ -3340,26 +3422,26 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18">
-        <v>5600</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="19">
-        <v>6</v>
-      </c>
-      <c r="D80" s="19">
-        <v>32</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>27</v>
+      <c r="A80" s="27">
+        <v>2743</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="28">
+        <v>6</v>
+      </c>
+      <c r="D80" s="28">
+        <v>36</v>
+      </c>
+      <c r="E80" s="29">
+        <v>2</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -3368,26 +3450,26 @@
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18">
-        <v>5607</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="19">
-        <v>6</v>
-      </c>
-      <c r="D81" s="19">
-        <v>9</v>
-      </c>
-      <c r="E81" s="20">
-        <v>3</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>27</v>
+      <c r="A81" s="2">
+        <v>5504</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="3">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3">
+        <v>36</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -3396,26 +3478,26 @@
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>5664</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="3">
-        <v>6</v>
-      </c>
-      <c r="D82" s="3">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>27</v>
+      <c r="A82" s="27">
+        <v>6448</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="28">
+        <v>6</v>
+      </c>
+      <c r="D82" s="28">
+        <v>36</v>
+      </c>
+      <c r="E82" s="29">
+        <v>4</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -3425,218 +3507,230 @@
     </row>
     <row r="83" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>6438</v>
+        <v>6462</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="D83" s="3">
+        <v>36</v>
+      </c>
+      <c r="E83" s="4">
+        <v>4</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G83" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="5"/>
+      <c r="L83" s="25"/>
     </row>
     <row r="84" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
-        <v>6448</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="19">
-        <v>6</v>
-      </c>
-      <c r="D84" s="19">
-        <v>36</v>
-      </c>
-      <c r="E84" s="20">
-        <v>4</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>27</v>
+      <c r="A84" s="2">
+        <v>5590</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="3">
+        <v>6</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="5"/>
+      <c r="L84" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="85" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>6462</v>
+        <v>6438</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C85" s="3">
         <v>6</v>
       </c>
-      <c r="D85" s="3">
-        <v>36</v>
-      </c>
-      <c r="E85" s="4">
-        <v>4</v>
-      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="5"/>
+      <c r="L85" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>6463</v>
+        <v>5488</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C86" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H86" s="7">
+        <v>45392</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="25"/>
+      <c r="L86" s="26"/>
     </row>
     <row r="87" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18">
-        <v>6483</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="19">
-        <v>6</v>
-      </c>
-      <c r="D87" s="19">
-        <v>19</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>27</v>
+      <c r="A87" s="2">
+        <v>6578</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="7">
+        <v>45392</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
-        <v>6495</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="19">
-        <v>6</v>
-      </c>
-      <c r="D88" s="19">
-        <v>25</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="20" t="s">
+      <c r="A88" s="2">
+        <v>5436</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H88" s="7">
+        <v>45394</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="5"/>
+      <c r="L88" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>6893</v>
+        <v>5495</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C89" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E89" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H89" s="7">
+        <v>45392</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="5"/>
+      <c r="L89" s="26"/>
     </row>
     <row r="90" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>392</v>
+        <v>3563</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3">
         <v>3</v>
       </c>
       <c r="D90" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E90" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H90" s="7">
-        <v>45394</v>
+        <v>45390</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3645,25 +3739,25 @@
     </row>
     <row r="91" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>425</v>
+        <v>1926</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C91" s="3">
         <v>3</v>
       </c>
       <c r="D91" s="3">
-        <v>6</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H91" s="7">
         <v>45392</v>
@@ -3675,25 +3769,25 @@
     </row>
     <row r="92" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C92" s="3">
         <v>3</v>
       </c>
       <c r="D92" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H92" s="7">
         <v>45392</v>
@@ -3701,34 +3795,32 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>552</v>
+        <v>1686</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C93" s="3">
         <v>3</v>
       </c>
       <c r="D93" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E93" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H93" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -3737,25 +3829,25 @@
     </row>
     <row r="94" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>583</v>
+        <v>902</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
       </c>
       <c r="D94" s="3">
-        <v>23</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="E94" s="4">
+        <v>4</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H94" s="7">
         <v>45388</v>
@@ -3767,40 +3859,42 @@
     </row>
     <row r="95" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>774</v>
+        <v>1612</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C95" s="3">
         <v>3</v>
       </c>
       <c r="D95" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E95" s="4">
         <v>4</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H95" s="7">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="5"/>
+      <c r="L95" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>902</v>
+        <v>4714</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
@@ -3812,13 +3906,13 @@
         <v>4</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H96" s="7">
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -3827,29 +3921,27 @@
     </row>
     <row r="97" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>916</v>
+        <v>955</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C97" s="3">
         <v>3</v>
       </c>
       <c r="D97" s="3">
-        <v>16</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H97" s="7">
-        <v>45392</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -3857,25 +3949,25 @@
     </row>
     <row r="98" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>955</v>
+        <v>2897</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C98" s="3">
         <v>3</v>
       </c>
       <c r="D98" s="3">
-        <v>8</v>
-      </c>
-      <c r="E98" s="4">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -3885,25 +3977,25 @@
     </row>
     <row r="99" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>1612</v>
+        <v>5440</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
       </c>
       <c r="D99" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E99" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H99" s="7">
         <v>45392</v>
@@ -3911,34 +4003,32 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>1666</v>
+        <v>552</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C100" s="3">
         <v>3</v>
       </c>
       <c r="D100" s="3">
-        <v>27</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H100" s="7">
-        <v>45394</v>
+        <v>45390</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -3947,25 +4037,25 @@
     </row>
     <row r="101" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>1686</v>
+        <v>916</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C101" s="3">
         <v>3</v>
       </c>
       <c r="D101" s="3">
-        <v>6</v>
-      </c>
-      <c r="E101" s="4">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H101" s="7">
         <v>45392</v>
@@ -3976,30 +4066,28 @@
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>1926</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" s="3">
-        <v>3</v>
-      </c>
-      <c r="D102" s="3">
-        <v>5</v>
-      </c>
-      <c r="E102" s="4">
+      <c r="A102" s="27">
+        <v>6892</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="28">
+        <v>3</v>
+      </c>
+      <c r="D102" s="28">
+        <v>17</v>
+      </c>
+      <c r="E102" s="29">
         <v>2</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" s="7">
-        <v>45392</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -4007,28 +4095,28 @@
     </row>
     <row r="103" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>2329</v>
+        <v>2416</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C103" s="3">
         <v>3</v>
       </c>
       <c r="D103" s="3">
-        <v>20</v>
-      </c>
-      <c r="E103" s="4">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H103" s="7">
-        <v>45392</v>
+        <v>45388</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -4037,10 +4125,10 @@
     </row>
     <row r="104" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>2416</v>
+        <v>6892</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C104" s="3">
         <v>3</v>
@@ -4048,17 +4136,17 @@
       <c r="D104" s="3">
         <v>17</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>16</v>
+      <c r="E104" s="4">
+        <v>2</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H104" s="7">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -4067,27 +4155,29 @@
     </row>
     <row r="105" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>2897</v>
+        <v>774</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C105" s="3">
         <v>3</v>
       </c>
       <c r="D105" s="3">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E105" s="4">
+        <v>4</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H105" s="7">
+        <v>45388</v>
+      </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -4095,28 +4185,28 @@
     </row>
     <row r="106" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>3563</v>
+        <v>2329</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C106" s="3">
         <v>3</v>
       </c>
       <c r="D106" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E106" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H106" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -4125,28 +4215,28 @@
     </row>
     <row r="107" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>4714</v>
+        <v>6885</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C107" s="3">
         <v>3</v>
       </c>
       <c r="D107" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E107" s="4">
         <v>4</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H107" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -4155,25 +4245,25 @@
     </row>
     <row r="108" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>4934</v>
+        <v>5479</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
       </c>
       <c r="D108" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E108" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H108" s="7">
         <v>45392</v>
@@ -4185,28 +4275,28 @@
     </row>
     <row r="109" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>4942</v>
+        <v>392</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C109" s="3">
         <v>3</v>
       </c>
       <c r="D109" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E109" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H109" s="7">
-        <v>45390</v>
+        <v>45394</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -4215,57 +4305,57 @@
     </row>
     <row r="110" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>5436</v>
+        <v>452</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C110" s="3">
         <v>3</v>
       </c>
       <c r="D110" s="3">
-        <v>3</v>
-      </c>
-      <c r="E110" s="4">
-        <v>1</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H110" s="7">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="24" t="s">
-        <v>35</v>
+      <c r="L110" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>5440</v>
+        <v>6558</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C111" s="3">
         <v>3</v>
       </c>
       <c r="D111" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E111" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H111" s="7">
         <v>45392</v>
@@ -4273,32 +4363,32 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="5"/>
+      <c r="L111" s="25"/>
     </row>
     <row r="112" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>5479</v>
+        <v>583</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C112" s="3">
         <v>3</v>
       </c>
       <c r="D112" s="3">
-        <v>21</v>
-      </c>
-      <c r="E112" s="4">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H112" s="7">
-        <v>45392</v>
+        <v>45388</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -4307,25 +4397,25 @@
     </row>
     <row r="113" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>5488</v>
+        <v>4934</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C113" s="3">
         <v>3</v>
       </c>
       <c r="D113" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E113" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H113" s="7">
         <v>45392</v>
@@ -4333,62 +4423,62 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="25"/>
+      <c r="L113" s="5"/>
     </row>
     <row r="114" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>5495</v>
+        <v>1666</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
       </c>
       <c r="D114" s="3">
-        <v>3</v>
-      </c>
-      <c r="E114" s="4">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H114" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="25"/>
+      <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>6558</v>
+        <v>4942</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C115" s="3">
         <v>3</v>
       </c>
       <c r="D115" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E115" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H115" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -4397,25 +4487,25 @@
     </row>
     <row r="116" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>6578</v>
+        <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C116" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H116" s="7">
         <v>45392</v>
@@ -4425,72 +4515,72 @@
       <c r="K116" s="3"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>6885</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" s="3">
-        <v>3</v>
-      </c>
-      <c r="D117" s="3">
-        <v>20</v>
-      </c>
-      <c r="E117" s="4">
-        <v>4</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>27</v>
+    <row r="117" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="13">
+        <v>86</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="14">
+        <v>5</v>
+      </c>
+      <c r="D117" s="14">
+        <v>9</v>
+      </c>
+      <c r="E117" s="15">
+        <v>3</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H117" s="7">
+        <v>40</v>
+      </c>
+      <c r="H117" s="17">
         <v>45392</v>
       </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>6892</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" s="3">
-        <v>3</v>
-      </c>
-      <c r="D118" s="3">
-        <v>17</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="16"/>
+    </row>
+    <row r="118" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A118" s="21">
+        <v>5904</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="12">
+        <v>5</v>
+      </c>
+      <c r="D118" s="12">
+        <v>9</v>
+      </c>
+      <c r="E118" s="11">
         <v>2</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>27</v>
+      <c r="F118" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H118" s="7">
+        <v>40</v>
+      </c>
+      <c r="H118" s="22">
         <v>45392</v>
       </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>43</v>
+        <v>7147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C119" s="3">
         <v>5</v>
@@ -4498,14 +4588,14 @@
       <c r="D119" s="3">
         <v>9</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>19</v>
+      <c r="E119" s="4">
+        <v>3</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H119" s="7">
         <v>45392</v>
@@ -4515,87 +4605,87 @@
       <c r="K119" s="3"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="13">
-        <v>86</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="14">
+    <row r="120" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>1374</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="3">
         <v>5</v>
       </c>
-      <c r="D120" s="14">
-        <v>9</v>
-      </c>
-      <c r="E120" s="15">
-        <v>3</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120" s="17">
-        <v>45392</v>
-      </c>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="16"/>
+      <c r="D120" s="3">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H120" s="7">
+        <v>45390</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="5"/>
     </row>
     <row r="121" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A121" s="21">
-        <v>482</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C121" s="12">
+      <c r="A121" s="2">
+        <v>4105</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="3">
         <v>5</v>
       </c>
-      <c r="D121" s="12">
-        <v>22</v>
-      </c>
-      <c r="E121" s="11">
-        <v>1</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" s="22">
-        <v>45392</v>
-      </c>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
+      <c r="D121" s="3">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4">
+        <v>4</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H121" s="7">
+        <v>45394</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
       <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>614</v>
+        <v>4547</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C122" s="3">
         <v>5</v>
       </c>
       <c r="D122" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H122" s="7">
         <v>45392</v>
@@ -4603,16 +4693,14 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="L122" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L122" s="5"/>
     </row>
     <row r="123" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>1374</v>
+        <v>5381</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C123" s="3">
         <v>5</v>
@@ -4621,13 +4709,13 @@
         <v>10</v>
       </c>
       <c r="E123" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H123" s="7">
         <v>45390</v>
@@ -4639,25 +4727,25 @@
     </row>
     <row r="124" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>1730</v>
+        <v>6881</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C124" s="3">
         <v>5</v>
       </c>
       <c r="D124" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E124" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H124" s="7">
         <v>45392</v>
@@ -4665,29 +4753,31 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
-      <c r="L124" s="5"/>
+      <c r="L124" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="125" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>1739</v>
+        <v>614</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C125" s="3">
         <v>5</v>
       </c>
       <c r="D125" s="3">
-        <v>14</v>
-      </c>
-      <c r="E125" s="4">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H125" s="7">
         <v>45392</v>
@@ -4695,29 +4785,31 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="5"/>
+      <c r="L125" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="126" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>1795</v>
+        <v>2912</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C126" s="3">
         <v>5</v>
       </c>
       <c r="D126" s="3">
-        <v>14</v>
-      </c>
-      <c r="E126" s="4">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H126" s="7">
         <v>45392</v>
@@ -4729,25 +4821,25 @@
     </row>
     <row r="127" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>2547</v>
+        <v>1730</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C127" s="3">
         <v>5</v>
       </c>
       <c r="D127" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E127" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H127" s="7">
         <v>45392</v>
@@ -4759,25 +4851,25 @@
     </row>
     <row r="128" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>2563</v>
+        <v>1739</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C128" s="3">
         <v>5</v>
       </c>
       <c r="D128" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E128" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H128" s="7">
         <v>45392</v>
@@ -4789,25 +4881,25 @@
     </row>
     <row r="129" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>2573</v>
+        <v>1795</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C129" s="3">
         <v>5</v>
       </c>
       <c r="D129" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E129" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H129" s="7">
         <v>45392</v>
@@ -4819,25 +4911,25 @@
     </row>
     <row r="130" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>2912</v>
+        <v>4177</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C130" s="3">
         <v>5</v>
       </c>
       <c r="D130" s="3">
-        <v>11</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H130" s="7">
         <v>45392</v>
@@ -4845,93 +4937,91 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="L130" s="5"/>
+      <c r="L130" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="131" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>2924</v>
+      <c r="A131" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C131" s="3">
         <v>5</v>
       </c>
       <c r="D131" s="3">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E131" s="4">
         <v>1</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H131" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
-      <c r="L131" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>2988</v>
+      <c r="A132" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C132" s="3">
         <v>5</v>
       </c>
       <c r="D132" s="3">
-        <v>33</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H132" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>3004</v>
+      <c r="A133" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C133" s="3">
         <v>5</v>
       </c>
       <c r="D133" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E133" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H133" s="7">
         <v>45392</v>
@@ -4942,56 +5032,56 @@
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>3077</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="3">
+      <c r="A134" s="8">
+        <v>2563</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="9">
         <v>5</v>
       </c>
-      <c r="D134" s="3">
-        <v>21</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>18</v>
+      <c r="D134" s="9">
+        <v>16</v>
+      </c>
+      <c r="E134" s="10">
+        <v>3</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" s="7">
-        <v>45390</v>
-      </c>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H134" s="23">
+        <v>45392</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
-        <v>3829</v>
+      <c r="A135" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C135" s="3">
         <v>5</v>
       </c>
       <c r="D135" s="3">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E135" s="4">
         <v>3</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H135" s="7">
         <v>45392</v>
@@ -4999,32 +5089,34 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
-      <c r="L135" s="5"/>
+      <c r="L135" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="136" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>4000</v>
+        <v>7120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C136" s="3">
         <v>5</v>
       </c>
       <c r="D136" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E136" s="4">
         <v>4</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H136" s="7">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -5032,59 +5124,61 @@
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A137" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C137" s="9">
+      <c r="A137" s="2">
+        <v>2547</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="3">
         <v>5</v>
       </c>
-      <c r="D137" s="9">
-        <v>10</v>
-      </c>
-      <c r="E137" s="10">
-        <v>4</v>
-      </c>
-      <c r="F137" s="10" t="s">
+      <c r="D137" s="3">
+        <v>19</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G137" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H137" s="23">
-        <v>45394</v>
-      </c>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="5"/>
+      <c r="G137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H137" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="138" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>4109</v>
+        <v>5115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C138" s="3">
         <v>5</v>
       </c>
       <c r="D138" s="3">
-        <v>32</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E138" s="4">
+        <v>3</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H138" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -5093,25 +5187,25 @@
     </row>
     <row r="139" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>4177</v>
+        <v>5228</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C139" s="3">
         <v>5</v>
       </c>
       <c r="D139" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E139" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H139" s="7">
         <v>45392</v>
@@ -5119,31 +5213,29 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-      <c r="L139" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>4414</v>
+        <v>4000</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C140" s="3">
         <v>5</v>
       </c>
       <c r="D140" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E140" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H140" s="7">
         <v>45394</v>
@@ -5155,25 +5247,25 @@
     </row>
     <row r="141" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>4431</v>
+        <v>3004</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C141" s="3">
         <v>5</v>
       </c>
       <c r="D141" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E141" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H141" s="7">
         <v>45392</v>
@@ -5185,28 +5277,28 @@
     </row>
     <row r="142" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>4547</v>
+        <v>3077</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C142" s="3">
         <v>5</v>
       </c>
       <c r="D142" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H142" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -5218,7 +5310,7 @@
         <v>4576</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C143" s="3">
         <v>5</v>
@@ -5230,10 +5322,10 @@
         <v>3</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H143" s="7">
         <v>45392</v>
@@ -5245,10 +5337,10 @@
     </row>
     <row r="144" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>4959</v>
+        <v>482</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C144" s="3">
         <v>5</v>
@@ -5257,13 +5349,13 @@
         <v>22</v>
       </c>
       <c r="E144" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H144" s="7">
         <v>45392</v>
@@ -5271,16 +5363,14 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
-      <c r="L144" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>4990</v>
+        <v>4414</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C145" s="3">
         <v>5</v>
@@ -5288,17 +5378,17 @@
       <c r="D145" s="3">
         <v>22</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>19</v>
+      <c r="E145" s="4">
+        <v>2</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H145" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -5307,25 +5397,25 @@
     </row>
     <row r="146" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>5115</v>
+        <v>4959</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C146" s="3">
         <v>5</v>
       </c>
       <c r="D146" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E146" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H146" s="7">
         <v>45392</v>
@@ -5333,29 +5423,31 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
-      <c r="L146" s="5"/>
+      <c r="L146" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="147" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>5228</v>
+        <v>4990</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C147" s="3">
         <v>5</v>
       </c>
       <c r="D147" s="3">
-        <v>19</v>
-      </c>
-      <c r="E147" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H147" s="7">
         <v>45392</v>
@@ -5370,7 +5462,7 @@
         <v>5229</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C148" s="3">
         <v>5</v>
@@ -5382,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H148" s="7">
         <v>45392</v>
@@ -5394,33 +5486,33 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>5381</v>
+        <v>4431</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C149" s="3">
         <v>5</v>
       </c>
       <c r="D149" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E149" s="4">
         <v>3</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H149" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -5432,7 +5524,7 @@
         <v>5877</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C150" s="3">
         <v>5</v>
@@ -5444,10 +5536,10 @@
         <v>3</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H150" s="7">
         <v>45392</v>
@@ -5459,25 +5551,25 @@
     </row>
     <row r="151" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>5904</v>
+        <v>6875</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C151" s="3">
         <v>5</v>
       </c>
       <c r="D151" s="3">
-        <v>9</v>
-      </c>
-      <c r="E151" s="4">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H151" s="7">
         <v>45392</v>
@@ -5489,25 +5581,25 @@
     </row>
     <row r="152" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>6875</v>
+        <v>2573</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C152" s="3">
         <v>5</v>
       </c>
       <c r="D152" s="3">
-        <v>29</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="E152" s="4">
+        <v>4</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H152" s="7">
         <v>45392</v>
@@ -5519,87 +5611,87 @@
     </row>
     <row r="153" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>6881</v>
+        <v>4109</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C153" s="3">
         <v>5</v>
       </c>
       <c r="D153" s="3">
-        <v>10</v>
-      </c>
-      <c r="E153" s="4">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H153" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="L153" s="5" t="s">
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A154" s="8">
+        <v>2988</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="9">
+        <v>5</v>
+      </c>
+      <c r="D154" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>7120</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C154" s="3">
-        <v>5</v>
-      </c>
-      <c r="D154" s="3">
+      <c r="E154" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E154" s="4">
-        <v>4</v>
-      </c>
       <c r="F154" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H154" s="7">
+        <v>40</v>
+      </c>
+      <c r="H154" s="23">
         <v>45392</v>
       </c>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="5"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="155" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>7147</v>
+        <v>3829</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C155" s="3">
         <v>5</v>
       </c>
       <c r="D155" s="3">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E155" s="4">
         <v>3</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H155" s="7">
         <v>45392</v>
@@ -5610,17 +5702,17 @@
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>10</v>
+      <c r="A156" s="2">
+        <v>2924</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C156" s="3">
         <v>5</v>
       </c>
       <c r="D156" s="3">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E156" s="4">
         <v>1</v>
@@ -5629,70 +5721,72 @@
         <v>27</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H156" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
-      <c r="L156" s="5"/>
+      <c r="L156" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="157" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C157" s="9">
-        <v>5</v>
-      </c>
-      <c r="D157" s="9">
-        <v>14</v>
-      </c>
-      <c r="E157" s="10">
+      <c r="A157" s="2">
+        <v>5229</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H157" s="23">
+      <c r="E157" s="4">
+        <v>3</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H157" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>684</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="3">
+        <v>6</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+      <c r="E158" s="4">
+        <v>2</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158" s="7">
         <v>45390</v>
-      </c>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="5"/>
-    </row>
-    <row r="158" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C158" s="3">
-        <v>5</v>
-      </c>
-      <c r="D158" s="3">
-        <v>14</v>
-      </c>
-      <c r="E158" s="4">
-        <v>1</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" s="7">
-        <v>45392</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -5700,43 +5794,41 @@
       <c r="L158" s="5"/>
     </row>
     <row r="159" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>13</v>
+      <c r="A159" s="2">
+        <v>762</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C159" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D159" s="3">
-        <v>16</v>
-      </c>
-      <c r="E159" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H159" s="7">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
-      <c r="L159" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="L159" s="5"/>
     </row>
     <row r="160" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>684</v>
+        <v>1184</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C160" s="3">
         <v>6</v>
@@ -5745,28 +5837,30 @@
         <v>2</v>
       </c>
       <c r="E160" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H160" s="7">
-        <v>45390</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-      <c r="L160" s="5"/>
+      <c r="L160" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="161" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>762</v>
+        <v>4373</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C161" s="3">
         <v>6</v>
@@ -5774,74 +5868,74 @@
       <c r="D161" s="3">
         <v>2</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>19</v>
+      <c r="E161" s="4">
+        <v>2</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H161" s="7">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
-      <c r="L161" s="5"/>
+      <c r="L161" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="162" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>925</v>
+        <v>4712</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C162" s="3">
         <v>6</v>
       </c>
       <c r="D162" s="3">
-        <v>4</v>
-      </c>
-      <c r="E162" s="4">
         <v>2</v>
       </c>
+      <c r="E162" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F162" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="H162" s="7"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-      <c r="L162" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="L162" s="5"/>
     </row>
     <row r="163" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>978</v>
+        <v>4760</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C163" s="3">
         <v>6</v>
       </c>
       <c r="D163" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E163" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H163" s="7">
         <v>45392</v>
@@ -5849,14 +5943,16 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
-      <c r="L163" s="5"/>
+      <c r="L163" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="164" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>1184</v>
+        <v>4777</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C164" s="3">
         <v>6</v>
@@ -5865,45 +5961,47 @@
         <v>2</v>
       </c>
       <c r="E164" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H164" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H164" s="7">
+        <v>45392</v>
+      </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
-      <c r="L164" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L164" s="5"/>
     </row>
     <row r="165" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>2074</v>
+        <v>5267</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C165" s="3">
         <v>6</v>
       </c>
       <c r="D165" s="3">
-        <v>16</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H165" s="7">
+        <v>45392</v>
+      </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -5911,27 +6009,29 @@
     </row>
     <row r="166" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>2276</v>
+        <v>5865</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C166" s="3">
         <v>6</v>
       </c>
       <c r="D166" s="3">
-        <v>22</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="E166" s="4">
+        <v>2</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H166" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H166" s="7">
+        <v>45392</v>
+      </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -5939,124 +6039,136 @@
     </row>
     <row r="167" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>2663</v>
+        <v>5742</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C167" s="3">
         <v>6</v>
       </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="4"/>
+      <c r="D167" s="3">
+        <v>3</v>
+      </c>
+      <c r="E167" s="4">
+        <v>2</v>
+      </c>
       <c r="F167" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H167" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H167" s="7">
+        <v>45392</v>
+      </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-      <c r="L167" s="5"/>
+      <c r="L167" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="168" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>2941</v>
+        <v>925</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C168" s="3">
         <v>6</v>
       </c>
       <c r="D168" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E168" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G168" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="H168" s="7">
-        <v>45392</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
-      <c r="L168" s="24" t="s">
-        <v>35</v>
+      <c r="L168" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>2950</v>
+        <v>5031</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C169" s="3">
         <v>6</v>
       </c>
       <c r="D169" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E169" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H169" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H169" s="7">
+        <v>45394</v>
+      </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
-      <c r="L169" s="5"/>
+      <c r="L169" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="170" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>2980</v>
+        <v>5641</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C170" s="3">
         <v>6</v>
       </c>
       <c r="D170" s="3">
-        <v>11</v>
-      </c>
-      <c r="E170" s="4">
         <v>4</v>
       </c>
+      <c r="E170" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F170" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H170" s="7">
-        <v>45392</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
-      <c r="L170" s="5"/>
+      <c r="L170" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="171" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>3305</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C171" s="3">
         <v>6</v>
@@ -6065,13 +6177,13 @@
         <v>5</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H171" s="7">
         <v>45392</v>
@@ -6083,58 +6195,60 @@
     </row>
     <row r="172" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>3371</v>
+        <v>5365</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C172" s="3">
         <v>6</v>
       </c>
       <c r="D172" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E172" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F172" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H172" s="7">
-        <v>45392</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
-      <c r="L172" s="5"/>
+      <c r="L172" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="173" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>3379</v>
+        <v>5619</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C173" s="3">
         <v>6</v>
       </c>
       <c r="D173" s="3">
-        <v>11</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H173" s="7">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -6142,146 +6256,152 @@
       <c r="L173" s="5"/>
     </row>
     <row r="174" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>3770</v>
+      <c r="A174" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C174" s="3">
         <v>6</v>
       </c>
       <c r="D174" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E174" s="4">
         <v>4</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H174" s="7">
-        <v>45390</v>
+        <v>45394</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
-      <c r="L174" s="5"/>
+      <c r="L174" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="175" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>4373</v>
+      <c r="A175" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C175" s="3">
         <v>6</v>
       </c>
       <c r="D175" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E175" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H175" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>4505</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C176" s="3">
-        <v>6</v>
-      </c>
-      <c r="D176" s="3">
-        <v>11</v>
-      </c>
-      <c r="E176" s="4">
-        <v>4</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>27</v>
+      <c r="A176" s="8">
+        <v>978</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" s="9">
+        <v>6</v>
+      </c>
+      <c r="D176" s="9">
+        <v>6</v>
+      </c>
+      <c r="E176" s="10">
+        <v>1</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H176" s="7">
+        <v>40</v>
+      </c>
+      <c r="H176" s="23">
         <v>45392</v>
       </c>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
       <c r="L176" s="5"/>
     </row>
     <row r="177" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>4510</v>
+        <v>2941</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C177" s="3">
         <v>6</v>
       </c>
       <c r="D177" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E177" s="4">
         <v>4</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H177" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H177" s="7">
+        <v>45392</v>
+      </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
-      <c r="L177" s="5"/>
+      <c r="L177" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="178" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>4511</v>
+        <v>5403</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C178" s="3">
         <v>6</v>
       </c>
       <c r="D178" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H178" s="7">
         <v>45392</v>
@@ -6292,54 +6412,56 @@
       <c r="L178" s="5"/>
     </row>
     <row r="179" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A179" s="8">
-        <v>4543</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C179" s="9">
-        <v>6</v>
-      </c>
-      <c r="D179" s="9">
-        <v>16</v>
-      </c>
-      <c r="E179" s="10">
-        <v>2</v>
-      </c>
-      <c r="F179" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G179" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
+      <c r="A179" s="2">
+        <v>5626</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" s="3">
+        <v>6</v>
+      </c>
+      <c r="D179" s="3">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H179" s="7">
+        <v>45392</v>
+      </c>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
       <c r="L179" s="5"/>
     </row>
     <row r="180" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>4582</v>
+        <v>5722</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C180" s="3">
         <v>6</v>
       </c>
       <c r="D180" s="3">
-        <v>11</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="E180" s="4">
+        <v>4</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H180" s="7">
         <v>45392</v>
@@ -6347,31 +6469,33 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-      <c r="L180" s="5"/>
+      <c r="L180" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="181" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>4712</v>
+        <v>2950</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C181" s="3">
         <v>6</v>
       </c>
       <c r="D181" s="3">
-        <v>2</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="E181" s="4">
+        <v>1</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H181" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -6379,61 +6503,57 @@
     </row>
     <row r="182" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>4760</v>
+        <v>5714</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C182" s="3">
         <v>6</v>
       </c>
       <c r="D182" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E182" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" s="7">
-        <v>45392</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>4777</v>
+        <v>5852</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C183" s="3">
         <v>6</v>
       </c>
       <c r="D183" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E183" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H183" s="7">
-        <v>45392</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -6441,28 +6561,28 @@
     </row>
     <row r="184" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>5031</v>
+        <v>3770</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C184" s="3">
         <v>6</v>
       </c>
       <c r="D184" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E184" s="4">
         <v>4</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H184" s="7">
-        <v>45394</v>
+        <v>45390</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -6471,27 +6591,29 @@
     </row>
     <row r="185" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>5060</v>
+        <v>2980</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C185" s="3">
         <v>6</v>
       </c>
       <c r="D185" s="3">
-        <v>27</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E185" s="4">
+        <v>4</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H185" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H185" s="7">
+        <v>45392</v>
+      </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -6499,25 +6621,25 @@
     </row>
     <row r="186" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>5229</v>
+        <v>3371</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C186" s="3">
         <v>6</v>
       </c>
       <c r="D186" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E186" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H186" s="7">
         <v>45392</v>
@@ -6529,28 +6651,28 @@
     </row>
     <row r="187" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>5267</v>
+        <v>3379</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C187" s="3">
         <v>6</v>
       </c>
       <c r="D187" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H187" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -6559,27 +6681,29 @@
     </row>
     <row r="188" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>5365</v>
+        <v>4505</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C188" s="3">
         <v>6</v>
       </c>
       <c r="D188" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E188" s="4">
         <v>4</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H188" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H188" s="7">
+        <v>45392</v>
+      </c>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -6587,29 +6711,27 @@
     </row>
     <row r="189" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>5403</v>
+        <v>4510</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C189" s="3">
         <v>6</v>
       </c>
       <c r="D189" s="3">
-        <v>6</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E189" s="4">
+        <v>4</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H189" s="7">
-        <v>45392</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -6617,27 +6739,29 @@
     </row>
     <row r="190" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>5509</v>
+        <v>4582</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C190" s="3">
         <v>6</v>
       </c>
       <c r="D190" s="3">
+        <v>11</v>
+      </c>
+      <c r="E190" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E190" s="4">
-        <v>2</v>
-      </c>
       <c r="F190" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H190" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H190" s="7">
+        <v>45392</v>
+      </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -6645,28 +6769,28 @@
     </row>
     <row r="191" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>5619</v>
+        <v>2074</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C191" s="3">
         <v>6</v>
       </c>
       <c r="D191" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E191" s="4">
         <v>1</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H191" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -6675,25 +6799,25 @@
     </row>
     <row r="192" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>5626</v>
+        <v>4511</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C192" s="3">
         <v>6</v>
       </c>
       <c r="D192" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H192" s="7">
         <v>45392</v>
@@ -6705,27 +6829,29 @@
     </row>
     <row r="193" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>5641</v>
+        <v>4543</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C193" s="3">
         <v>6</v>
       </c>
       <c r="D193" s="3">
-        <v>4</v>
-      </c>
-      <c r="E193" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E193" s="4">
+        <v>2</v>
+      </c>
       <c r="F193" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H193" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H193" s="7">
+        <v>45394</v>
+      </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -6733,27 +6859,29 @@
     </row>
     <row r="194" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>5714</v>
+        <v>5509</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C194" s="3">
         <v>6</v>
       </c>
       <c r="D194" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E194" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F194" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H194" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G194" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
@@ -6761,57 +6889,55 @@
     </row>
     <row r="195" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>5722</v>
+        <v>6884</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C195" s="3">
         <v>6</v>
       </c>
       <c r="D195" s="3">
-        <v>6</v>
-      </c>
-      <c r="E195" s="4">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H195" s="7">
-        <v>45392</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
-      <c r="L195" s="24" t="s">
-        <v>35</v>
+      <c r="L195" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>5742</v>
+        <v>5783</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C196" s="3">
         <v>6</v>
       </c>
       <c r="D196" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E196" s="4">
         <v>2</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H196" s="7">
         <v>45392</v>
@@ -6819,34 +6945,32 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
-      <c r="L196" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="L196" s="5"/>
     </row>
     <row r="197" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>5783</v>
+        <v>2276</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C197" s="3">
         <v>6</v>
       </c>
       <c r="D197" s="3">
-        <v>20</v>
-      </c>
-      <c r="E197" s="4">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H197" s="7">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
@@ -6855,158 +6979,98 @@
     </row>
     <row r="198" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>5852</v>
+        <v>5060</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C198" s="3">
         <v>6</v>
       </c>
       <c r="D198" s="3">
-        <v>9</v>
-      </c>
-      <c r="E198" s="4">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H198" s="7">
+        <v>45394</v>
+      </c>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
-        <v>5865</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C199" s="3">
-        <v>6</v>
-      </c>
-      <c r="D199" s="3">
+      <c r="A199" s="8">
+        <v>6879</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" s="9">
+        <v>6</v>
+      </c>
+      <c r="D199" s="9">
+        <v>36</v>
+      </c>
+      <c r="E199" s="10">
         <v>2</v>
       </c>
-      <c r="E199" s="4">
-        <v>2</v>
-      </c>
-      <c r="F199" s="4" t="s">
+      <c r="F199" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H199" s="23">
+        <v>45394</v>
+      </c>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A200" s="8">
+        <v>2663</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="9">
+        <v>6</v>
+      </c>
+      <c r="D200" s="9"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G200" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H200" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H199" s="7">
-        <v>45392</v>
-      </c>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="5"/>
-    </row>
-    <row r="200" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
-        <v>6879</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C200" s="3">
-        <v>6</v>
-      </c>
-      <c r="D200" s="3">
-        <v>36</v>
-      </c>
-      <c r="E200" s="4">
-        <v>2</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
       <c r="L200" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
-        <v>6884</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201" s="3">
-        <v>6</v>
-      </c>
-      <c r="D201" s="3">
-        <v>19</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C202" s="9">
-        <v>6</v>
-      </c>
-      <c r="D202" s="9">
-        <v>5</v>
-      </c>
-      <c r="E202" s="10">
-        <v>4</v>
-      </c>
-      <c r="F202" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G202" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H202" s="23">
-        <v>45394</v>
-      </c>
-      <c r="I202" s="9"/>
-      <c r="J202" s="9"/>
-      <c r="K202" s="9"/>
-      <c r="L202" s="26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L120">
-    <sortCondition ref="C2:C120"/>
-    <sortCondition ref="D2:D120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L117">
+    <sortCondition ref="C2:C117"/>
+    <sortCondition ref="D2:D117"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
